--- a/Arquivos/Comparações/Comparações dos valores de alfa para o graspRVND.xlsx
+++ b/Arquivos/Comparações/Comparações dos valores de alfa para o graspRVND.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="52">
   <si>
     <t>Valores de α</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>gr21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
   </si>
   <si>
     <t>gr24</t>
@@ -174,11 +177,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -189,7 +192,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -197,9 +207,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,6 +251,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -226,38 +260,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,6 +276,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,14 +329,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,14 +337,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,6 +359,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -368,19 +401,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,31 +425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,13 +443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,13 +467,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,43 +491,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,19 +527,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,21 +568,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -604,17 +592,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,13 +651,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,171 +670,177 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1155,46 +1164,54 @@
   <sheetPr/>
   <dimension ref="C3:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="19.1428571428571" customWidth="1"/>
-    <col min="10" max="10" width="10.2857142857143" customWidth="1"/>
-    <col min="11" max="11" width="19.1428571428571" customWidth="1"/>
-    <col min="17" max="17" width="10.2857142857143" customWidth="1"/>
-    <col min="18" max="18" width="19.1428571428571" customWidth="1"/>
+    <col min="1" max="2" width="9.14285714285714" style="1"/>
+    <col min="3" max="3" width="11.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7142857142857" style="1"/>
+    <col min="6" max="9" width="9.14285714285714" style="1"/>
+    <col min="10" max="10" width="10.2857142857143" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1428571428571" style="1" customWidth="1"/>
+    <col min="12" max="14" width="11.7142857142857" style="1"/>
+    <col min="15" max="16" width="9.14285714285714" style="1"/>
+    <col min="17" max="17" width="10.2857142857143" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.1428571428571" style="1" customWidth="1"/>
+    <col min="19" max="21" width="11.7142857142857" style="1"/>
+    <col min="22" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="15" spans="3:22">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+    <row r="3" ht="15.75" spans="3:22">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
       <c r="S3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-    </row>
-    <row r="4" ht="15" spans="3:22">
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" ht="15.75" spans="3:22">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1250,1677 +1267,2207 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="3:22">
+    <row r="5" ht="15.75" spans="3:22">
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3">
         <v>70</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="4">
+      <c r="E5" s="4">
+        <v>649.82</v>
+      </c>
+      <c r="F5" s="5">
         <v>657.9</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="4">
+        <v>711.77</v>
+      </c>
+      <c r="H5" s="2"/>
       <c r="J5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="6">
         <v>140</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="6">
+      <c r="L5" s="4">
+        <v>1289.94</v>
+      </c>
+      <c r="M5" s="7">
         <v>1368.02</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="N5" s="4">
+        <v>1344.31</v>
+      </c>
+      <c r="O5" s="2"/>
       <c r="Q5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="6">
         <v>210</v>
       </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="6">
+      <c r="S5" s="8">
+        <v>1953.66</v>
+      </c>
+      <c r="T5" s="7">
         <v>1954.31</v>
       </c>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-    </row>
-    <row r="6" ht="15" spans="3:22">
+      <c r="U5" s="8">
+        <v>1933.82</v>
+      </c>
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" ht="15.75" spans="3:22">
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3">
         <v>7</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="4">
+      <c r="E6" s="4">
+        <v>275</v>
+      </c>
+      <c r="F6" s="5">
         <v>271</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="4">
+        <v>246</v>
+      </c>
+      <c r="H6" s="2"/>
       <c r="J6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="6">
         <v>14</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="6">
+      <c r="L6" s="4">
+        <v>581</v>
+      </c>
+      <c r="M6" s="7">
         <v>571</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="N6" s="4">
+        <v>571</v>
+      </c>
+      <c r="O6" s="2"/>
       <c r="Q6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="6">
         <v>21</v>
       </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="6">
+      <c r="S6" s="8">
+        <v>1035</v>
+      </c>
+      <c r="T6" s="7">
         <v>918</v>
       </c>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="7" ht="15" spans="3:22">
+      <c r="U6" s="8">
+        <v>918</v>
+      </c>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" ht="15.75" spans="3:22">
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="3">
         <v>7</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="4">
+      <c r="E7" s="4">
+        <v>319</v>
+      </c>
+      <c r="F7" s="5">
         <v>282</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="4">
+        <v>282</v>
+      </c>
+      <c r="H7" s="2"/>
       <c r="J7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <v>14</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="6">
+      <c r="L7" s="4">
+        <v>692</v>
+      </c>
+      <c r="M7" s="7">
         <v>651</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="N7" s="4">
+        <v>640</v>
+      </c>
+      <c r="O7" s="2"/>
       <c r="Q7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="6">
         <v>21</v>
       </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="6">
+      <c r="S7" s="8">
+        <v>1090</v>
+      </c>
+      <c r="T7" s="7">
         <v>1086</v>
       </c>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-    </row>
-    <row r="8" ht="15" spans="3:22">
+      <c r="U7" s="8">
+        <v>1090</v>
+      </c>
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" ht="15.75" spans="3:22">
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3">
         <v>13</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="4">
+      <c r="E8" s="4">
         <v>480.48</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="F8" s="5">
+        <v>480.48</v>
+      </c>
+      <c r="G8" s="4">
+        <v>480.48</v>
+      </c>
+      <c r="H8" s="2"/>
       <c r="J8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="6">
         <v>26</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="6">
+      <c r="L8" s="4">
+        <v>1749.38</v>
+      </c>
+      <c r="M8" s="7">
         <v>1733.82</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="N8" s="4">
+        <v>1733.82</v>
+      </c>
+      <c r="O8" s="2"/>
       <c r="Q8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="6">
         <v>39</v>
       </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="6">
+      <c r="S8" s="8">
+        <v>3910.64</v>
+      </c>
+      <c r="T8" s="7">
         <v>3868.97</v>
       </c>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-    </row>
-    <row r="9" ht="15" spans="3:22">
+      <c r="U8" s="8">
+        <v>3859.81</v>
+      </c>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" ht="15.75" spans="3:22">
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="3">
         <v>31</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="4">
+      <c r="E9" s="4">
+        <v>10301.6</v>
+      </c>
+      <c r="F9" s="5">
         <v>9682.94</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="4">
+        <v>9776.1</v>
+      </c>
+      <c r="H9" s="2"/>
       <c r="J9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="6">
         <v>63</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="6">
+      <c r="L9" s="4">
+        <v>25935.45</v>
+      </c>
+      <c r="M9" s="7">
         <v>26660.41</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="N9" s="4">
+        <v>25378.24</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="Q9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="6">
         <v>95</v>
       </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="6">
+      <c r="S9" s="8">
+        <v>51268.42</v>
+      </c>
+      <c r="T9" s="7">
         <v>50491.65</v>
       </c>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-    </row>
-    <row r="10" ht="15" spans="3:22">
+      <c r="U9" s="8">
+        <v>49999.6</v>
+      </c>
+      <c r="V9" s="2"/>
+    </row>
+    <row r="10" ht="15.75" spans="3:22">
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="4">
+      <c r="E10" s="4">
         <v>224.88</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="F10" s="5">
+        <v>224.88</v>
+      </c>
+      <c r="G10" s="4">
+        <v>224.88</v>
+      </c>
+      <c r="H10" s="2"/>
       <c r="J10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="6">
         <v>7</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="6">
+      <c r="L10" s="4">
         <v>1140.19</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="M10" s="7">
+        <v>1140.19</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1140.19</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="Q10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="6">
         <v>10</v>
       </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="6">
+      <c r="S10" s="8">
         <v>1637.31</v>
       </c>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-    </row>
-    <row r="11" ht="15" spans="3:22">
+      <c r="T10" s="7">
+        <v>1637.31</v>
+      </c>
+      <c r="U10" s="8">
+        <v>1637.31</v>
+      </c>
+      <c r="V10" s="2"/>
+    </row>
+    <row r="11" ht="15.75" spans="3:22">
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="3">
         <v>32</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="4">
+      <c r="E11" s="4">
+        <v>1123.61</v>
+      </c>
+      <c r="F11" s="5">
         <v>1068.23</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="4">
+        <v>1029.79</v>
+      </c>
+      <c r="H11" s="2"/>
       <c r="J11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="6">
         <v>65</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="6">
+      <c r="L11" s="4">
+        <v>2390.07</v>
+      </c>
+      <c r="M11" s="7">
         <v>2605.19</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="N11" s="4">
+        <v>2400.43</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="Q11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="6">
         <v>97</v>
       </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="6">
+      <c r="S11" s="8">
+        <v>3828.1</v>
+      </c>
+      <c r="T11" s="7">
         <v>3861.47</v>
       </c>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-    </row>
-    <row r="12" ht="15" spans="3:22">
+      <c r="U11" s="8">
+        <v>3865.98</v>
+      </c>
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" ht="15.75" spans="3:22">
       <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="3">
         <v>37</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="4">
+      <c r="E12" s="4">
+        <v>1297.97</v>
+      </c>
+      <c r="F12" s="5">
         <v>1323.98</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="4">
+        <v>1336.6</v>
+      </c>
+      <c r="H12" s="2"/>
       <c r="J12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="6">
         <v>75</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="6">
+      <c r="L12" s="4">
+        <v>2874.61</v>
+      </c>
+      <c r="M12" s="7">
         <v>2898.38</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="N12" s="4">
+        <v>2803.38</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="Q12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="6">
         <v>112</v>
       </c>
-      <c r="S12" s="1"/>
-      <c r="T12" s="6">
+      <c r="S12" s="8">
+        <v>4484.25</v>
+      </c>
+      <c r="T12" s="7">
         <v>4524.88</v>
       </c>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-    </row>
-    <row r="13" ht="15" spans="3:22">
+      <c r="U12" s="8">
+        <v>4503.43</v>
+      </c>
+      <c r="V12" s="2"/>
+    </row>
+    <row r="13" ht="15.75" spans="3:22">
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="3">
         <v>10</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="4">
+      <c r="E13" s="4">
+        <v>99</v>
+      </c>
+      <c r="F13" s="5">
         <v>98</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="4">
+        <v>99</v>
+      </c>
+      <c r="H13" s="2"/>
       <c r="J13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="6">
         <v>21</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="6">
+      <c r="L13" s="4">
+        <v>244</v>
+      </c>
+      <c r="M13" s="7">
         <v>220</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="N13" s="4">
+        <v>221</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="Q13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="6">
         <v>31</v>
       </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="6">
+      <c r="S13" s="8">
+        <v>391</v>
+      </c>
+      <c r="T13" s="7">
         <v>388</v>
       </c>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-    </row>
-    <row r="14" ht="15" spans="3:22">
+      <c r="U13" s="8">
+        <v>392</v>
+      </c>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" ht="15.75" spans="3:22">
       <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="3">
         <v>12</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="4">
+      <c r="E14" s="4">
+        <v>78.72</v>
+      </c>
+      <c r="F14" s="5">
         <v>71.46</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="4">
+        <v>71.46</v>
+      </c>
+      <c r="H14" s="2"/>
       <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="6">
         <v>25</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="6">
+      <c r="L14" s="4">
+        <v>167.76</v>
+      </c>
+      <c r="M14" s="7">
         <v>168.63</v>
       </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="N14" s="4">
+        <v>170.35</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="Q14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="6">
         <v>38</v>
       </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="6">
+      <c r="S14" s="8">
+        <v>282.97</v>
+      </c>
+      <c r="T14" s="7">
         <v>281.57</v>
       </c>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-    </row>
-    <row r="15" ht="15" spans="3:22">
+      <c r="U14" s="8">
+        <v>281.59</v>
+      </c>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" ht="15.75" spans="3:22">
       <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="3">
         <v>19</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="4">
+      <c r="E15" s="4">
+        <v>102.27</v>
+      </c>
+      <c r="F15" s="5">
         <v>95.9</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="4">
+        <v>98.03</v>
+      </c>
+      <c r="H15" s="2"/>
       <c r="J15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="6">
         <v>38</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="6">
+      <c r="L15" s="4">
+        <v>215.67</v>
+      </c>
+      <c r="M15" s="7">
         <v>215.73</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="N15" s="4">
+        <v>220.05</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="Q15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="6">
         <v>57</v>
       </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="6">
+      <c r="S15" s="8">
+        <v>348.45</v>
+      </c>
+      <c r="T15" s="7">
         <v>340.57</v>
       </c>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-    </row>
-    <row r="16" ht="15" spans="3:22">
+      <c r="U15" s="8">
+        <v>335.91</v>
+      </c>
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" ht="15.75" spans="3:22">
       <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="3">
         <v>25</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="4">
+      <c r="E16" s="4">
         <v>96.2</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="F16" s="5">
+        <v>96.2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>95.24</v>
+      </c>
+      <c r="H16" s="2"/>
       <c r="J16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="6">
         <v>50</v>
       </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="6">
+      <c r="L16" s="4">
+        <v>239.81</v>
+      </c>
+      <c r="M16" s="7">
         <v>232.34</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="N16" s="4">
+        <v>234.03</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="Q16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="6">
         <v>75</v>
       </c>
-      <c r="S16" s="1"/>
-      <c r="T16" s="6">
+      <c r="S16" s="8">
+        <v>402.32</v>
+      </c>
+      <c r="T16" s="7">
         <v>403.57</v>
       </c>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-    </row>
-    <row r="17" ht="15" spans="3:22">
+      <c r="U16" s="8">
+        <v>398.4</v>
+      </c>
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" ht="15.75" spans="3:22">
       <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="4">
+      <c r="E17" s="4">
         <v>145</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="F17" s="5">
+        <v>145</v>
+      </c>
+      <c r="G17" s="4">
+        <v>145</v>
+      </c>
+      <c r="H17" s="2"/>
       <c r="J17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="6">
         <v>13</v>
       </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="6">
+      <c r="L17" s="4">
+        <v>343</v>
+      </c>
+      <c r="M17" s="7">
         <v>317</v>
       </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="N17" s="4">
+        <v>308</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="Q17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="6">
         <v>19</v>
       </c>
-      <c r="S17" s="1"/>
-      <c r="T17" s="6">
+      <c r="S17" s="8">
+        <v>521</v>
+      </c>
+      <c r="T17" s="7">
         <v>492</v>
       </c>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-    </row>
-    <row r="18" ht="15" spans="3:22">
+      <c r="U17" s="8">
+        <v>495</v>
+      </c>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" ht="15.75" spans="3:22">
       <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="3">
         <v>65</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="4">
+      <c r="E18" s="4">
+        <v>497.77</v>
+      </c>
+      <c r="F18" s="5">
         <v>493.84</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="4">
+        <v>540.65</v>
+      </c>
+      <c r="H18" s="2"/>
       <c r="J18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="6">
         <v>131</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="6">
+      <c r="L18" s="4">
+        <v>1036.7</v>
+      </c>
+      <c r="M18" s="7">
         <v>1027.2</v>
       </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="N18" s="4">
+        <v>1057.68</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="Q18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="6">
         <v>196</v>
       </c>
-      <c r="S18" s="1"/>
-      <c r="T18" s="6">
+      <c r="S18" s="8">
+        <v>1672.3</v>
+      </c>
+      <c r="T18" s="7">
         <v>1632.51</v>
       </c>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-    </row>
-    <row r="19" ht="15" spans="3:22">
+      <c r="U18" s="8">
+        <v>1671.71</v>
+      </c>
+      <c r="V18" s="2"/>
+    </row>
+    <row r="19" ht="15.75" spans="3:22">
       <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="3">
         <v>4</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="4">
+      <c r="E19" s="4">
         <v>143</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="F19" s="5">
+        <v>143</v>
+      </c>
+      <c r="G19" s="4">
+        <v>143</v>
+      </c>
+      <c r="H19" s="2"/>
       <c r="J19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="6">
         <v>8</v>
       </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="6">
+      <c r="L19" s="4">
         <v>359</v>
       </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="M19" s="7">
+        <v>359</v>
+      </c>
+      <c r="N19" s="4">
+        <v>359</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="Q19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="6">
         <v>12</v>
       </c>
-      <c r="S19" s="1"/>
-      <c r="T19" s="6">
+      <c r="S19" s="8">
         <v>640</v>
       </c>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-    </row>
-    <row r="20" ht="15" spans="3:22">
+      <c r="T19" s="7">
+        <v>640</v>
+      </c>
+      <c r="U19" s="8">
+        <v>640</v>
+      </c>
+      <c r="V19" s="2"/>
+    </row>
+    <row r="20" ht="15.75" spans="3:22">
       <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="3">
         <v>5</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="4">
+      <c r="E20" s="4">
         <v>181</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="F20" s="5">
+        <v>181</v>
+      </c>
+      <c r="G20" s="4">
+        <v>181</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="J20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="6">
         <v>10</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="6">
+      <c r="L20" s="4">
+        <v>836</v>
+      </c>
+      <c r="M20" s="7">
         <v>727</v>
       </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="N20" s="4">
+        <v>683</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="Q20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="6">
         <v>15</v>
       </c>
-      <c r="S20" s="1"/>
-      <c r="T20" s="6">
+      <c r="S20" s="8">
         <v>1276</v>
       </c>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-    </row>
-    <row r="21" ht="15" spans="3:22">
+      <c r="T20" s="7">
+        <v>1276</v>
+      </c>
+      <c r="U20" s="8">
+        <v>1276</v>
+      </c>
+      <c r="V20" s="2"/>
+    </row>
+    <row r="21" ht="15.75" spans="3:22">
       <c r="C21" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21" s="3">
         <v>6</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="4">
+      <c r="E21" s="4">
         <v>162</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="F21" s="5">
+        <v>162</v>
+      </c>
+      <c r="G21" s="4">
+        <v>162</v>
+      </c>
+      <c r="H21" s="2"/>
       <c r="J21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="5">
+        <v>24</v>
+      </c>
+      <c r="K21" s="6">
         <v>12</v>
       </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="6">
+      <c r="L21" s="4">
+        <v>413</v>
+      </c>
+      <c r="M21" s="7">
         <v>396</v>
       </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="N21" s="4">
+        <v>396</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="Q21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" s="5">
+        <v>24</v>
+      </c>
+      <c r="R21" s="6">
         <v>18</v>
       </c>
-      <c r="S21" s="1"/>
-      <c r="T21" s="6">
+      <c r="S21" s="8">
+        <v>794</v>
+      </c>
+      <c r="T21" s="7">
         <v>748</v>
       </c>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-    </row>
-    <row r="22" ht="15" spans="3:22">
+      <c r="U21" s="8">
+        <v>748</v>
+      </c>
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" ht="15.75" spans="3:22">
       <c r="C22" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="3">
         <v>12</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="4">
+      <c r="E22" s="4">
         <v>558</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="F22" s="5">
+        <v>558</v>
+      </c>
+      <c r="G22" s="4">
+        <v>558</v>
+      </c>
+      <c r="H22" s="2"/>
       <c r="J22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="6">
         <v>24</v>
       </c>
-      <c r="K22" s="5">
-        <v>24</v>
-      </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="6">
+      <c r="L22" s="4">
         <v>1666</v>
       </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="M22" s="7">
+        <v>1666</v>
+      </c>
+      <c r="N22" s="4">
+        <v>1671</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="Q22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R22" s="5">
+        <v>25</v>
+      </c>
+      <c r="R22" s="6">
         <v>36</v>
       </c>
-      <c r="S22" s="1"/>
-      <c r="T22" s="6">
+      <c r="S22" s="8">
+        <v>3059</v>
+      </c>
+      <c r="T22" s="7">
         <v>2992</v>
       </c>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-    </row>
-    <row r="23" ht="15" spans="3:22">
+      <c r="U22" s="8">
+        <v>2990</v>
+      </c>
+      <c r="V22" s="2"/>
+    </row>
+    <row r="23" ht="15.75" spans="3:22">
       <c r="C23" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" s="3">
         <v>24</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="4">
+      <c r="E23" s="4">
+        <v>9270.86</v>
+      </c>
+      <c r="F23" s="5">
         <v>9691.96</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="4">
+        <v>9604.79</v>
+      </c>
+      <c r="H23" s="2"/>
       <c r="J23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="5">
+        <v>26</v>
+      </c>
+      <c r="K23" s="6">
         <v>48</v>
       </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="6">
+      <c r="L23" s="4">
+        <v>21333.83</v>
+      </c>
+      <c r="M23" s="7">
         <v>21588.21</v>
       </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="N23" s="4">
+        <v>22297.67</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="Q23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R23" s="5">
+        <v>26</v>
+      </c>
+      <c r="R23" s="6">
         <v>72</v>
       </c>
-      <c r="S23" s="1"/>
-      <c r="T23" s="6">
+      <c r="S23" s="8">
+        <v>32463.17</v>
+      </c>
+      <c r="T23" s="7">
         <v>33412.45</v>
       </c>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-    </row>
-    <row r="24" ht="15" spans="3:22">
+      <c r="U23" s="8">
+        <v>33217.19</v>
+      </c>
+      <c r="V23" s="2"/>
+    </row>
+    <row r="24" ht="15.75" spans="3:22">
       <c r="C24" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="3">
         <v>12</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="4">
+      <c r="E24" s="4">
+        <v>1954</v>
+      </c>
+      <c r="F24" s="5">
         <v>2098</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="G24" s="4">
+        <v>1985</v>
+      </c>
+      <c r="H24" s="2"/>
       <c r="J24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="5">
+        <v>27</v>
+      </c>
+      <c r="K24" s="6">
         <v>24</v>
       </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="6">
+      <c r="L24" s="4">
+        <v>4013</v>
+      </c>
+      <c r="M24" s="7">
         <v>4043</v>
       </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="N24" s="4">
+        <v>4024</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="Q24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R24" s="5">
+        <v>27</v>
+      </c>
+      <c r="R24" s="6">
         <v>36</v>
       </c>
-      <c r="S24" s="1"/>
-      <c r="T24" s="6">
+      <c r="S24" s="8">
+        <v>6973</v>
+      </c>
+      <c r="T24" s="7">
         <v>6814</v>
       </c>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-    </row>
-    <row r="25" ht="15" spans="3:22">
+      <c r="U24" s="8">
+        <v>6970</v>
+      </c>
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" ht="15.75" spans="3:22">
       <c r="C25" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="3">
         <v>25</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="4">
+      <c r="E25" s="4">
+        <v>4247.61</v>
+      </c>
+      <c r="F25" s="5">
         <v>4304.35</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="4">
+        <v>4605.12</v>
+      </c>
+      <c r="H25" s="2"/>
       <c r="J25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" s="5">
+        <v>28</v>
+      </c>
+      <c r="K25" s="6">
         <v>50</v>
       </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="6">
+      <c r="L25" s="4">
+        <v>8984.35</v>
+      </c>
+      <c r="M25" s="7">
         <v>8678.09</v>
       </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="N25" s="4">
+        <v>9290.78</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="Q25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R25" s="5">
+        <v>28</v>
+      </c>
+      <c r="R25" s="6">
         <v>75</v>
       </c>
-      <c r="S25" s="1"/>
-      <c r="T25" s="6">
+      <c r="S25" s="8">
+        <v>14043.38</v>
+      </c>
+      <c r="T25" s="7">
         <v>14184.41</v>
       </c>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-    </row>
-    <row r="26" ht="15" spans="3:22">
+      <c r="U25" s="8">
+        <v>14123.96</v>
+      </c>
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" ht="15.75" spans="3:22">
       <c r="C26" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" s="3">
         <v>37</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="4">
+      <c r="E26" s="4">
+        <v>5507.11</v>
+      </c>
+      <c r="F26" s="5">
         <v>5270.34</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="G26" s="4">
+        <v>5943.72</v>
+      </c>
+      <c r="H26" s="2"/>
       <c r="J26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="5">
+        <v>29</v>
+      </c>
+      <c r="K26" s="6">
         <v>75</v>
       </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="6">
+      <c r="L26" s="4">
+        <v>11744.78</v>
+      </c>
+      <c r="M26" s="7">
         <v>11179.17</v>
       </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="N26" s="4">
+        <v>11820.61</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="Q26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R26" s="5">
+        <v>29</v>
+      </c>
+      <c r="R26" s="6">
         <v>112</v>
       </c>
-      <c r="S26" s="1"/>
-      <c r="T26" s="6">
+      <c r="S26" s="8">
+        <v>17822.55</v>
+      </c>
+      <c r="T26" s="7">
         <v>18029.35</v>
       </c>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-    </row>
-    <row r="27" ht="15" spans="3:22">
+      <c r="U26" s="8">
+        <v>17898.34</v>
+      </c>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" ht="15.75" spans="3:22">
       <c r="C27" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" s="3">
         <v>50</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="4">
+      <c r="E27" s="4">
+        <v>6067.72</v>
+      </c>
+      <c r="F27" s="5">
         <v>6065.16</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="G27" s="4">
+        <v>6723.24</v>
+      </c>
+      <c r="H27" s="2"/>
       <c r="J27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" s="5">
+        <v>30</v>
+      </c>
+      <c r="K27" s="6">
         <v>100</v>
       </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="6">
+      <c r="L27" s="4">
+        <v>13002.62</v>
+      </c>
+      <c r="M27" s="7">
         <v>13070.25</v>
       </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="N27" s="4">
+        <v>13145.12</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="Q27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R27" s="5">
+        <v>30</v>
+      </c>
+      <c r="R27" s="6">
         <v>150</v>
       </c>
-      <c r="S27" s="1"/>
-      <c r="T27" s="6">
+      <c r="S27" s="8">
+        <v>19869.87</v>
+      </c>
+      <c r="T27" s="7">
         <v>19996.33</v>
       </c>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-    </row>
-    <row r="28" ht="15" spans="3:22">
+      <c r="U27" s="8">
+        <v>20344.45</v>
+      </c>
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" ht="15.75" spans="3:22">
       <c r="C28" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" s="3">
         <v>25</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="4">
+      <c r="E28" s="4">
+        <v>3939.58</v>
+      </c>
+      <c r="F28" s="5">
         <v>4241.03</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="G28" s="4">
+        <v>4120.85</v>
+      </c>
+      <c r="H28" s="2"/>
       <c r="J28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K28" s="5">
+        <v>31</v>
+      </c>
+      <c r="K28" s="6">
         <v>50</v>
       </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="6">
+      <c r="L28" s="4">
+        <v>8992.25</v>
+      </c>
+      <c r="M28" s="7">
         <v>9227.11</v>
       </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="N28" s="4">
+        <v>9892.11</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="Q28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R28" s="5">
+        <v>31</v>
+      </c>
+      <c r="R28" s="6">
         <v>75</v>
       </c>
-      <c r="S28" s="1"/>
-      <c r="T28" s="6">
+      <c r="S28" s="8">
+        <v>14492.68</v>
+      </c>
+      <c r="T28" s="7">
         <v>14337.91</v>
       </c>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-    </row>
-    <row r="29" ht="15" spans="3:22">
+      <c r="U28" s="8">
+        <v>14973.82</v>
+      </c>
+      <c r="V28" s="2"/>
+    </row>
+    <row r="29" ht="15.75" spans="3:22">
       <c r="C29" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D29" s="3">
         <v>37</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="4">
+      <c r="E29" s="4">
+        <v>5003.1</v>
+      </c>
+      <c r="F29" s="5">
         <v>5258.74</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="G29" s="4">
+        <v>5128.61</v>
+      </c>
+      <c r="H29" s="2"/>
       <c r="J29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K29" s="5">
+        <v>32</v>
+      </c>
+      <c r="K29" s="6">
         <v>75</v>
       </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="6">
+      <c r="L29" s="4">
+        <v>11343.59</v>
+      </c>
+      <c r="M29" s="7">
         <v>11065.09</v>
       </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+      <c r="N29" s="4">
+        <v>11261.65</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="Q29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R29" s="5">
+        <v>32</v>
+      </c>
+      <c r="R29" s="6">
         <v>112</v>
       </c>
-      <c r="S29" s="1"/>
-      <c r="T29" s="6">
+      <c r="S29" s="8">
+        <v>16864.39</v>
+      </c>
+      <c r="T29" s="7">
         <v>16754.93</v>
       </c>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-    </row>
-    <row r="30" ht="15" spans="3:22">
+      <c r="U29" s="8">
+        <v>16935.49</v>
+      </c>
+      <c r="V29" s="2"/>
+    </row>
+    <row r="30" ht="15.75" spans="3:22">
       <c r="C30" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" s="3">
         <v>50</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="4">
+      <c r="E30" s="4">
+        <v>6086.05</v>
+      </c>
+      <c r="F30" s="5">
         <v>6123.04</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="G30" s="4">
+        <v>5997.25</v>
+      </c>
+      <c r="H30" s="2"/>
       <c r="J30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="5">
+        <v>33</v>
+      </c>
+      <c r="K30" s="6">
         <v>100</v>
       </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="6">
+      <c r="L30" s="4">
+        <v>12744.81</v>
+      </c>
+      <c r="M30" s="7">
         <v>12653.32</v>
       </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+      <c r="N30" s="4">
+        <v>12752.49</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="Q30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R30" s="5">
+        <v>33</v>
+      </c>
+      <c r="R30" s="6">
         <v>150</v>
       </c>
-      <c r="S30" s="1"/>
-      <c r="T30" s="6">
+      <c r="S30" s="8">
+        <v>20054.07</v>
+      </c>
+      <c r="T30" s="7">
         <v>19843.62</v>
       </c>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-    </row>
-    <row r="31" ht="15" spans="3:22">
+      <c r="U30" s="8">
+        <v>19571.08</v>
+      </c>
+      <c r="V30" s="2"/>
+    </row>
+    <row r="31" ht="15.75" spans="3:22">
       <c r="C31" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" s="3">
         <v>25</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="4">
+      <c r="E31" s="4">
+        <v>4117.06</v>
+      </c>
+      <c r="F31" s="5">
         <v>4021.19</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="G31" s="4">
+        <v>4180.94</v>
+      </c>
+      <c r="H31" s="2"/>
       <c r="J31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K31" s="5">
+        <v>34</v>
+      </c>
+      <c r="K31" s="6">
         <v>50</v>
       </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="6">
+      <c r="L31" s="4">
+        <v>9016.33</v>
+      </c>
+      <c r="M31" s="7">
         <v>8954.15</v>
       </c>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
+      <c r="N31" s="4">
+        <v>8698.27</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="Q31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R31" s="5">
+        <v>34</v>
+      </c>
+      <c r="R31" s="6">
         <v>75</v>
       </c>
-      <c r="S31" s="1"/>
-      <c r="T31" s="6">
+      <c r="S31" s="8">
+        <v>13692.78</v>
+      </c>
+      <c r="T31" s="7">
         <v>13353.45</v>
       </c>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-    </row>
-    <row r="32" ht="15" spans="3:22">
+      <c r="U31" s="8">
+        <v>14148.87</v>
+      </c>
+      <c r="V31" s="2"/>
+    </row>
+    <row r="32" ht="15.75" spans="3:22">
       <c r="C32" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32" s="3">
         <v>25</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="4">
+      <c r="E32" s="4">
+        <v>3905.21</v>
+      </c>
+      <c r="F32" s="5">
         <v>4040.31</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="G32" s="4">
+        <v>4289.94</v>
+      </c>
+      <c r="H32" s="2"/>
       <c r="J32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K32" s="5">
+        <v>35</v>
+      </c>
+      <c r="K32" s="6">
         <v>50</v>
       </c>
-      <c r="L32" s="1"/>
-      <c r="M32" s="6">
+      <c r="L32" s="4">
+        <v>8439.6</v>
+      </c>
+      <c r="M32" s="7">
         <v>8735.5</v>
       </c>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+      <c r="N32" s="4">
+        <v>8919.11</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="Q32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R32" s="5">
+        <v>35</v>
+      </c>
+      <c r="R32" s="6">
         <v>75</v>
       </c>
-      <c r="S32" s="1"/>
-      <c r="T32" s="6">
+      <c r="S32" s="8">
+        <v>14289.5</v>
+      </c>
+      <c r="T32" s="7">
         <v>13854.01</v>
       </c>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-    </row>
-    <row r="33" ht="15" spans="3:22">
+      <c r="U32" s="8">
+        <v>14809.93</v>
+      </c>
+      <c r="V32" s="2"/>
+    </row>
+    <row r="33" ht="15.75" spans="3:22">
       <c r="C33" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D33" s="3">
         <v>25</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="4">
+      <c r="E33" s="4">
+        <v>3336.02</v>
+      </c>
+      <c r="F33" s="5">
         <v>3416.56</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="G33" s="4">
+        <v>3336.02</v>
+      </c>
+      <c r="H33" s="2"/>
       <c r="J33" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K33" s="5">
+        <v>36</v>
+      </c>
+      <c r="K33" s="6">
         <v>50</v>
       </c>
-      <c r="L33" s="1"/>
-      <c r="M33" s="6">
+      <c r="L33" s="4">
+        <v>8757.35</v>
+      </c>
+      <c r="M33" s="7">
         <v>9306.33</v>
       </c>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
+      <c r="N33" s="4">
+        <v>9059.77</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="Q33" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R33" s="5">
+        <v>36</v>
+      </c>
+      <c r="R33" s="6">
         <v>75</v>
       </c>
-      <c r="S33" s="1"/>
-      <c r="T33" s="6">
+      <c r="S33" s="8">
+        <v>14587.97</v>
+      </c>
+      <c r="T33" s="7">
         <v>14477.59</v>
       </c>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-    </row>
-    <row r="34" ht="15" spans="3:22">
+      <c r="U33" s="8">
+        <v>14569.5</v>
+      </c>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" ht="15.75" spans="3:22">
       <c r="C34" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D34" s="3">
         <v>26</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="4">
+      <c r="E34" s="4">
         <v>2002.98</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="F34" s="5">
+        <v>2002.98</v>
+      </c>
+      <c r="G34" s="4">
+        <v>2208.78</v>
+      </c>
+      <c r="H34" s="2"/>
       <c r="J34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K34" s="5">
+        <v>37</v>
+      </c>
+      <c r="K34" s="6">
         <v>52</v>
       </c>
-      <c r="L34" s="1"/>
-      <c r="M34" s="6">
+      <c r="L34" s="4">
+        <v>4605.86</v>
+      </c>
+      <c r="M34" s="7">
         <v>4648.13</v>
       </c>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="N34" s="4">
+        <v>4685.06</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="Q34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R34" s="5">
+        <v>37</v>
+      </c>
+      <c r="R34" s="6">
         <v>78</v>
       </c>
-      <c r="S34" s="1"/>
-      <c r="T34" s="6">
+      <c r="S34" s="8">
+        <v>8456.82</v>
+      </c>
+      <c r="T34" s="7">
         <v>8572.94</v>
       </c>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-    </row>
-    <row r="35" ht="15" spans="3:22">
+      <c r="U34" s="8">
+        <v>8396.26</v>
+      </c>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" ht="15.75" spans="3:22">
       <c r="C35" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D35" s="3">
         <v>79</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="4">
+      <c r="E35" s="4">
+        <v>7492.55</v>
+      </c>
+      <c r="F35" s="5">
         <v>8775.59</v>
       </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="G35" s="4">
+        <v>8939.88</v>
+      </c>
+      <c r="H35" s="2"/>
       <c r="J35" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K35" s="5">
+        <v>38</v>
+      </c>
+      <c r="K35" s="6">
         <v>159</v>
       </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="6">
+      <c r="L35" s="4">
+        <v>16861.76</v>
+      </c>
+      <c r="M35" s="7">
         <v>17803.59</v>
       </c>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
+      <c r="N35" s="4">
+        <v>16594.58</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="Q35" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R35" s="5">
+        <v>38</v>
+      </c>
+      <c r="R35" s="6">
         <v>238</v>
       </c>
-      <c r="S35" s="1"/>
-      <c r="T35" s="6">
+      <c r="S35" s="8">
+        <v>27341.07</v>
+      </c>
+      <c r="T35" s="7">
         <v>27099.87</v>
       </c>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-    </row>
-    <row r="36" ht="15" spans="3:22">
+      <c r="U35" s="8">
+        <v>27788.54</v>
+      </c>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" ht="15.75" spans="3:22">
       <c r="C36" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D36" s="3">
         <v>19</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="4">
+      <c r="E36" s="4">
+        <v>19642.8</v>
+      </c>
+      <c r="F36" s="5">
         <v>20155.24</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="G36" s="4">
+        <v>18270.88</v>
+      </c>
+      <c r="H36" s="2"/>
       <c r="J36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K36" s="6">
         <v>38</v>
       </c>
-      <c r="K36" s="5">
-        <v>38</v>
-      </c>
-      <c r="L36" s="1"/>
-      <c r="M36" s="6">
+      <c r="L36" s="4">
+        <v>37105.79</v>
+      </c>
+      <c r="M36" s="7">
         <v>36936.72</v>
       </c>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
+      <c r="N36" s="4">
+        <v>36658.25</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="Q36" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R36" s="5">
+        <v>39</v>
+      </c>
+      <c r="R36" s="6">
         <v>57</v>
       </c>
-      <c r="S36" s="1"/>
-      <c r="T36" s="6">
+      <c r="S36" s="8">
+        <v>59838.85</v>
+      </c>
+      <c r="T36" s="7">
         <v>61124.68</v>
       </c>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-    </row>
-    <row r="37" ht="15" spans="3:22">
+      <c r="U36" s="8">
+        <v>63664.83</v>
+      </c>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" ht="15.75" spans="3:22">
       <c r="C37" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D37" s="3">
         <v>26</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="4">
+      <c r="E37" s="4">
         <v>6733.38</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="F37" s="5">
+        <v>6733.38</v>
+      </c>
+      <c r="G37" s="4">
+        <v>6988.61</v>
+      </c>
+      <c r="H37" s="2"/>
       <c r="J37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K37" s="5">
+        <v>40</v>
+      </c>
+      <c r="K37" s="6">
         <v>52</v>
       </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="6">
+      <c r="L37" s="4">
+        <v>14703.61</v>
+      </c>
+      <c r="M37" s="7">
         <v>14704.12</v>
       </c>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
+      <c r="N37" s="4">
+        <v>14769.35</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="Q37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R37" s="5">
+        <v>40</v>
+      </c>
+      <c r="R37" s="6">
         <v>80</v>
       </c>
-      <c r="S37" s="1"/>
-      <c r="T37" s="6">
+      <c r="S37" s="8">
+        <v>30488.7</v>
+      </c>
+      <c r="T37" s="7">
         <v>29587.28</v>
       </c>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-    </row>
-    <row r="38" ht="15" spans="3:22">
+      <c r="U37" s="8">
+        <v>29524.41</v>
+      </c>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" ht="15.75" spans="3:22">
       <c r="C38" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D38" s="3">
         <v>31</v>
       </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="4">
+      <c r="E38" s="4">
+        <v>9378.8</v>
+      </c>
+      <c r="F38" s="5">
         <v>9329.87</v>
       </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="G38" s="4">
+        <v>9284.41</v>
+      </c>
+      <c r="H38" s="2"/>
       <c r="J38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K38" s="5">
+        <v>41</v>
+      </c>
+      <c r="K38" s="6">
         <v>62</v>
       </c>
-      <c r="L38" s="1"/>
-      <c r="M38" s="6">
+      <c r="L38" s="4">
+        <v>21566.03</v>
+      </c>
+      <c r="M38" s="7">
         <v>20818.9</v>
       </c>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+      <c r="N38" s="4">
+        <v>20911.81</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="Q38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R38" s="5">
+        <v>41</v>
+      </c>
+      <c r="R38" s="6">
         <v>93</v>
       </c>
-      <c r="S38" s="1"/>
-      <c r="T38" s="6">
+      <c r="S38" s="8">
+        <v>35368.11</v>
+      </c>
+      <c r="T38" s="7">
         <v>36398.06</v>
       </c>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-    </row>
-    <row r="39" ht="15" spans="3:22">
+      <c r="U38" s="8">
+        <v>36785.95</v>
+      </c>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" ht="15.75" spans="3:22">
       <c r="C39" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D39" s="3">
         <v>34</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="4">
+      <c r="E39" s="4">
+        <v>20168.23</v>
+      </c>
+      <c r="F39" s="5">
         <v>19998.88</v>
       </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="G39" s="4">
+        <v>19894.6</v>
+      </c>
+      <c r="H39" s="2"/>
       <c r="J39" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K39" s="5">
+        <v>42</v>
+      </c>
+      <c r="K39" s="6">
         <v>68</v>
       </c>
-      <c r="L39" s="1"/>
-      <c r="M39" s="6">
+      <c r="L39" s="4">
+        <v>44637.83</v>
+      </c>
+      <c r="M39" s="7">
         <v>44433.41</v>
       </c>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
+      <c r="N39" s="4">
+        <v>44284.83</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="Q39" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R39" s="5">
+        <v>42</v>
+      </c>
+      <c r="R39" s="6">
         <v>102</v>
       </c>
-      <c r="S39" s="1"/>
-      <c r="T39" s="6">
+      <c r="S39" s="8">
+        <v>67005.71</v>
+      </c>
+      <c r="T39" s="7">
         <v>66781.21</v>
       </c>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-    </row>
-    <row r="40" ht="15" spans="3:22">
+      <c r="U39" s="8">
+        <v>66750.16</v>
+      </c>
+      <c r="V39" s="2"/>
+    </row>
+    <row r="40" ht="15.75" spans="3:22">
       <c r="C40" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D40" s="3">
         <v>36</v>
       </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="4">
+      <c r="E40" s="4">
+        <v>10742.86</v>
+      </c>
+      <c r="F40" s="5">
         <v>13256.11</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="G40" s="4">
+        <v>14069.99</v>
+      </c>
+      <c r="H40" s="2"/>
       <c r="J40" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K40" s="5">
+        <v>43</v>
+      </c>
+      <c r="K40" s="6">
         <v>72</v>
       </c>
-      <c r="L40" s="1"/>
-      <c r="M40" s="6">
+      <c r="L40" s="4">
+        <v>26293.47</v>
+      </c>
+      <c r="M40" s="7">
         <v>27812.24</v>
       </c>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
+      <c r="N40" s="4">
+        <v>27196.57</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="Q40" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R40" s="5">
+        <v>43</v>
+      </c>
+      <c r="R40" s="6">
         <v>108</v>
       </c>
-      <c r="S40" s="1"/>
-      <c r="T40" s="6">
+      <c r="S40" s="8">
+        <v>38203.84</v>
+      </c>
+      <c r="T40" s="7">
         <v>38889.47</v>
       </c>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-    </row>
-    <row r="41" ht="15" spans="3:22">
+      <c r="U40" s="8">
+        <v>42179.7</v>
+      </c>
+      <c r="V40" s="2"/>
+    </row>
+    <row r="41" ht="15.75" spans="3:22">
       <c r="C41" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D41" s="3">
         <v>38</v>
       </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="4">
+      <c r="E41" s="4">
+        <v>14780.62</v>
+      </c>
+      <c r="F41" s="5">
         <v>18221.84</v>
       </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="G41" s="4">
+        <v>17871.28</v>
+      </c>
+      <c r="H41" s="2"/>
       <c r="J41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K41" s="5">
+        <v>44</v>
+      </c>
+      <c r="K41" s="6">
         <v>76</v>
       </c>
-      <c r="L41" s="1"/>
-      <c r="M41" s="6">
+      <c r="L41" s="4">
+        <v>31161.21</v>
+      </c>
+      <c r="M41" s="7">
         <v>30492.64</v>
       </c>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
+      <c r="N41" s="4">
+        <v>30506.9</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="Q41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R41" s="5">
+        <v>44</v>
+      </c>
+      <c r="R41" s="6">
         <v>114</v>
       </c>
-      <c r="S41" s="1"/>
-      <c r="T41" s="6">
+      <c r="S41" s="8">
+        <v>47013.52</v>
+      </c>
+      <c r="T41" s="7">
         <v>48319.08</v>
       </c>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-    </row>
-    <row r="42" ht="15" spans="3:22">
+      <c r="U41" s="8">
+        <v>48489.8</v>
+      </c>
+      <c r="V41" s="2"/>
+    </row>
+    <row r="42" ht="15.75" spans="3:22">
       <c r="C42" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D42" s="3">
         <v>56</v>
       </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="4">
+      <c r="E42" s="4">
+        <v>15824.06</v>
+      </c>
+      <c r="F42" s="5">
         <v>15849.71</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="G42" s="4">
+        <v>16664.97</v>
+      </c>
+      <c r="H42" s="2"/>
       <c r="J42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K42" s="5">
+        <v>45</v>
+      </c>
+      <c r="K42" s="6">
         <v>113</v>
       </c>
-      <c r="L42" s="1"/>
-      <c r="M42" s="6">
+      <c r="L42" s="4">
+        <v>26272.2</v>
+      </c>
+      <c r="M42" s="7">
         <v>34520.56</v>
       </c>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
+      <c r="N42" s="4">
+        <v>31010.75</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="Q42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R42" s="5">
+        <v>45</v>
+      </c>
+      <c r="R42" s="6">
         <v>169</v>
       </c>
-      <c r="S42" s="1"/>
-      <c r="T42" s="6">
+      <c r="S42" s="8">
+        <v>46490.92</v>
+      </c>
+      <c r="T42" s="7">
         <v>43792.8</v>
       </c>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-    </row>
-    <row r="43" ht="15" spans="3:22">
+      <c r="U42" s="8">
+        <v>45695.74</v>
+      </c>
+      <c r="V42" s="2"/>
+    </row>
+    <row r="43" ht="15.75" spans="3:22">
       <c r="C43" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D43" s="3">
         <v>24</v>
       </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="4">
+      <c r="E43" s="4">
+        <v>250.39</v>
+      </c>
+      <c r="F43" s="5">
         <v>246.96</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="G43" s="4">
+        <v>248.66</v>
+      </c>
+      <c r="H43" s="2"/>
       <c r="J43" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K43" s="5">
+        <v>46</v>
+      </c>
+      <c r="K43" s="6">
         <v>49</v>
       </c>
-      <c r="L43" s="1"/>
-      <c r="M43" s="6">
+      <c r="L43" s="4">
+        <v>549.76</v>
+      </c>
+      <c r="M43" s="7">
         <v>548.02</v>
       </c>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
+      <c r="N43" s="4">
+        <v>535.33</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="Q43" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R43" s="5">
+        <v>46</v>
+      </c>
+      <c r="R43" s="6">
         <v>74</v>
       </c>
-      <c r="S43" s="1"/>
-      <c r="T43" s="6">
+      <c r="S43" s="8">
+        <v>857.1</v>
+      </c>
+      <c r="T43" s="7">
         <v>862.66</v>
       </c>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-    </row>
-    <row r="44" ht="15" spans="3:22">
+      <c r="U43" s="8">
+        <v>857.92</v>
+      </c>
+      <c r="V43" s="2"/>
+    </row>
+    <row r="44" ht="15.75" spans="3:22">
       <c r="C44" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D44" s="3">
         <v>48</v>
       </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="4">
+      <c r="E44" s="4">
+        <v>563.96</v>
+      </c>
+      <c r="F44" s="5">
         <v>548.67</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="G44" s="4">
+        <v>541.57</v>
+      </c>
+      <c r="H44" s="2"/>
       <c r="J44" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K44" s="5">
+        <v>47</v>
+      </c>
+      <c r="K44" s="6">
         <v>97</v>
       </c>
-      <c r="L44" s="1"/>
-      <c r="M44" s="6">
+      <c r="L44" s="4">
+        <v>1154.18</v>
+      </c>
+      <c r="M44" s="7">
         <v>1165.33</v>
       </c>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
+      <c r="N44" s="4">
+        <v>1140.86</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="Q44" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R44" s="5">
+        <v>47</v>
+      </c>
+      <c r="R44" s="6">
         <v>146</v>
       </c>
-      <c r="S44" s="1"/>
-      <c r="T44" s="6">
+      <c r="S44" s="8">
+        <v>1725.15</v>
+      </c>
+      <c r="T44" s="7">
         <v>1733.09</v>
       </c>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-    </row>
-    <row r="45" ht="15" spans="3:22">
+      <c r="U44" s="8">
+        <v>1730.19</v>
+      </c>
+      <c r="V44" s="2"/>
+    </row>
+    <row r="45" ht="15.75" spans="3:22">
       <c r="C45" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D45" s="3">
         <v>17</v>
       </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="4">
+      <c r="E45" s="4">
         <v>108.3</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="F45" s="5">
+        <v>108.3</v>
+      </c>
+      <c r="G45" s="4">
+        <v>108.3</v>
+      </c>
+      <c r="H45" s="2"/>
       <c r="J45" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K45" s="5">
+        <v>48</v>
+      </c>
+      <c r="K45" s="6">
         <v>35</v>
       </c>
-      <c r="L45" s="1"/>
-      <c r="M45" s="6">
+      <c r="L45" s="4">
+        <v>269.28</v>
+      </c>
+      <c r="M45" s="7">
         <v>253.82</v>
       </c>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
+      <c r="N45" s="4">
+        <v>265.09</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="Q45" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R45" s="5">
+        <v>48</v>
+      </c>
+      <c r="R45" s="6">
         <v>52</v>
       </c>
-      <c r="S45" s="1"/>
-      <c r="T45" s="6">
+      <c r="S45" s="8">
+        <v>422.36</v>
+      </c>
+      <c r="T45" s="7">
         <v>435.08</v>
       </c>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-    </row>
-    <row r="46" ht="15" spans="3:22">
+      <c r="U45" s="8">
+        <v>429</v>
+      </c>
+      <c r="V45" s="2"/>
+    </row>
+    <row r="46" ht="15.75" spans="3:22">
       <c r="C46" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D46" s="3">
         <v>10</v>
       </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="4">
+      <c r="E46" s="4">
         <v>146</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="F46" s="5">
+        <v>146</v>
+      </c>
+      <c r="G46" s="4">
+        <v>146</v>
+      </c>
+      <c r="H46" s="2"/>
       <c r="J46" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K46" s="5">
+        <v>49</v>
+      </c>
+      <c r="K46" s="6">
         <v>21</v>
       </c>
-      <c r="L46" s="1"/>
-      <c r="M46" s="6">
+      <c r="L46" s="4">
+        <v>476</v>
+      </c>
+      <c r="M46" s="7">
         <v>430</v>
       </c>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
+      <c r="N46" s="4">
+        <v>418</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="Q46" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R46" s="5">
+        <v>49</v>
+      </c>
+      <c r="R46" s="6">
         <v>31</v>
       </c>
-      <c r="S46" s="1"/>
-      <c r="T46" s="6">
+      <c r="S46" s="8">
         <v>721</v>
       </c>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-    </row>
-    <row r="47" ht="15" spans="3:22">
+      <c r="T46" s="7">
+        <v>721</v>
+      </c>
+      <c r="U46" s="8">
+        <v>698</v>
+      </c>
+      <c r="V46" s="2"/>
+    </row>
+    <row r="47" ht="15.75" spans="3:22">
       <c r="C47" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D47" s="3">
         <v>4</v>
       </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="4">
+      <c r="E47" s="4">
         <v>751.06</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="F47" s="5">
+        <v>751.06</v>
+      </c>
+      <c r="G47" s="4">
+        <v>638.03</v>
+      </c>
+      <c r="H47" s="2"/>
       <c r="J47" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K47" s="5">
+        <v>50</v>
+      </c>
+      <c r="K47" s="6">
         <v>8</v>
       </c>
-      <c r="L47" s="1"/>
-      <c r="M47" s="6">
+      <c r="L47" s="4">
         <v>1981.71</v>
       </c>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
+      <c r="M47" s="7">
+        <v>1981.71</v>
+      </c>
+      <c r="N47" s="4">
+        <v>1397.42</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="Q47" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R47" s="5">
+        <v>50</v>
+      </c>
+      <c r="R47" s="6">
         <v>12</v>
       </c>
-      <c r="S47" s="1"/>
-      <c r="T47" s="6">
+      <c r="S47" s="8">
         <v>2741.1</v>
       </c>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-    </row>
-    <row r="48" ht="15" spans="3:22">
+      <c r="T47" s="7">
+        <v>2741.1</v>
+      </c>
+      <c r="U47" s="8">
+        <v>2731</v>
+      </c>
+      <c r="V47" s="2"/>
+    </row>
+    <row r="48" ht="15.75" spans="3:22">
       <c r="C48" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D48" s="3">
         <v>5</v>
       </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="4">
+      <c r="E48" s="4">
         <v>456.58</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="F48" s="5">
+        <v>456.58</v>
+      </c>
+      <c r="G48" s="4">
+        <v>456.58</v>
+      </c>
+      <c r="H48" s="2"/>
       <c r="J48" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K48" s="5">
+        <v>51</v>
+      </c>
+      <c r="K48" s="6">
         <v>11</v>
       </c>
-      <c r="L48" s="1"/>
-      <c r="M48" s="6">
+      <c r="L48" s="4">
+        <v>2062.92</v>
+      </c>
+      <c r="M48" s="7">
         <v>1684.93</v>
       </c>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
+      <c r="N48" s="4">
+        <v>1591.34</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="Q48" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R48" s="5">
+        <v>51</v>
+      </c>
+      <c r="R48" s="6">
         <v>16</v>
       </c>
-      <c r="S48" s="1"/>
-      <c r="T48" s="6">
+      <c r="S48" s="8">
         <v>2540.07</v>
       </c>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
+      <c r="T48" s="7">
+        <v>2540.07</v>
+      </c>
+      <c r="U48" s="8">
+        <v>2540.07</v>
+      </c>
+      <c r="V48" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Arquivos/Comparações/Comparações dos valores de alfa para o graspRVND.xlsx
+++ b/Arquivos/Comparações/Comparações dos valores de alfa para o graspRVND.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="51">
   <si>
     <t>Valores de α</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>gr21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      </t>
   </si>
   <si>
     <t>gr24</t>
@@ -177,11 +174,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -206,8 +203,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,15 +227,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,7 +249,77 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,91 +334,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,19 +356,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,127 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,19 +464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,6 +477,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,6 +565,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -592,47 +634,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -651,17 +652,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,152 +667,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,20 +825,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1164,8 +1155,8 @@
   <sheetPr/>
   <dimension ref="C3:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="S56" sqref="S56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1174,15 +1165,18 @@
     <col min="3" max="3" width="11.1428571428571" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.1428571428571" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.7142857142857" style="1"/>
-    <col min="6" max="9" width="9.14285714285714" style="1"/>
+    <col min="6" max="7" width="9.14285714285714" style="1"/>
+    <col min="8" max="8" width="11.7142857142857" style="1"/>
+    <col min="9" max="9" width="9.14285714285714" style="1"/>
     <col min="10" max="10" width="10.2857142857143" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.1428571428571" style="1" customWidth="1"/>
     <col min="12" max="14" width="11.7142857142857" style="1"/>
-    <col min="15" max="16" width="9.14285714285714" style="1"/>
+    <col min="15" max="15" width="10.7142857142857" style="1"/>
+    <col min="16" max="16" width="9.14285714285714" style="1"/>
     <col min="17" max="17" width="10.2857142857143" style="1" customWidth="1"/>
     <col min="18" max="18" width="19.1428571428571" style="1" customWidth="1"/>
-    <col min="19" max="21" width="11.7142857142857" style="1"/>
-    <col min="22" max="16384" width="9.14285714285714" style="1"/>
+    <col min="19" max="22" width="11.7142857142857" style="1"/>
+    <col min="23" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="15.75" spans="3:22">
@@ -1277,13 +1271,15 @@
       <c r="E5" s="4">
         <v>649.82</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>657.9</v>
       </c>
       <c r="G5" s="4">
         <v>711.77</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="5">
+        <v>734.28</v>
+      </c>
       <c r="J5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1293,29 +1289,33 @@
       <c r="L5" s="4">
         <v>1289.94</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="4">
         <v>1368.02</v>
       </c>
       <c r="N5" s="4">
         <v>1344.31</v>
       </c>
-      <c r="O5" s="2"/>
+      <c r="O5" s="5">
+        <v>1331.65</v>
+      </c>
       <c r="Q5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="R5" s="6">
         <v>210</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="4">
         <v>1953.66</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="4">
         <v>1954.31</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="4">
         <v>1933.82</v>
       </c>
-      <c r="V5" s="2"/>
+      <c r="V5" s="5">
+        <v>1916.99</v>
+      </c>
     </row>
     <row r="6" ht="15.75" spans="3:22">
       <c r="C6" s="3" t="s">
@@ -1327,13 +1327,15 @@
       <c r="E6" s="4">
         <v>275</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>271</v>
       </c>
       <c r="G6" s="4">
         <v>246</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="5">
+        <v>268</v>
+      </c>
       <c r="J6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1343,29 +1345,33 @@
       <c r="L6" s="4">
         <v>581</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="4">
         <v>571</v>
       </c>
       <c r="N6" s="4">
         <v>571</v>
       </c>
-      <c r="O6" s="2"/>
+      <c r="O6" s="5">
+        <v>546</v>
+      </c>
       <c r="Q6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R6" s="6">
         <v>21</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="4">
         <v>1035</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="4">
         <v>918</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="4">
         <v>918</v>
       </c>
-      <c r="V6" s="2"/>
+      <c r="V6" s="5">
+        <v>939</v>
+      </c>
     </row>
     <row r="7" ht="15.75" spans="3:22">
       <c r="C7" s="3" t="s">
@@ -1377,13 +1383,15 @@
       <c r="E7" s="4">
         <v>319</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>282</v>
       </c>
       <c r="G7" s="4">
         <v>282</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="5">
+        <v>282</v>
+      </c>
       <c r="J7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1393,29 +1401,33 @@
       <c r="L7" s="4">
         <v>692</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="4">
         <v>651</v>
       </c>
       <c r="N7" s="4">
         <v>640</v>
       </c>
-      <c r="O7" s="2"/>
+      <c r="O7" s="5">
+        <v>651</v>
+      </c>
       <c r="Q7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R7" s="6">
         <v>21</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="4">
         <v>1090</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="4">
         <v>1086</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="4">
         <v>1090</v>
       </c>
-      <c r="V7" s="2"/>
+      <c r="V7" s="5">
+        <v>1090</v>
+      </c>
     </row>
     <row r="8" ht="15.75" spans="3:22">
       <c r="C8" s="3" t="s">
@@ -1427,13 +1439,15 @@
       <c r="E8" s="4">
         <v>480.48</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>480.48</v>
       </c>
       <c r="G8" s="4">
         <v>480.48</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="5">
+        <v>480.48</v>
+      </c>
       <c r="J8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1443,29 +1457,33 @@
       <c r="L8" s="4">
         <v>1749.38</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="4">
         <v>1733.82</v>
       </c>
       <c r="N8" s="4">
         <v>1733.82</v>
       </c>
-      <c r="O8" s="2"/>
+      <c r="O8" s="5">
+        <v>1733.82</v>
+      </c>
       <c r="Q8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="R8" s="6">
         <v>39</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="4">
         <v>3910.64</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="4">
         <v>3868.97</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="4">
         <v>3859.81</v>
       </c>
-      <c r="V8" s="2"/>
+      <c r="V8" s="5">
+        <v>3910.64</v>
+      </c>
     </row>
     <row r="9" ht="15.75" spans="3:22">
       <c r="C9" s="3" t="s">
@@ -1477,13 +1495,15 @@
       <c r="E9" s="4">
         <v>10301.6</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>9682.94</v>
       </c>
       <c r="G9" s="4">
         <v>9776.1</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="5">
+        <v>9776.1</v>
+      </c>
       <c r="J9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1493,29 +1513,33 @@
       <c r="L9" s="4">
         <v>25935.45</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="4">
         <v>26660.41</v>
       </c>
       <c r="N9" s="4">
         <v>25378.24</v>
       </c>
-      <c r="O9" s="2"/>
+      <c r="O9" s="5">
+        <v>26472</v>
+      </c>
       <c r="Q9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="R9" s="6">
         <v>95</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="4">
         <v>51268.42</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="4">
         <v>50491.65</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="4">
         <v>49999.6</v>
       </c>
-      <c r="V9" s="2"/>
+      <c r="V9" s="5">
+        <v>50047.08</v>
+      </c>
     </row>
     <row r="10" ht="15.75" spans="3:22">
       <c r="C10" s="3" t="s">
@@ -1527,13 +1551,15 @@
       <c r="E10" s="4">
         <v>224.88</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>224.88</v>
       </c>
       <c r="G10" s="4">
         <v>224.88</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="5">
+        <v>224.88</v>
+      </c>
       <c r="J10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1543,29 +1569,33 @@
       <c r="L10" s="4">
         <v>1140.19</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="4">
         <v>1140.19</v>
       </c>
       <c r="N10" s="4">
         <v>1140.19</v>
       </c>
-      <c r="O10" s="2"/>
+      <c r="O10" s="5">
+        <v>966.37</v>
+      </c>
       <c r="Q10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="R10" s="6">
         <v>10</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="4">
         <v>1637.31</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="4">
         <v>1637.31</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="4">
         <v>1637.31</v>
       </c>
-      <c r="V10" s="2"/>
+      <c r="V10" s="5">
+        <v>1528.5</v>
+      </c>
     </row>
     <row r="11" ht="15.75" spans="3:22">
       <c r="C11" s="3" t="s">
@@ -1577,13 +1607,15 @@
       <c r="E11" s="4">
         <v>1123.61</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>1068.23</v>
       </c>
       <c r="G11" s="4">
         <v>1029.79</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="5">
+        <v>1038.42</v>
+      </c>
       <c r="J11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1593,29 +1625,33 @@
       <c r="L11" s="4">
         <v>2390.07</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="4">
         <v>2605.19</v>
       </c>
       <c r="N11" s="4">
         <v>2400.43</v>
       </c>
-      <c r="O11" s="2"/>
+      <c r="O11" s="5">
+        <v>2505.41</v>
+      </c>
       <c r="Q11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="R11" s="6">
         <v>97</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="4">
         <v>3828.1</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="4">
         <v>3861.47</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U11" s="4">
         <v>3865.98</v>
       </c>
-      <c r="V11" s="2"/>
+      <c r="V11" s="5">
+        <v>3994.5</v>
+      </c>
     </row>
     <row r="12" ht="15.75" spans="3:22">
       <c r="C12" s="3" t="s">
@@ -1627,13 +1663,15 @@
       <c r="E12" s="4">
         <v>1297.97</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>1323.98</v>
       </c>
       <c r="G12" s="4">
         <v>1336.6</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="5">
+        <v>1337.23</v>
+      </c>
       <c r="J12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1643,29 +1681,33 @@
       <c r="L12" s="4">
         <v>2874.61</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="4">
         <v>2898.38</v>
       </c>
       <c r="N12" s="4">
         <v>2803.38</v>
       </c>
-      <c r="O12" s="2"/>
+      <c r="O12" s="5">
+        <v>2894.91</v>
+      </c>
       <c r="Q12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="R12" s="6">
         <v>112</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="4">
         <v>4484.25</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="4">
         <v>4524.88</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U12" s="4">
         <v>4503.43</v>
       </c>
-      <c r="V12" s="2"/>
+      <c r="V12" s="5">
+        <v>4547.13</v>
+      </c>
     </row>
     <row r="13" ht="15.75" spans="3:22">
       <c r="C13" s="3" t="s">
@@ -1677,13 +1719,15 @@
       <c r="E13" s="4">
         <v>99</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>98</v>
       </c>
       <c r="G13" s="4">
         <v>99</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="5">
+        <v>106</v>
+      </c>
       <c r="J13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1693,29 +1737,33 @@
       <c r="L13" s="4">
         <v>244</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="4">
         <v>220</v>
       </c>
       <c r="N13" s="4">
         <v>221</v>
       </c>
-      <c r="O13" s="2"/>
+      <c r="O13" s="5">
+        <v>220</v>
+      </c>
       <c r="Q13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="R13" s="6">
         <v>31</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S13" s="4">
         <v>391</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T13" s="4">
         <v>388</v>
       </c>
-      <c r="U13" s="8">
+      <c r="U13" s="4">
         <v>392</v>
       </c>
-      <c r="V13" s="2"/>
+      <c r="V13" s="5">
+        <v>391</v>
+      </c>
     </row>
     <row r="14" ht="15.75" spans="3:22">
       <c r="C14" s="3" t="s">
@@ -1727,13 +1775,15 @@
       <c r="E14" s="4">
         <v>78.72</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>71.46</v>
       </c>
       <c r="G14" s="4">
         <v>71.46</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="5">
+        <v>72.9</v>
+      </c>
       <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1743,29 +1793,33 @@
       <c r="L14" s="4">
         <v>167.76</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="4">
         <v>168.63</v>
       </c>
       <c r="N14" s="4">
         <v>170.35</v>
       </c>
-      <c r="O14" s="2"/>
+      <c r="O14" s="5">
+        <v>172.12</v>
+      </c>
       <c r="Q14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R14" s="6">
         <v>38</v>
       </c>
-      <c r="S14" s="8">
+      <c r="S14" s="4">
         <v>282.97</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T14" s="4">
         <v>281.57</v>
       </c>
-      <c r="U14" s="8">
+      <c r="U14" s="4">
         <v>281.59</v>
       </c>
-      <c r="V14" s="2"/>
+      <c r="V14" s="5">
+        <v>285.69</v>
+      </c>
     </row>
     <row r="15" ht="15.75" spans="3:22">
       <c r="C15" s="3" t="s">
@@ -1777,13 +1831,15 @@
       <c r="E15" s="4">
         <v>102.27</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>95.9</v>
       </c>
       <c r="G15" s="4">
         <v>98.03</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="5">
+        <v>97.1</v>
+      </c>
       <c r="J15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1793,29 +1849,33 @@
       <c r="L15" s="4">
         <v>215.67</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="4">
         <v>215.73</v>
       </c>
       <c r="N15" s="4">
         <v>220.05</v>
       </c>
-      <c r="O15" s="2"/>
+      <c r="O15" s="5">
+        <v>217.06</v>
+      </c>
       <c r="Q15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="R15" s="6">
         <v>57</v>
       </c>
-      <c r="S15" s="8">
+      <c r="S15" s="4">
         <v>348.45</v>
       </c>
-      <c r="T15" s="7">
+      <c r="T15" s="4">
         <v>340.57</v>
       </c>
-      <c r="U15" s="8">
+      <c r="U15" s="4">
         <v>335.91</v>
       </c>
-      <c r="V15" s="2"/>
+      <c r="V15" s="5">
+        <v>343.77</v>
+      </c>
     </row>
     <row r="16" ht="15.75" spans="3:22">
       <c r="C16" s="3" t="s">
@@ -1827,13 +1887,15 @@
       <c r="E16" s="4">
         <v>96.2</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>96.2</v>
       </c>
       <c r="G16" s="4">
         <v>95.24</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="5">
+        <v>96.13</v>
+      </c>
       <c r="J16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1843,29 +1905,33 @@
       <c r="L16" s="4">
         <v>239.81</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="4">
         <v>232.34</v>
       </c>
       <c r="N16" s="4">
         <v>234.03</v>
       </c>
-      <c r="O16" s="2"/>
+      <c r="O16" s="5">
+        <v>232.13</v>
+      </c>
       <c r="Q16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="R16" s="6">
         <v>75</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S16" s="4">
         <v>402.32</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="4">
         <v>403.57</v>
       </c>
-      <c r="U16" s="8">
+      <c r="U16" s="4">
         <v>398.4</v>
       </c>
-      <c r="V16" s="2"/>
+      <c r="V16" s="5">
+        <v>395.33</v>
+      </c>
     </row>
     <row r="17" ht="15.75" spans="3:22">
       <c r="C17" s="3" t="s">
@@ -1877,13 +1943,15 @@
       <c r="E17" s="4">
         <v>145</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>145</v>
       </c>
       <c r="G17" s="4">
         <v>145</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="5">
+        <v>145</v>
+      </c>
       <c r="J17" s="3" t="s">
         <v>19</v>
       </c>
@@ -1893,29 +1961,33 @@
       <c r="L17" s="4">
         <v>343</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="4">
         <v>317</v>
       </c>
       <c r="N17" s="4">
         <v>308</v>
       </c>
-      <c r="O17" s="2"/>
+      <c r="O17" s="5">
+        <v>308</v>
+      </c>
       <c r="Q17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R17" s="6">
         <v>19</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S17" s="4">
         <v>521</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="4">
         <v>492</v>
       </c>
-      <c r="U17" s="8">
+      <c r="U17" s="4">
         <v>495</v>
       </c>
-      <c r="V17" s="2"/>
+      <c r="V17" s="5">
+        <v>492</v>
+      </c>
     </row>
     <row r="18" ht="15.75" spans="3:22">
       <c r="C18" s="3" t="s">
@@ -1927,13 +1999,15 @@
       <c r="E18" s="4">
         <v>497.77</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>493.84</v>
       </c>
       <c r="G18" s="4">
         <v>540.65</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="5">
+        <v>552.58</v>
+      </c>
       <c r="J18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1943,29 +2017,33 @@
       <c r="L18" s="4">
         <v>1036.7</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="4">
         <v>1027.2</v>
       </c>
       <c r="N18" s="4">
         <v>1057.68</v>
       </c>
-      <c r="O18" s="2"/>
+      <c r="O18" s="5">
+        <v>1080.37</v>
+      </c>
       <c r="Q18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="R18" s="6">
         <v>196</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18" s="4">
         <v>1672.3</v>
       </c>
-      <c r="T18" s="7">
+      <c r="T18" s="4">
         <v>1632.51</v>
       </c>
-      <c r="U18" s="8">
+      <c r="U18" s="4">
         <v>1671.71</v>
       </c>
-      <c r="V18" s="2"/>
+      <c r="V18" s="5">
+        <v>1655.46</v>
+      </c>
     </row>
     <row r="19" ht="15.75" spans="3:22">
       <c r="C19" s="3" t="s">
@@ -1977,13 +2055,15 @@
       <c r="E19" s="4">
         <v>143</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>143</v>
       </c>
       <c r="G19" s="4">
         <v>143</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="5">
+        <v>143</v>
+      </c>
       <c r="J19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1993,29 +2073,33 @@
       <c r="L19" s="4">
         <v>359</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="4">
         <v>359</v>
       </c>
       <c r="N19" s="4">
         <v>359</v>
       </c>
-      <c r="O19" s="2"/>
+      <c r="O19" s="5">
+        <v>359</v>
+      </c>
       <c r="Q19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="R19" s="6">
         <v>12</v>
       </c>
-      <c r="S19" s="8">
+      <c r="S19" s="4">
         <v>640</v>
       </c>
-      <c r="T19" s="7">
+      <c r="T19" s="4">
         <v>640</v>
       </c>
-      <c r="U19" s="8">
+      <c r="U19" s="4">
         <v>640</v>
       </c>
-      <c r="V19" s="2"/>
+      <c r="V19" s="5">
+        <v>640</v>
+      </c>
     </row>
     <row r="20" ht="15.75" spans="3:22">
       <c r="C20" s="3" t="s">
@@ -2027,14 +2111,14 @@
       <c r="E20" s="4">
         <v>181</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>181</v>
       </c>
       <c r="G20" s="4">
         <v>181</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>23</v>
+      <c r="H20" s="5">
+        <v>181</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>22</v>
@@ -2045,33 +2129,37 @@
       <c r="L20" s="4">
         <v>836</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="4">
         <v>727</v>
       </c>
       <c r="N20" s="4">
         <v>683</v>
       </c>
-      <c r="O20" s="2"/>
+      <c r="O20" s="5">
+        <v>683</v>
+      </c>
       <c r="Q20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="R20" s="6">
         <v>15</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20" s="4">
         <v>1276</v>
       </c>
-      <c r="T20" s="7">
+      <c r="T20" s="4">
         <v>1276</v>
       </c>
-      <c r="U20" s="8">
+      <c r="U20" s="4">
         <v>1276</v>
       </c>
-      <c r="V20" s="2"/>
+      <c r="V20" s="5">
+        <v>1276</v>
+      </c>
     </row>
     <row r="21" ht="15.75" spans="3:22">
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="3">
         <v>6</v>
@@ -2079,15 +2167,17 @@
       <c r="E21" s="4">
         <v>162</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>162</v>
       </c>
       <c r="G21" s="4">
         <v>162</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="5">
+        <v>162</v>
+      </c>
       <c r="J21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K21" s="6">
         <v>12</v>
@@ -2095,33 +2185,37 @@
       <c r="L21" s="4">
         <v>413</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="4">
         <v>396</v>
       </c>
       <c r="N21" s="4">
         <v>396</v>
       </c>
-      <c r="O21" s="2"/>
+      <c r="O21" s="5">
+        <v>396</v>
+      </c>
       <c r="Q21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R21" s="6">
         <v>18</v>
       </c>
-      <c r="S21" s="8">
+      <c r="S21" s="4">
         <v>794</v>
       </c>
-      <c r="T21" s="7">
+      <c r="T21" s="4">
         <v>748</v>
       </c>
-      <c r="U21" s="8">
+      <c r="U21" s="4">
         <v>748</v>
       </c>
-      <c r="V21" s="2"/>
+      <c r="V21" s="5">
+        <v>749</v>
+      </c>
     </row>
     <row r="22" ht="15.75" spans="3:22">
       <c r="C22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="3">
         <v>12</v>
@@ -2129,15 +2223,17 @@
       <c r="E22" s="4">
         <v>558</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>558</v>
       </c>
       <c r="G22" s="4">
         <v>558</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="5">
+        <v>558</v>
+      </c>
       <c r="J22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K22" s="6">
         <v>24</v>
@@ -2145,33 +2241,37 @@
       <c r="L22" s="4">
         <v>1666</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="4">
         <v>1666</v>
       </c>
       <c r="N22" s="4">
         <v>1671</v>
       </c>
-      <c r="O22" s="2"/>
+      <c r="O22" s="5">
+        <v>1666</v>
+      </c>
       <c r="Q22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R22" s="6">
         <v>36</v>
       </c>
-      <c r="S22" s="8">
+      <c r="S22" s="4">
         <v>3059</v>
       </c>
-      <c r="T22" s="7">
+      <c r="T22" s="4">
         <v>2992</v>
       </c>
-      <c r="U22" s="8">
+      <c r="U22" s="4">
         <v>2990</v>
       </c>
-      <c r="V22" s="2"/>
+      <c r="V22" s="5">
+        <v>2926</v>
+      </c>
     </row>
     <row r="23" ht="15.75" spans="3:22">
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="3">
         <v>24</v>
@@ -2179,15 +2279,17 @@
       <c r="E23" s="4">
         <v>9270.86</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>9691.96</v>
       </c>
       <c r="G23" s="4">
         <v>9604.79</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="5">
+        <v>9855.29</v>
+      </c>
       <c r="J23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K23" s="6">
         <v>48</v>
@@ -2195,33 +2297,37 @@
       <c r="L23" s="4">
         <v>21333.83</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="4">
         <v>21588.21</v>
       </c>
       <c r="N23" s="4">
         <v>22297.67</v>
       </c>
-      <c r="O23" s="2"/>
+      <c r="O23" s="5">
+        <v>21724.12</v>
+      </c>
       <c r="Q23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R23" s="6">
         <v>72</v>
       </c>
-      <c r="S23" s="8">
+      <c r="S23" s="4">
         <v>32463.17</v>
       </c>
-      <c r="T23" s="7">
+      <c r="T23" s="4">
         <v>33412.45</v>
       </c>
-      <c r="U23" s="8">
+      <c r="U23" s="4">
         <v>33217.19</v>
       </c>
-      <c r="V23" s="2"/>
+      <c r="V23" s="5">
+        <v>32878.88</v>
+      </c>
     </row>
     <row r="24" ht="15.75" spans="3:22">
       <c r="C24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="3">
         <v>12</v>
@@ -2229,15 +2335,17 @@
       <c r="E24" s="4">
         <v>1954</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>2098</v>
       </c>
       <c r="G24" s="4">
         <v>1985</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="5">
+        <v>2122</v>
+      </c>
       <c r="J24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K24" s="6">
         <v>24</v>
@@ -2245,33 +2353,37 @@
       <c r="L24" s="4">
         <v>4013</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="4">
         <v>4043</v>
       </c>
       <c r="N24" s="4">
         <v>4024</v>
       </c>
-      <c r="O24" s="2"/>
+      <c r="O24" s="5">
+        <v>3990</v>
+      </c>
       <c r="Q24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R24" s="6">
         <v>36</v>
       </c>
-      <c r="S24" s="8">
+      <c r="S24" s="4">
         <v>6973</v>
       </c>
-      <c r="T24" s="7">
+      <c r="T24" s="4">
         <v>6814</v>
       </c>
-      <c r="U24" s="8">
+      <c r="U24" s="4">
         <v>6970</v>
       </c>
-      <c r="V24" s="2"/>
+      <c r="V24" s="5">
+        <v>6854</v>
+      </c>
     </row>
     <row r="25" ht="15.75" spans="3:22">
       <c r="C25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="3">
         <v>25</v>
@@ -2279,15 +2391,17 @@
       <c r="E25" s="4">
         <v>4247.61</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>4304.35</v>
       </c>
       <c r="G25" s="4">
         <v>4605.12</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="5">
+        <v>4073.53</v>
+      </c>
       <c r="J25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K25" s="6">
         <v>50</v>
@@ -2295,33 +2409,37 @@
       <c r="L25" s="4">
         <v>8984.35</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="4">
         <v>8678.09</v>
       </c>
       <c r="N25" s="4">
         <v>9290.78</v>
       </c>
-      <c r="O25" s="2"/>
+      <c r="O25" s="5">
+        <v>8837.67</v>
+      </c>
       <c r="Q25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R25" s="6">
         <v>75</v>
       </c>
-      <c r="S25" s="8">
+      <c r="S25" s="4">
         <v>14043.38</v>
       </c>
-      <c r="T25" s="7">
+      <c r="T25" s="4">
         <v>14184.41</v>
       </c>
-      <c r="U25" s="8">
+      <c r="U25" s="4">
         <v>14123.96</v>
       </c>
-      <c r="V25" s="2"/>
+      <c r="V25" s="5">
+        <v>14480.5</v>
+      </c>
     </row>
     <row r="26" ht="15.75" spans="3:22">
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="3">
         <v>37</v>
@@ -2329,15 +2447,17 @@
       <c r="E26" s="4">
         <v>5507.11</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>5270.34</v>
       </c>
       <c r="G26" s="4">
         <v>5943.72</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="5">
+        <v>5840.12</v>
+      </c>
       <c r="J26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K26" s="6">
         <v>75</v>
@@ -2345,33 +2465,37 @@
       <c r="L26" s="4">
         <v>11744.78</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="4">
         <v>11179.17</v>
       </c>
       <c r="N26" s="4">
         <v>11820.61</v>
       </c>
-      <c r="O26" s="2"/>
+      <c r="O26" s="5">
+        <v>11718.16</v>
+      </c>
       <c r="Q26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R26" s="6">
         <v>112</v>
       </c>
-      <c r="S26" s="8">
+      <c r="S26" s="4">
         <v>17822.55</v>
       </c>
-      <c r="T26" s="7">
+      <c r="T26" s="4">
         <v>18029.35</v>
       </c>
-      <c r="U26" s="8">
+      <c r="U26" s="4">
         <v>17898.34</v>
       </c>
-      <c r="V26" s="2"/>
+      <c r="V26" s="5">
+        <v>17757.85</v>
+      </c>
     </row>
     <row r="27" ht="15.75" spans="3:22">
       <c r="C27" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="3">
         <v>50</v>
@@ -2379,15 +2503,17 @@
       <c r="E27" s="4">
         <v>6067.72</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>6065.16</v>
       </c>
       <c r="G27" s="4">
         <v>6723.24</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="5">
+        <v>6530.38</v>
+      </c>
       <c r="J27" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K27" s="6">
         <v>100</v>
@@ -2395,33 +2521,37 @@
       <c r="L27" s="4">
         <v>13002.62</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="4">
         <v>13070.25</v>
       </c>
       <c r="N27" s="4">
         <v>13145.12</v>
       </c>
-      <c r="O27" s="2"/>
+      <c r="O27" s="5">
+        <v>12737.68</v>
+      </c>
       <c r="Q27" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R27" s="6">
         <v>150</v>
       </c>
-      <c r="S27" s="8">
+      <c r="S27" s="4">
         <v>19869.87</v>
       </c>
-      <c r="T27" s="7">
+      <c r="T27" s="4">
         <v>19996.33</v>
       </c>
-      <c r="U27" s="8">
+      <c r="U27" s="4">
         <v>20344.45</v>
       </c>
-      <c r="V27" s="2"/>
+      <c r="V27" s="5">
+        <v>20392.1</v>
+      </c>
     </row>
     <row r="28" ht="15.75" spans="3:22">
       <c r="C28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" s="3">
         <v>25</v>
@@ -2429,15 +2559,17 @@
       <c r="E28" s="4">
         <v>3939.58</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>4241.03</v>
       </c>
       <c r="G28" s="4">
         <v>4120.85</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="5">
+        <v>4429.96</v>
+      </c>
       <c r="J28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K28" s="6">
         <v>50</v>
@@ -2445,33 +2577,37 @@
       <c r="L28" s="4">
         <v>8992.25</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="4">
         <v>9227.11</v>
       </c>
       <c r="N28" s="4">
         <v>9892.11</v>
       </c>
-      <c r="O28" s="2"/>
+      <c r="O28" s="5">
+        <v>9471.1</v>
+      </c>
       <c r="Q28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R28" s="6">
         <v>75</v>
       </c>
-      <c r="S28" s="8">
+      <c r="S28" s="4">
         <v>14492.68</v>
       </c>
-      <c r="T28" s="7">
+      <c r="T28" s="4">
         <v>14337.91</v>
       </c>
-      <c r="U28" s="8">
+      <c r="U28" s="4">
         <v>14973.82</v>
       </c>
-      <c r="V28" s="2"/>
+      <c r="V28" s="5">
+        <v>14758.15</v>
+      </c>
     </row>
     <row r="29" ht="15.75" spans="3:22">
       <c r="C29" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" s="3">
         <v>37</v>
@@ -2479,15 +2615,17 @@
       <c r="E29" s="4">
         <v>5003.1</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>5258.74</v>
       </c>
       <c r="G29" s="4">
         <v>5128.61</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="5">
+        <v>5102.42</v>
+      </c>
       <c r="J29" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K29" s="6">
         <v>75</v>
@@ -2495,33 +2633,37 @@
       <c r="L29" s="4">
         <v>11343.59</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="4">
         <v>11065.09</v>
       </c>
       <c r="N29" s="4">
         <v>11261.65</v>
       </c>
-      <c r="O29" s="2"/>
+      <c r="O29" s="5">
+        <v>11675.09</v>
+      </c>
       <c r="Q29" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R29" s="6">
         <v>112</v>
       </c>
-      <c r="S29" s="8">
+      <c r="S29" s="4">
         <v>16864.39</v>
       </c>
-      <c r="T29" s="7">
+      <c r="T29" s="4">
         <v>16754.93</v>
       </c>
-      <c r="U29" s="8">
+      <c r="U29" s="4">
         <v>16935.49</v>
       </c>
-      <c r="V29" s="2"/>
+      <c r="V29" s="5">
+        <v>17202.36</v>
+      </c>
     </row>
     <row r="30" ht="15.75" spans="3:22">
       <c r="C30" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="3">
         <v>50</v>
@@ -2529,15 +2671,17 @@
       <c r="E30" s="4">
         <v>6086.05</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>6123.04</v>
       </c>
       <c r="G30" s="4">
         <v>5997.25</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="5">
+        <v>6621.84</v>
+      </c>
       <c r="J30" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K30" s="6">
         <v>100</v>
@@ -2545,33 +2689,37 @@
       <c r="L30" s="4">
         <v>12744.81</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="4">
         <v>12653.32</v>
       </c>
       <c r="N30" s="4">
         <v>12752.49</v>
       </c>
-      <c r="O30" s="2"/>
+      <c r="O30" s="5">
+        <v>13420.52</v>
+      </c>
       <c r="Q30" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R30" s="6">
         <v>150</v>
       </c>
-      <c r="S30" s="8">
+      <c r="S30" s="4">
         <v>20054.07</v>
       </c>
-      <c r="T30" s="7">
+      <c r="T30" s="4">
         <v>19843.62</v>
       </c>
-      <c r="U30" s="8">
+      <c r="U30" s="4">
         <v>19571.08</v>
       </c>
-      <c r="V30" s="2"/>
+      <c r="V30" s="5">
+        <v>19690.56</v>
+      </c>
     </row>
     <row r="31" ht="15.75" spans="3:22">
       <c r="C31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" s="3">
         <v>25</v>
@@ -2579,15 +2727,17 @@
       <c r="E31" s="4">
         <v>4117.06</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>4021.19</v>
       </c>
       <c r="G31" s="4">
         <v>4180.94</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="5">
+        <v>4043.65</v>
+      </c>
       <c r="J31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K31" s="6">
         <v>50</v>
@@ -2595,33 +2745,37 @@
       <c r="L31" s="4">
         <v>9016.33</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="4">
         <v>8954.15</v>
       </c>
       <c r="N31" s="4">
         <v>8698.27</v>
       </c>
-      <c r="O31" s="2"/>
+      <c r="O31" s="5">
+        <v>9343.98</v>
+      </c>
       <c r="Q31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R31" s="6">
         <v>75</v>
       </c>
-      <c r="S31" s="8">
+      <c r="S31" s="4">
         <v>13692.78</v>
       </c>
-      <c r="T31" s="7">
+      <c r="T31" s="4">
         <v>13353.45</v>
       </c>
-      <c r="U31" s="8">
+      <c r="U31" s="4">
         <v>14148.87</v>
       </c>
-      <c r="V31" s="2"/>
+      <c r="V31" s="5">
+        <v>13636.48</v>
+      </c>
     </row>
     <row r="32" ht="15.75" spans="3:22">
       <c r="C32" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="3">
         <v>25</v>
@@ -2629,15 +2783,17 @@
       <c r="E32" s="4">
         <v>3905.21</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>4040.31</v>
       </c>
       <c r="G32" s="4">
         <v>4289.94</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="5">
+        <v>4416.78</v>
+      </c>
       <c r="J32" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K32" s="6">
         <v>50</v>
@@ -2645,33 +2801,37 @@
       <c r="L32" s="4">
         <v>8439.6</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="4">
         <v>8735.5</v>
       </c>
       <c r="N32" s="4">
         <v>8919.11</v>
       </c>
-      <c r="O32" s="2"/>
+      <c r="O32" s="5">
+        <v>9147.88</v>
+      </c>
       <c r="Q32" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R32" s="6">
         <v>75</v>
       </c>
-      <c r="S32" s="8">
+      <c r="S32" s="4">
         <v>14289.5</v>
       </c>
-      <c r="T32" s="7">
+      <c r="T32" s="4">
         <v>13854.01</v>
       </c>
-      <c r="U32" s="8">
+      <c r="U32" s="4">
         <v>14809.93</v>
       </c>
-      <c r="V32" s="2"/>
+      <c r="V32" s="5">
+        <v>14206.08</v>
+      </c>
     </row>
     <row r="33" ht="15.75" spans="3:22">
       <c r="C33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" s="3">
         <v>25</v>
@@ -2679,15 +2839,17 @@
       <c r="E33" s="4">
         <v>3336.02</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <v>3416.56</v>
       </c>
       <c r="G33" s="4">
         <v>3336.02</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="5">
+        <v>3336.02</v>
+      </c>
       <c r="J33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K33" s="6">
         <v>50</v>
@@ -2695,33 +2857,37 @@
       <c r="L33" s="4">
         <v>8757.35</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="4">
         <v>9306.33</v>
       </c>
       <c r="N33" s="4">
         <v>9059.77</v>
       </c>
-      <c r="O33" s="2"/>
+      <c r="O33" s="5">
+        <v>9298.52</v>
+      </c>
       <c r="Q33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R33" s="6">
         <v>75</v>
       </c>
-      <c r="S33" s="8">
+      <c r="S33" s="4">
         <v>14587.97</v>
       </c>
-      <c r="T33" s="7">
+      <c r="T33" s="4">
         <v>14477.59</v>
       </c>
-      <c r="U33" s="8">
+      <c r="U33" s="4">
         <v>14569.5</v>
       </c>
-      <c r="V33" s="2"/>
+      <c r="V33" s="5">
+        <v>14361.97</v>
+      </c>
     </row>
     <row r="34" ht="15.75" spans="3:22">
       <c r="C34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" s="3">
         <v>26</v>
@@ -2729,15 +2895,17 @@
       <c r="E34" s="4">
         <v>2002.98</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <v>2002.98</v>
       </c>
       <c r="G34" s="4">
         <v>2208.78</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="5">
+        <v>2381.41</v>
+      </c>
       <c r="J34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K34" s="6">
         <v>52</v>
@@ -2745,33 +2913,37 @@
       <c r="L34" s="4">
         <v>4605.86</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="4">
         <v>4648.13</v>
       </c>
       <c r="N34" s="4">
         <v>4685.06</v>
       </c>
-      <c r="O34" s="2"/>
+      <c r="O34" s="5">
+        <v>4658.88</v>
+      </c>
       <c r="Q34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R34" s="6">
         <v>78</v>
       </c>
-      <c r="S34" s="8">
+      <c r="S34" s="4">
         <v>8456.82</v>
       </c>
-      <c r="T34" s="7">
+      <c r="T34" s="4">
         <v>8572.94</v>
       </c>
-      <c r="U34" s="8">
+      <c r="U34" s="4">
         <v>8396.26</v>
       </c>
-      <c r="V34" s="2"/>
+      <c r="V34" s="5">
+        <v>8045.35</v>
+      </c>
     </row>
     <row r="35" ht="15.75" spans="3:22">
       <c r="C35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" s="3">
         <v>79</v>
@@ -2779,15 +2951,17 @@
       <c r="E35" s="4">
         <v>7492.55</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <v>8775.59</v>
       </c>
       <c r="G35" s="4">
         <v>8939.88</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="5">
+        <v>9154.38</v>
+      </c>
       <c r="J35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K35" s="6">
         <v>159</v>
@@ -2795,33 +2969,37 @@
       <c r="L35" s="4">
         <v>16861.76</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="4">
         <v>17803.59</v>
       </c>
       <c r="N35" s="4">
         <v>16594.58</v>
       </c>
-      <c r="O35" s="2"/>
+      <c r="O35" s="5">
+        <v>16532.67</v>
+      </c>
       <c r="Q35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R35" s="6">
         <v>238</v>
       </c>
-      <c r="S35" s="8">
+      <c r="S35" s="4">
         <v>27341.07</v>
       </c>
-      <c r="T35" s="7">
+      <c r="T35" s="4">
         <v>27099.87</v>
       </c>
-      <c r="U35" s="8">
+      <c r="U35" s="4">
         <v>27788.54</v>
       </c>
-      <c r="V35" s="2"/>
+      <c r="V35" s="5">
+        <v>28495.83</v>
+      </c>
     </row>
     <row r="36" ht="15.75" spans="3:22">
       <c r="C36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="3">
         <v>19</v>
@@ -2829,15 +3007,17 @@
       <c r="E36" s="4">
         <v>19642.8</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <v>20155.24</v>
       </c>
       <c r="G36" s="4">
         <v>18270.88</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="5">
+        <v>19041.59</v>
+      </c>
       <c r="J36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K36" s="6">
         <v>38</v>
@@ -2845,33 +3025,37 @@
       <c r="L36" s="4">
         <v>37105.79</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M36" s="4">
         <v>36936.72</v>
       </c>
       <c r="N36" s="4">
         <v>36658.25</v>
       </c>
-      <c r="O36" s="2"/>
+      <c r="O36" s="5">
+        <v>37235.52</v>
+      </c>
       <c r="Q36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R36" s="6">
         <v>57</v>
       </c>
-      <c r="S36" s="8">
+      <c r="S36" s="4">
         <v>59838.85</v>
       </c>
-      <c r="T36" s="7">
+      <c r="T36" s="4">
         <v>61124.68</v>
       </c>
-      <c r="U36" s="8">
+      <c r="U36" s="4">
         <v>63664.83</v>
       </c>
-      <c r="V36" s="2"/>
+      <c r="V36" s="5">
+        <v>62157.06</v>
+      </c>
     </row>
     <row r="37" ht="15.75" spans="3:22">
       <c r="C37" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D37" s="3">
         <v>26</v>
@@ -2879,15 +3063,17 @@
       <c r="E37" s="4">
         <v>6733.38</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <v>6733.38</v>
       </c>
       <c r="G37" s="4">
         <v>6988.61</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="5">
+        <v>6988.61</v>
+      </c>
       <c r="J37" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K37" s="6">
         <v>52</v>
@@ -2895,33 +3081,37 @@
       <c r="L37" s="4">
         <v>14703.61</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="4">
         <v>14704.12</v>
       </c>
       <c r="N37" s="4">
         <v>14769.35</v>
       </c>
-      <c r="O37" s="2"/>
+      <c r="O37" s="5">
+        <v>14473.74</v>
+      </c>
       <c r="Q37" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R37" s="6">
         <v>80</v>
       </c>
-      <c r="S37" s="8">
+      <c r="S37" s="4">
         <v>30488.7</v>
       </c>
-      <c r="T37" s="7">
+      <c r="T37" s="4">
         <v>29587.28</v>
       </c>
-      <c r="U37" s="8">
+      <c r="U37" s="4">
         <v>29524.41</v>
       </c>
-      <c r="V37" s="2"/>
+      <c r="V37" s="5">
+        <v>30116.09</v>
+      </c>
     </row>
     <row r="38" ht="15.75" spans="3:22">
       <c r="C38" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D38" s="3">
         <v>31</v>
@@ -2929,15 +3119,17 @@
       <c r="E38" s="4">
         <v>9378.8</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <v>9329.87</v>
       </c>
       <c r="G38" s="4">
         <v>9284.41</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="5">
+        <v>9378.8</v>
+      </c>
       <c r="J38" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K38" s="6">
         <v>62</v>
@@ -2945,33 +3137,37 @@
       <c r="L38" s="4">
         <v>21566.03</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M38" s="4">
         <v>20818.9</v>
       </c>
       <c r="N38" s="4">
         <v>20911.81</v>
       </c>
-      <c r="O38" s="2"/>
+      <c r="O38" s="5">
+        <v>22712.56</v>
+      </c>
       <c r="Q38" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R38" s="6">
         <v>93</v>
       </c>
-      <c r="S38" s="8">
+      <c r="S38" s="4">
         <v>35368.11</v>
       </c>
-      <c r="T38" s="7">
+      <c r="T38" s="4">
         <v>36398.06</v>
       </c>
-      <c r="U38" s="8">
+      <c r="U38" s="4">
         <v>36785.95</v>
       </c>
-      <c r="V38" s="2"/>
+      <c r="V38" s="5">
+        <v>38249.99</v>
+      </c>
     </row>
     <row r="39" ht="15.75" spans="3:22">
       <c r="C39" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39" s="3">
         <v>34</v>
@@ -2979,15 +3175,17 @@
       <c r="E39" s="4">
         <v>20168.23</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="4">
         <v>19998.88</v>
       </c>
       <c r="G39" s="4">
         <v>19894.6</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="5">
+        <v>20389</v>
+      </c>
       <c r="J39" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39" s="6">
         <v>68</v>
@@ -2995,33 +3193,37 @@
       <c r="L39" s="4">
         <v>44637.83</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M39" s="4">
         <v>44433.41</v>
       </c>
       <c r="N39" s="4">
         <v>44284.83</v>
       </c>
-      <c r="O39" s="2"/>
+      <c r="O39" s="5">
+        <v>44915.13</v>
+      </c>
       <c r="Q39" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R39" s="6">
         <v>102</v>
       </c>
-      <c r="S39" s="8">
+      <c r="S39" s="4">
         <v>67005.71</v>
       </c>
-      <c r="T39" s="7">
+      <c r="T39" s="4">
         <v>66781.21</v>
       </c>
-      <c r="U39" s="8">
+      <c r="U39" s="4">
         <v>66750.16</v>
       </c>
-      <c r="V39" s="2"/>
+      <c r="V39" s="5">
+        <v>67000.81</v>
+      </c>
     </row>
     <row r="40" ht="15.75" spans="3:22">
       <c r="C40" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D40" s="3">
         <v>36</v>
@@ -3029,15 +3231,17 @@
       <c r="E40" s="4">
         <v>10742.86</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="4">
         <v>13256.11</v>
       </c>
       <c r="G40" s="4">
         <v>14069.99</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="5">
+        <v>14816.48</v>
+      </c>
       <c r="J40" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K40" s="6">
         <v>72</v>
@@ -3045,33 +3249,37 @@
       <c r="L40" s="4">
         <v>26293.47</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M40" s="4">
         <v>27812.24</v>
       </c>
       <c r="N40" s="4">
         <v>27196.57</v>
       </c>
-      <c r="O40" s="2"/>
+      <c r="O40" s="5">
+        <v>27374.48</v>
+      </c>
       <c r="Q40" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R40" s="6">
         <v>108</v>
       </c>
-      <c r="S40" s="8">
+      <c r="S40" s="4">
         <v>38203.84</v>
       </c>
-      <c r="T40" s="7">
+      <c r="T40" s="4">
         <v>38889.47</v>
       </c>
-      <c r="U40" s="8">
+      <c r="U40" s="4">
         <v>42179.7</v>
       </c>
-      <c r="V40" s="2"/>
+      <c r="V40" s="5">
+        <v>43050.36</v>
+      </c>
     </row>
     <row r="41" ht="15.75" spans="3:22">
       <c r="C41" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D41" s="3">
         <v>38</v>
@@ -3079,15 +3287,17 @@
       <c r="E41" s="4">
         <v>14780.62</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="4">
         <v>18221.84</v>
       </c>
       <c r="G41" s="4">
         <v>17871.28</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="5">
+        <v>17619.52</v>
+      </c>
       <c r="J41" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K41" s="6">
         <v>76</v>
@@ -3095,33 +3305,37 @@
       <c r="L41" s="4">
         <v>31161.21</v>
       </c>
-      <c r="M41" s="7">
+      <c r="M41" s="4">
         <v>30492.64</v>
       </c>
       <c r="N41" s="4">
         <v>30506.9</v>
       </c>
-      <c r="O41" s="2"/>
+      <c r="O41" s="5">
+        <v>31209.32</v>
+      </c>
       <c r="Q41" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R41" s="6">
         <v>114</v>
       </c>
-      <c r="S41" s="8">
+      <c r="S41" s="4">
         <v>47013.52</v>
       </c>
-      <c r="T41" s="7">
+      <c r="T41" s="4">
         <v>48319.08</v>
       </c>
-      <c r="U41" s="8">
+      <c r="U41" s="4">
         <v>48489.8</v>
       </c>
-      <c r="V41" s="2"/>
+      <c r="V41" s="5">
+        <v>48364.89</v>
+      </c>
     </row>
     <row r="42" ht="15.75" spans="3:22">
       <c r="C42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D42" s="3">
         <v>56</v>
@@ -3129,15 +3343,17 @@
       <c r="E42" s="4">
         <v>15824.06</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="4">
         <v>15849.71</v>
       </c>
       <c r="G42" s="4">
         <v>16664.97</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" s="5">
+        <v>16546.63</v>
+      </c>
       <c r="J42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K42" s="6">
         <v>113</v>
@@ -3145,33 +3361,37 @@
       <c r="L42" s="4">
         <v>26272.2</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M42" s="4">
         <v>34520.56</v>
       </c>
       <c r="N42" s="4">
         <v>31010.75</v>
       </c>
-      <c r="O42" s="2"/>
+      <c r="O42" s="5">
+        <v>30576.73</v>
+      </c>
       <c r="Q42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R42" s="6">
         <v>169</v>
       </c>
-      <c r="S42" s="8">
+      <c r="S42" s="4">
         <v>46490.92</v>
       </c>
-      <c r="T42" s="7">
+      <c r="T42" s="4">
         <v>43792.8</v>
       </c>
-      <c r="U42" s="8">
+      <c r="U42" s="4">
         <v>45695.74</v>
       </c>
-      <c r="V42" s="2"/>
+      <c r="V42" s="5">
+        <v>45481.42</v>
+      </c>
     </row>
     <row r="43" ht="15.75" spans="3:22">
       <c r="C43" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43" s="3">
         <v>24</v>
@@ -3179,15 +3399,17 @@
       <c r="E43" s="4">
         <v>250.39</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="4">
         <v>246.96</v>
       </c>
       <c r="G43" s="4">
         <v>248.66</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="5">
+        <v>257.43</v>
+      </c>
       <c r="J43" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K43" s="6">
         <v>49</v>
@@ -3195,33 +3417,37 @@
       <c r="L43" s="4">
         <v>549.76</v>
       </c>
-      <c r="M43" s="7">
+      <c r="M43" s="4">
         <v>548.02</v>
       </c>
       <c r="N43" s="4">
         <v>535.33</v>
       </c>
-      <c r="O43" s="2"/>
+      <c r="O43" s="5">
+        <v>557.54</v>
+      </c>
       <c r="Q43" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R43" s="6">
         <v>74</v>
       </c>
-      <c r="S43" s="8">
+      <c r="S43" s="4">
         <v>857.1</v>
       </c>
-      <c r="T43" s="7">
+      <c r="T43" s="4">
         <v>862.66</v>
       </c>
-      <c r="U43" s="8">
+      <c r="U43" s="4">
         <v>857.92</v>
       </c>
-      <c r="V43" s="2"/>
+      <c r="V43" s="5">
+        <v>872.04</v>
+      </c>
     </row>
     <row r="44" ht="15.75" spans="3:22">
       <c r="C44" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D44" s="3">
         <v>48</v>
@@ -3229,15 +3455,17 @@
       <c r="E44" s="4">
         <v>563.96</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="4">
         <v>548.67</v>
       </c>
       <c r="G44" s="4">
         <v>541.57</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="5">
+        <v>550.99</v>
+      </c>
       <c r="J44" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K44" s="6">
         <v>97</v>
@@ -3245,33 +3473,37 @@
       <c r="L44" s="4">
         <v>1154.18</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M44" s="4">
         <v>1165.33</v>
       </c>
       <c r="N44" s="4">
         <v>1140.86</v>
       </c>
-      <c r="O44" s="2"/>
+      <c r="O44" s="5">
+        <v>1158.27</v>
+      </c>
       <c r="Q44" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R44" s="6">
         <v>146</v>
       </c>
-      <c r="S44" s="8">
+      <c r="S44" s="4">
         <v>1725.15</v>
       </c>
-      <c r="T44" s="7">
+      <c r="T44" s="4">
         <v>1733.09</v>
       </c>
-      <c r="U44" s="8">
+      <c r="U44" s="4">
         <v>1730.19</v>
       </c>
-      <c r="V44" s="2"/>
+      <c r="V44" s="5">
+        <v>1746.95</v>
+      </c>
     </row>
     <row r="45" ht="15.75" spans="3:22">
       <c r="C45" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D45" s="3">
         <v>17</v>
@@ -3279,15 +3511,17 @@
       <c r="E45" s="4">
         <v>108.3</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="4">
         <v>108.3</v>
       </c>
       <c r="G45" s="4">
         <v>108.3</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="5">
+        <v>111.43</v>
+      </c>
       <c r="J45" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K45" s="6">
         <v>35</v>
@@ -3295,33 +3529,37 @@
       <c r="L45" s="4">
         <v>269.28</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="4">
         <v>253.82</v>
       </c>
       <c r="N45" s="4">
         <v>265.09</v>
       </c>
-      <c r="O45" s="2"/>
+      <c r="O45" s="5">
+        <v>254.17</v>
+      </c>
       <c r="Q45" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R45" s="6">
         <v>52</v>
       </c>
-      <c r="S45" s="8">
+      <c r="S45" s="4">
         <v>422.36</v>
       </c>
-      <c r="T45" s="7">
+      <c r="T45" s="4">
         <v>435.08</v>
       </c>
-      <c r="U45" s="8">
+      <c r="U45" s="4">
         <v>429</v>
       </c>
-      <c r="V45" s="2"/>
+      <c r="V45" s="5">
+        <v>432.9</v>
+      </c>
     </row>
     <row r="46" ht="15.75" spans="3:22">
       <c r="C46" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D46" s="3">
         <v>10</v>
@@ -3329,15 +3567,17 @@
       <c r="E46" s="4">
         <v>146</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="4">
         <v>146</v>
       </c>
       <c r="G46" s="4">
         <v>146</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="5">
+        <v>150</v>
+      </c>
       <c r="J46" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K46" s="6">
         <v>21</v>
@@ -3345,33 +3585,37 @@
       <c r="L46" s="4">
         <v>476</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M46" s="4">
         <v>430</v>
       </c>
       <c r="N46" s="4">
         <v>418</v>
       </c>
-      <c r="O46" s="2"/>
+      <c r="O46" s="5">
+        <v>410</v>
+      </c>
       <c r="Q46" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R46" s="6">
         <v>31</v>
       </c>
-      <c r="S46" s="8">
+      <c r="S46" s="4">
         <v>721</v>
       </c>
-      <c r="T46" s="7">
+      <c r="T46" s="4">
         <v>721</v>
       </c>
-      <c r="U46" s="8">
+      <c r="U46" s="4">
         <v>698</v>
       </c>
-      <c r="V46" s="2"/>
+      <c r="V46" s="5">
+        <v>698</v>
+      </c>
     </row>
     <row r="47" ht="15.75" spans="3:22">
       <c r="C47" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47" s="3">
         <v>4</v>
@@ -3379,15 +3623,17 @@
       <c r="E47" s="4">
         <v>751.06</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="4">
         <v>751.06</v>
       </c>
       <c r="G47" s="4">
         <v>638.03</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="5">
+        <v>638.03</v>
+      </c>
       <c r="J47" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K47" s="6">
         <v>8</v>
@@ -3395,33 +3641,37 @@
       <c r="L47" s="4">
         <v>1981.71</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M47" s="4">
         <v>1981.71</v>
       </c>
       <c r="N47" s="4">
         <v>1397.42</v>
       </c>
-      <c r="O47" s="2"/>
+      <c r="O47" s="5">
+        <v>1397.42</v>
+      </c>
       <c r="Q47" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R47" s="6">
         <v>12</v>
       </c>
-      <c r="S47" s="8">
+      <c r="S47" s="4">
         <v>2741.1</v>
       </c>
-      <c r="T47" s="7">
+      <c r="T47" s="4">
         <v>2741.1</v>
       </c>
-      <c r="U47" s="8">
+      <c r="U47" s="4">
         <v>2731</v>
       </c>
-      <c r="V47" s="2"/>
+      <c r="V47" s="5">
+        <v>2731</v>
+      </c>
     </row>
     <row r="48" ht="15.75" spans="3:22">
       <c r="C48" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D48" s="3">
         <v>5</v>
@@ -3429,15 +3679,17 @@
       <c r="E48" s="4">
         <v>456.58</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="4">
         <v>456.58</v>
       </c>
       <c r="G48" s="4">
         <v>456.58</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="5">
+        <v>456.58</v>
+      </c>
       <c r="J48" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K48" s="6">
         <v>11</v>
@@ -3445,29 +3697,33 @@
       <c r="L48" s="4">
         <v>2062.92</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M48" s="4">
         <v>1684.93</v>
       </c>
       <c r="N48" s="4">
         <v>1591.34</v>
       </c>
-      <c r="O48" s="2"/>
+      <c r="O48" s="5">
+        <v>1647.33</v>
+      </c>
       <c r="Q48" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R48" s="6">
         <v>16</v>
       </c>
-      <c r="S48" s="8">
+      <c r="S48" s="4">
         <v>2540.07</v>
       </c>
-      <c r="T48" s="7">
+      <c r="T48" s="4">
         <v>2540.07</v>
       </c>
-      <c r="U48" s="8">
+      <c r="U48" s="4">
         <v>2540.07</v>
       </c>
-      <c r="V48" s="2"/>
+      <c r="V48" s="5">
+        <v>2540.07</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Arquivos/Comparações/Comparações dos valores de alfa para o graspRVND.xlsx
+++ b/Arquivos/Comparações/Comparações dos valores de alfa para o graspRVND.xlsx
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="55">
   <si>
     <t>Valores de α</t>
   </si>
   <si>
+    <t>Menor resultado</t>
+  </si>
+  <si>
+    <t>Menor Resultado</t>
+  </si>
+  <si>
     <t>Instâncias</t>
   </si>
   <si>
@@ -167,6 +173,12 @@
   </si>
   <si>
     <t>ulysses22</t>
+  </si>
+  <si>
+    <t>Número de vezes que cada método gerou o melhor resultado</t>
+  </si>
+  <si>
+    <t>Comparação entre os valores de   α</t>
   </si>
 </sst>
 </file>
@@ -174,13 +186,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -196,16 +208,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,7 +223,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,8 +252,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,30 +269,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,14 +277,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -304,15 +293,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,22 +307,46 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,7 +361,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,7 +373,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,7 +427,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,79 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,7 +469,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,49 +529,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,32 +570,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,9 +596,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,11 +629,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,13 +653,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,152 +672,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -825,11 +830,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -886,6 +906,18 @@
     <cellStyle name="60% - Ênfase 5" xfId="47" builtinId="48"/>
     <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1153,10 +1185,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:V48"/>
+  <dimension ref="C3:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="S56" sqref="S56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1166,20 +1198,22 @@
     <col min="4" max="4" width="19.1428571428571" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.7142857142857" style="1"/>
     <col min="6" max="7" width="9.14285714285714" style="1"/>
-    <col min="8" max="8" width="11.7142857142857" style="1"/>
-    <col min="9" max="9" width="9.14285714285714" style="1"/>
-    <col min="10" max="10" width="10.2857142857143" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.1428571428571" style="1" customWidth="1"/>
-    <col min="12" max="14" width="11.7142857142857" style="1"/>
-    <col min="15" max="15" width="10.7142857142857" style="1"/>
-    <col min="16" max="16" width="9.14285714285714" style="1"/>
-    <col min="17" max="17" width="10.2857142857143" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.1428571428571" style="1" customWidth="1"/>
-    <col min="19" max="22" width="11.7142857142857" style="1"/>
-    <col min="23" max="16384" width="9.14285714285714" style="1"/>
+    <col min="8" max="8" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7142857142857" style="1"/>
+    <col min="10" max="10" width="9.14285714285714" style="1"/>
+    <col min="11" max="11" width="10.2857142857143" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.1428571428571" style="1" customWidth="1"/>
+    <col min="13" max="15" width="11.7142857142857" style="1"/>
+    <col min="16" max="17" width="10.7142857142857" style="1"/>
+    <col min="18" max="18" width="9.14285714285714" style="1"/>
+    <col min="19" max="19" width="10.2857142857143" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.1428571428571" style="1" customWidth="1"/>
+    <col min="21" max="24" width="11.7142857142857" style="1"/>
+    <col min="25" max="25" width="10.7142857142857" style="1" customWidth="1"/>
+    <col min="26" max="16382" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="15.75" spans="3:22">
+    <row r="3" ht="15.75" spans="3:25">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
@@ -1188,70 +1222,75 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2" t="s">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
       <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="8" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" ht="15.75" spans="3:22">
+    <row r="4" ht="15.75" spans="3:25">
       <c r="C4" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="K4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="L4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="O4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="9"/>
+      <c r="S4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U4" s="2" t="s">
@@ -1260,10 +1299,17 @@
       <c r="V4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="W4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y4" s="9"/>
     </row>
-    <row r="5" ht="15.75" spans="3:22">
+    <row r="5" ht="15.75" spans="3:25">
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3">
         <v>70</v>
@@ -1277,49 +1323,61 @@
       <c r="G5" s="4">
         <v>711.77</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>734.28</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="6">
+      <c r="I5" s="10">
+        <f>SMALL(E5:H5,1)</f>
+        <v>649.82</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="11">
         <v>140</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
         <v>1289.94</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
         <v>1368.02</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="4">
         <v>1344.31</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="4">
         <v>1331.65</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="6">
+      <c r="Q5" s="10">
+        <f>SMALL(M5:P5,1)</f>
+        <v>1289.94</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="11">
         <v>210</v>
       </c>
-      <c r="S5" s="4">
+      <c r="U5" s="4">
         <v>1953.66</v>
       </c>
-      <c r="T5" s="4">
+      <c r="V5" s="4">
         <v>1954.31</v>
       </c>
-      <c r="U5" s="4">
+      <c r="W5" s="4">
         <v>1933.82</v>
       </c>
-      <c r="V5" s="5">
+      <c r="X5" s="4">
         <v>1916.99</v>
       </c>
+      <c r="Y5" s="10">
+        <f>SMALL(U5:X5,1)</f>
+        <v>1916.99</v>
+      </c>
     </row>
-    <row r="6" ht="15.75" spans="3:22">
+    <row r="6" ht="15.75" spans="3:25">
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3">
         <v>7</v>
@@ -1333,49 +1391,61 @@
       <c r="G6" s="4">
         <v>246</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>268</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="6">
+      <c r="I6" s="10">
+        <f t="shared" ref="I6:I48" si="0">SMALL(E6:H6,1)</f>
+        <v>246</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="11">
         <v>14</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>581</v>
-      </c>
-      <c r="M6" s="4">
-        <v>571</v>
       </c>
       <c r="N6" s="4">
         <v>571</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
+        <v>571</v>
+      </c>
+      <c r="P6" s="4">
         <v>546</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R6" s="6">
+      <c r="Q6" s="10">
+        <f t="shared" ref="Q6:Q48" si="1">SMALL(M6:P6,1)</f>
+        <v>546</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="11">
         <v>21</v>
       </c>
-      <c r="S6" s="4">
+      <c r="U6" s="4">
         <v>1035</v>
       </c>
-      <c r="T6" s="4">
+      <c r="V6" s="4">
         <v>918</v>
       </c>
-      <c r="U6" s="4">
+      <c r="W6" s="4">
         <v>918</v>
       </c>
-      <c r="V6" s="5">
+      <c r="X6" s="4">
         <v>939</v>
       </c>
+      <c r="Y6" s="10">
+        <f t="shared" ref="Y6:Y48" si="2">SMALL(U6:X6,1)</f>
+        <v>918</v>
+      </c>
     </row>
-    <row r="7" ht="15.75" spans="3:22">
+    <row r="7" ht="15.75" spans="3:25">
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3">
         <v>7</v>
@@ -1389,49 +1459,61 @@
       <c r="G7" s="4">
         <v>282</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>282</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="6">
+      <c r="I7" s="10">
+        <f t="shared" si="0"/>
+        <v>282</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="11">
         <v>14</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
         <v>692</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <v>651</v>
       </c>
-      <c r="N7" s="4">
+      <c r="O7" s="4">
         <v>640</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="4">
         <v>651</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R7" s="6">
+      <c r="Q7" s="10">
+        <f t="shared" si="1"/>
+        <v>640</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T7" s="11">
         <v>21</v>
-      </c>
-      <c r="S7" s="4">
-        <v>1090</v>
-      </c>
-      <c r="T7" s="4">
-        <v>1086</v>
       </c>
       <c r="U7" s="4">
         <v>1090</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="4">
+        <v>1086</v>
+      </c>
+      <c r="W7" s="4">
         <v>1090</v>
       </c>
+      <c r="X7" s="4">
+        <v>1090</v>
+      </c>
+      <c r="Y7" s="10">
+        <f t="shared" si="2"/>
+        <v>1086</v>
+      </c>
     </row>
-    <row r="8" ht="15.75" spans="3:22">
+    <row r="8" ht="15.75" spans="3:25">
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3">
         <v>13</v>
@@ -1445,49 +1527,61 @@
       <c r="G8" s="4">
         <v>480.48</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>480.48</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="6">
+      <c r="I8" s="10">
+        <f t="shared" si="0"/>
+        <v>480.48</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="11">
         <v>26</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>1749.38</v>
-      </c>
-      <c r="M8" s="4">
-        <v>1733.82</v>
       </c>
       <c r="N8" s="4">
         <v>1733.82</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="4">
         <v>1733.82</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R8" s="6">
+      <c r="P8" s="4">
+        <v>1733.82</v>
+      </c>
+      <c r="Q8" s="10">
+        <f t="shared" si="1"/>
+        <v>1733.82</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" s="11">
         <v>39</v>
       </c>
-      <c r="S8" s="4">
+      <c r="U8" s="4">
         <v>3910.64</v>
       </c>
-      <c r="T8" s="4">
+      <c r="V8" s="4">
         <v>3868.97</v>
       </c>
-      <c r="U8" s="4">
+      <c r="W8" s="4">
         <v>3859.81</v>
       </c>
-      <c r="V8" s="5">
+      <c r="X8" s="4">
         <v>3910.64</v>
       </c>
+      <c r="Y8" s="10">
+        <f t="shared" si="2"/>
+        <v>3859.81</v>
+      </c>
     </row>
-    <row r="9" ht="15.75" spans="3:22">
+    <row r="9" ht="15.75" spans="3:25">
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3">
         <v>31</v>
@@ -1501,49 +1595,61 @@
       <c r="G9" s="4">
         <v>9776.1</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>9776.1</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="6">
+      <c r="I9" s="10">
+        <f t="shared" si="0"/>
+        <v>9682.94</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="11">
         <v>63</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>25935.45</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>26660.41</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>25378.24</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="4">
         <v>26472</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R9" s="6">
+      <c r="Q9" s="10">
+        <f t="shared" si="1"/>
+        <v>25378.24</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T9" s="11">
         <v>95</v>
       </c>
-      <c r="S9" s="4">
+      <c r="U9" s="4">
         <v>51268.42</v>
       </c>
-      <c r="T9" s="4">
+      <c r="V9" s="4">
         <v>50491.65</v>
       </c>
-      <c r="U9" s="4">
+      <c r="W9" s="4">
         <v>49999.6</v>
       </c>
-      <c r="V9" s="5">
+      <c r="X9" s="4">
         <v>50047.08</v>
       </c>
+      <c r="Y9" s="10">
+        <f t="shared" si="2"/>
+        <v>49999.6</v>
+      </c>
     </row>
-    <row r="10" ht="15.75" spans="3:22">
+    <row r="10" ht="15.75" spans="3:25">
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3">
         <v>3</v>
@@ -1557,17 +1663,18 @@
       <c r="G10" s="4">
         <v>224.88</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>224.88</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="6">
+      <c r="I10" s="10">
+        <f t="shared" si="0"/>
+        <v>224.88</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="11">
         <v>7</v>
-      </c>
-      <c r="L10" s="4">
-        <v>1140.19</v>
       </c>
       <c r="M10" s="4">
         <v>1140.19</v>
@@ -1575,31 +1682,42 @@
       <c r="N10" s="4">
         <v>1140.19</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="4">
+        <v>1140.19</v>
+      </c>
+      <c r="P10" s="4">
         <v>966.37</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="6">
+      <c r="Q10" s="10">
+        <f t="shared" si="1"/>
+        <v>966.37</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10" s="11">
         <v>10</v>
-      </c>
-      <c r="S10" s="4">
-        <v>1637.31</v>
-      </c>
-      <c r="T10" s="4">
-        <v>1637.31</v>
       </c>
       <c r="U10" s="4">
         <v>1637.31</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10" s="4">
+        <v>1637.31</v>
+      </c>
+      <c r="W10" s="4">
+        <v>1637.31</v>
+      </c>
+      <c r="X10" s="4">
         <v>1528.5</v>
       </c>
+      <c r="Y10" s="10">
+        <f t="shared" si="2"/>
+        <v>1528.5</v>
+      </c>
     </row>
-    <row r="11" ht="15.75" spans="3:22">
+    <row r="11" ht="15.75" spans="3:25">
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3">
         <v>32</v>
@@ -1613,49 +1731,61 @@
       <c r="G11" s="4">
         <v>1029.79</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>1038.42</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="6">
+      <c r="I11" s="10">
+        <f t="shared" si="0"/>
+        <v>1029.79</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="11">
         <v>65</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
         <v>2390.07</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="4">
         <v>2605.19</v>
       </c>
-      <c r="N11" s="4">
+      <c r="O11" s="4">
         <v>2400.43</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="4">
         <v>2505.41</v>
       </c>
-      <c r="Q11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R11" s="6">
+      <c r="Q11" s="10">
+        <f t="shared" si="1"/>
+        <v>2390.07</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T11" s="11">
         <v>97</v>
       </c>
-      <c r="S11" s="4">
+      <c r="U11" s="4">
         <v>3828.1</v>
       </c>
-      <c r="T11" s="4">
+      <c r="V11" s="4">
         <v>3861.47</v>
       </c>
-      <c r="U11" s="4">
+      <c r="W11" s="4">
         <v>3865.98</v>
       </c>
-      <c r="V11" s="5">
+      <c r="X11" s="4">
         <v>3994.5</v>
       </c>
+      <c r="Y11" s="10">
+        <f t="shared" si="2"/>
+        <v>3828.1</v>
+      </c>
     </row>
-    <row r="12" ht="15.75" spans="3:22">
+    <row r="12" ht="15.75" spans="3:25">
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" s="3">
         <v>37</v>
@@ -1669,49 +1799,61 @@
       <c r="G12" s="4">
         <v>1336.6</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>1337.23</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="6">
+      <c r="I12" s="10">
+        <f t="shared" si="0"/>
+        <v>1297.97</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="11">
         <v>75</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
         <v>2874.61</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="4">
         <v>2898.38</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>2803.38</v>
       </c>
-      <c r="O12" s="5">
+      <c r="P12" s="4">
         <v>2894.91</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R12" s="6">
+      <c r="Q12" s="10">
+        <f t="shared" si="1"/>
+        <v>2803.38</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T12" s="11">
         <v>112</v>
       </c>
-      <c r="S12" s="4">
+      <c r="U12" s="4">
         <v>4484.25</v>
       </c>
-      <c r="T12" s="4">
+      <c r="V12" s="4">
         <v>4524.88</v>
       </c>
-      <c r="U12" s="4">
+      <c r="W12" s="4">
         <v>4503.43</v>
       </c>
-      <c r="V12" s="5">
+      <c r="X12" s="4">
         <v>4547.13</v>
       </c>
+      <c r="Y12" s="10">
+        <f t="shared" si="2"/>
+        <v>4484.25</v>
+      </c>
     </row>
-    <row r="13" ht="15.75" spans="3:22">
+    <row r="13" ht="15.75" spans="3:25">
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3">
         <v>10</v>
@@ -1725,49 +1867,61 @@
       <c r="G13" s="4">
         <v>99</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>106</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="6">
+      <c r="I13" s="10">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="11">
         <v>21</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>244</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>220</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>221</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="4">
         <v>220</v>
       </c>
-      <c r="Q13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R13" s="6">
+      <c r="Q13" s="10">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" s="11">
         <v>31</v>
       </c>
-      <c r="S13" s="4">
+      <c r="U13" s="4">
         <v>391</v>
       </c>
-      <c r="T13" s="4">
+      <c r="V13" s="4">
         <v>388</v>
       </c>
-      <c r="U13" s="4">
+      <c r="W13" s="4">
         <v>392</v>
       </c>
-      <c r="V13" s="5">
+      <c r="X13" s="4">
         <v>391</v>
       </c>
+      <c r="Y13" s="10">
+        <f t="shared" si="2"/>
+        <v>388</v>
+      </c>
     </row>
-    <row r="14" ht="15.75" spans="3:22">
+    <row r="14" ht="15.75" spans="3:25">
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D14" s="3">
         <v>12</v>
@@ -1781,49 +1935,61 @@
       <c r="G14" s="4">
         <v>71.46</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>72.9</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="6">
+      <c r="I14" s="10">
+        <f t="shared" si="0"/>
+        <v>71.46</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="11">
         <v>25</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>167.76</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>168.63</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>170.35</v>
       </c>
-      <c r="O14" s="5">
+      <c r="P14" s="4">
         <v>172.12</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R14" s="6">
+      <c r="Q14" s="10">
+        <f t="shared" si="1"/>
+        <v>167.76</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T14" s="11">
         <v>38</v>
       </c>
-      <c r="S14" s="4">
+      <c r="U14" s="4">
         <v>282.97</v>
       </c>
-      <c r="T14" s="4">
+      <c r="V14" s="4">
         <v>281.57</v>
       </c>
-      <c r="U14" s="4">
+      <c r="W14" s="4">
         <v>281.59</v>
       </c>
-      <c r="V14" s="5">
+      <c r="X14" s="4">
         <v>285.69</v>
       </c>
+      <c r="Y14" s="10">
+        <f t="shared" si="2"/>
+        <v>281.57</v>
+      </c>
     </row>
-    <row r="15" ht="15.75" spans="3:22">
+    <row r="15" ht="15.75" spans="3:25">
       <c r="C15" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D15" s="3">
         <v>19</v>
@@ -1837,49 +2003,61 @@
       <c r="G15" s="4">
         <v>98.03</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>97.1</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="6">
+      <c r="I15" s="10">
+        <f t="shared" si="0"/>
+        <v>95.9</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="11">
         <v>38</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
         <v>215.67</v>
       </c>
-      <c r="M15" s="4">
+      <c r="N15" s="4">
         <v>215.73</v>
       </c>
-      <c r="N15" s="4">
+      <c r="O15" s="4">
         <v>220.05</v>
       </c>
-      <c r="O15" s="5">
+      <c r="P15" s="4">
         <v>217.06</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R15" s="6">
+      <c r="Q15" s="10">
+        <f t="shared" si="1"/>
+        <v>215.67</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T15" s="11">
         <v>57</v>
       </c>
-      <c r="S15" s="4">
+      <c r="U15" s="4">
         <v>348.45</v>
       </c>
-      <c r="T15" s="4">
+      <c r="V15" s="4">
         <v>340.57</v>
       </c>
-      <c r="U15" s="4">
+      <c r="W15" s="4">
         <v>335.91</v>
       </c>
-      <c r="V15" s="5">
+      <c r="X15" s="4">
         <v>343.77</v>
       </c>
+      <c r="Y15" s="10">
+        <f t="shared" si="2"/>
+        <v>335.91</v>
+      </c>
     </row>
-    <row r="16" ht="15.75" spans="3:22">
+    <row r="16" ht="15.75" spans="3:25">
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3">
         <v>25</v>
@@ -1893,49 +2071,61 @@
       <c r="G16" s="4">
         <v>95.24</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>96.13</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="6">
+      <c r="I16" s="10">
+        <f t="shared" si="0"/>
+        <v>95.24</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="11">
         <v>50</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
         <v>239.81</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N16" s="4">
         <v>232.34</v>
       </c>
-      <c r="N16" s="4">
+      <c r="O16" s="4">
         <v>234.03</v>
       </c>
-      <c r="O16" s="5">
+      <c r="P16" s="4">
         <v>232.13</v>
       </c>
-      <c r="Q16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R16" s="6">
+      <c r="Q16" s="10">
+        <f t="shared" si="1"/>
+        <v>232.13</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T16" s="11">
         <v>75</v>
       </c>
-      <c r="S16" s="4">
+      <c r="U16" s="4">
         <v>402.32</v>
       </c>
-      <c r="T16" s="4">
+      <c r="V16" s="4">
         <v>403.57</v>
       </c>
-      <c r="U16" s="4">
+      <c r="W16" s="4">
         <v>398.4</v>
       </c>
-      <c r="V16" s="5">
+      <c r="X16" s="4">
         <v>395.33</v>
       </c>
+      <c r="Y16" s="10">
+        <f t="shared" si="2"/>
+        <v>395.33</v>
+      </c>
     </row>
-    <row r="17" ht="15.75" spans="3:22">
+    <row r="17" ht="15.75" spans="3:25">
       <c r="C17" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
@@ -1949,49 +2139,61 @@
       <c r="G17" s="4">
         <v>145</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>145</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="I17" s="10">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="11">
+        <v>13</v>
+      </c>
+      <c r="M17" s="4">
+        <v>343</v>
+      </c>
+      <c r="N17" s="4">
+        <v>317</v>
+      </c>
+      <c r="O17" s="4">
+        <v>308</v>
+      </c>
+      <c r="P17" s="4">
+        <v>308</v>
+      </c>
+      <c r="Q17" s="10">
+        <f t="shared" si="1"/>
+        <v>308</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T17" s="11">
         <v>19</v>
       </c>
-      <c r="K17" s="6">
-        <v>13</v>
-      </c>
-      <c r="L17" s="4">
-        <v>343</v>
-      </c>
-      <c r="M17" s="4">
-        <v>317</v>
-      </c>
-      <c r="N17" s="4">
-        <v>308</v>
-      </c>
-      <c r="O17" s="5">
-        <v>308</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R17" s="6">
-        <v>19</v>
-      </c>
-      <c r="S17" s="4">
+      <c r="U17" s="4">
         <v>521</v>
       </c>
-      <c r="T17" s="4">
+      <c r="V17" s="4">
         <v>492</v>
       </c>
-      <c r="U17" s="4">
+      <c r="W17" s="4">
         <v>495</v>
       </c>
-      <c r="V17" s="5">
+      <c r="X17" s="4">
         <v>492</v>
       </c>
+      <c r="Y17" s="10">
+        <f t="shared" si="2"/>
+        <v>492</v>
+      </c>
     </row>
-    <row r="18" ht="15.75" spans="3:22">
+    <row r="18" ht="15.75" spans="3:25">
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D18" s="3">
         <v>65</v>
@@ -2005,49 +2207,61 @@
       <c r="G18" s="4">
         <v>540.65</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>552.58</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="6">
+      <c r="I18" s="10">
+        <f t="shared" si="0"/>
+        <v>493.84</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="11">
         <v>131</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>1036.7</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>1027.2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="O18" s="4">
         <v>1057.68</v>
       </c>
-      <c r="O18" s="5">
+      <c r="P18" s="4">
         <v>1080.37</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R18" s="6">
+      <c r="Q18" s="10">
+        <f t="shared" si="1"/>
+        <v>1027.2</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="11">
         <v>196</v>
       </c>
-      <c r="S18" s="4">
+      <c r="U18" s="4">
         <v>1672.3</v>
       </c>
-      <c r="T18" s="4">
+      <c r="V18" s="4">
         <v>1632.51</v>
       </c>
-      <c r="U18" s="4">
+      <c r="W18" s="4">
         <v>1671.71</v>
       </c>
-      <c r="V18" s="5">
+      <c r="X18" s="4">
         <v>1655.46</v>
       </c>
+      <c r="Y18" s="10">
+        <f t="shared" si="2"/>
+        <v>1632.51</v>
+      </c>
     </row>
-    <row r="19" ht="15.75" spans="3:22">
+    <row r="19" ht="15.75" spans="3:25">
       <c r="C19" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D19" s="3">
         <v>4</v>
@@ -2061,17 +2275,18 @@
       <c r="G19" s="4">
         <v>143</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>143</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="6">
+      <c r="I19" s="10">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="11">
         <v>8</v>
-      </c>
-      <c r="L19" s="4">
-        <v>359</v>
       </c>
       <c r="M19" s="4">
         <v>359</v>
@@ -2079,31 +2294,42 @@
       <c r="N19" s="4">
         <v>359</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="4">
         <v>359</v>
       </c>
-      <c r="Q19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R19" s="6">
+      <c r="P19" s="4">
+        <v>359</v>
+      </c>
+      <c r="Q19" s="10">
+        <f t="shared" si="1"/>
+        <v>359</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T19" s="11">
         <v>12</v>
-      </c>
-      <c r="S19" s="4">
-        <v>640</v>
-      </c>
-      <c r="T19" s="4">
-        <v>640</v>
       </c>
       <c r="U19" s="4">
         <v>640</v>
       </c>
-      <c r="V19" s="5">
+      <c r="V19" s="4">
         <v>640</v>
       </c>
+      <c r="W19" s="4">
+        <v>640</v>
+      </c>
+      <c r="X19" s="4">
+        <v>640</v>
+      </c>
+      <c r="Y19" s="10">
+        <f t="shared" si="2"/>
+        <v>640</v>
+      </c>
     </row>
-    <row r="20" ht="15.75" spans="3:22">
+    <row r="20" ht="15.75" spans="3:25">
       <c r="C20" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20" s="3">
         <v>5</v>
@@ -2117,49 +2343,61 @@
       <c r="G20" s="4">
         <v>181</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>181</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="6">
+      <c r="I20" s="10">
+        <f t="shared" si="0"/>
+        <v>181</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="11">
         <v>10</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
         <v>836</v>
       </c>
-      <c r="M20" s="4">
+      <c r="N20" s="4">
         <v>727</v>
       </c>
-      <c r="N20" s="4">
+      <c r="O20" s="4">
         <v>683</v>
       </c>
-      <c r="O20" s="5">
+      <c r="P20" s="4">
         <v>683</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R20" s="6">
+      <c r="Q20" s="10">
+        <f t="shared" si="1"/>
+        <v>683</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T20" s="11">
         <v>15</v>
-      </c>
-      <c r="S20" s="4">
-        <v>1276</v>
-      </c>
-      <c r="T20" s="4">
-        <v>1276</v>
       </c>
       <c r="U20" s="4">
         <v>1276</v>
       </c>
-      <c r="V20" s="5">
+      <c r="V20" s="4">
         <v>1276</v>
       </c>
+      <c r="W20" s="4">
+        <v>1276</v>
+      </c>
+      <c r="X20" s="4">
+        <v>1276</v>
+      </c>
+      <c r="Y20" s="10">
+        <f t="shared" si="2"/>
+        <v>1276</v>
+      </c>
     </row>
-    <row r="21" ht="15.75" spans="3:22">
+    <row r="21" ht="15.75" spans="3:25">
       <c r="C21" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D21" s="3">
         <v>6</v>
@@ -2173,49 +2411,61 @@
       <c r="G21" s="4">
         <v>162</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>162</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="6">
+      <c r="I21" s="10">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="11">
         <v>12</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
         <v>413</v>
-      </c>
-      <c r="M21" s="4">
-        <v>396</v>
       </c>
       <c r="N21" s="4">
         <v>396</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="4">
         <v>396</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" s="6">
+      <c r="P21" s="4">
+        <v>396</v>
+      </c>
+      <c r="Q21" s="10">
+        <f t="shared" si="1"/>
+        <v>396</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T21" s="11">
         <v>18</v>
       </c>
-      <c r="S21" s="4">
+      <c r="U21" s="4">
         <v>794</v>
       </c>
-      <c r="T21" s="4">
+      <c r="V21" s="4">
         <v>748</v>
       </c>
-      <c r="U21" s="4">
+      <c r="W21" s="4">
         <v>748</v>
       </c>
-      <c r="V21" s="5">
+      <c r="X21" s="4">
         <v>749</v>
       </c>
+      <c r="Y21" s="10">
+        <f t="shared" si="2"/>
+        <v>748</v>
+      </c>
     </row>
-    <row r="22" ht="15.75" spans="3:22">
+    <row r="22" ht="15.75" spans="3:25">
       <c r="C22" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D22" s="3">
         <v>12</v>
@@ -2229,49 +2479,61 @@
       <c r="G22" s="4">
         <v>558</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>558</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="I22" s="10">
+        <f t="shared" si="0"/>
+        <v>558</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="11">
         <v>24</v>
-      </c>
-      <c r="K22" s="6">
-        <v>24</v>
-      </c>
-      <c r="L22" s="4">
-        <v>1666</v>
       </c>
       <c r="M22" s="4">
         <v>1666</v>
       </c>
       <c r="N22" s="4">
+        <v>1666</v>
+      </c>
+      <c r="O22" s="4">
         <v>1671</v>
       </c>
-      <c r="O22" s="5">
+      <c r="P22" s="4">
         <v>1666</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R22" s="6">
+      <c r="Q22" s="10">
+        <f t="shared" si="1"/>
+        <v>1666</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T22" s="11">
         <v>36</v>
       </c>
-      <c r="S22" s="4">
+      <c r="U22" s="4">
         <v>3059</v>
       </c>
-      <c r="T22" s="4">
+      <c r="V22" s="4">
         <v>2992</v>
       </c>
-      <c r="U22" s="4">
+      <c r="W22" s="4">
         <v>2990</v>
       </c>
-      <c r="V22" s="5">
+      <c r="X22" s="4">
         <v>2926</v>
       </c>
+      <c r="Y22" s="10">
+        <f t="shared" si="2"/>
+        <v>2926</v>
+      </c>
     </row>
-    <row r="23" ht="15.75" spans="3:22">
+    <row r="23" ht="15.75" spans="3:25">
       <c r="C23" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" s="3">
         <v>24</v>
@@ -2285,49 +2547,61 @@
       <c r="G23" s="4">
         <v>9604.79</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>9855.29</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="6">
+      <c r="I23" s="10">
+        <f t="shared" si="0"/>
+        <v>9270.86</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="11">
         <v>48</v>
       </c>
-      <c r="L23" s="4">
+      <c r="M23" s="4">
         <v>21333.83</v>
       </c>
-      <c r="M23" s="4">
+      <c r="N23" s="4">
         <v>21588.21</v>
       </c>
-      <c r="N23" s="4">
+      <c r="O23" s="4">
         <v>22297.67</v>
       </c>
-      <c r="O23" s="5">
+      <c r="P23" s="4">
         <v>21724.12</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R23" s="6">
+      <c r="Q23" s="10">
+        <f t="shared" si="1"/>
+        <v>21333.83</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T23" s="11">
         <v>72</v>
       </c>
-      <c r="S23" s="4">
+      <c r="U23" s="4">
         <v>32463.17</v>
       </c>
-      <c r="T23" s="4">
+      <c r="V23" s="4">
         <v>33412.45</v>
       </c>
-      <c r="U23" s="4">
+      <c r="W23" s="4">
         <v>33217.19</v>
       </c>
-      <c r="V23" s="5">
+      <c r="X23" s="4">
         <v>32878.88</v>
       </c>
+      <c r="Y23" s="10">
+        <f t="shared" si="2"/>
+        <v>32463.17</v>
+      </c>
     </row>
-    <row r="24" ht="15.75" spans="3:22">
+    <row r="24" ht="15.75" spans="3:25">
       <c r="C24" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D24" s="3">
         <v>12</v>
@@ -2341,49 +2615,61 @@
       <c r="G24" s="4">
         <v>1985</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>2122</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="6">
+      <c r="I24" s="10">
+        <f t="shared" si="0"/>
+        <v>1954</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="11">
         <v>24</v>
       </c>
-      <c r="L24" s="4">
+      <c r="M24" s="4">
         <v>4013</v>
       </c>
-      <c r="M24" s="4">
+      <c r="N24" s="4">
         <v>4043</v>
       </c>
-      <c r="N24" s="4">
+      <c r="O24" s="4">
         <v>4024</v>
       </c>
-      <c r="O24" s="5">
+      <c r="P24" s="4">
         <v>3990</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R24" s="6">
+      <c r="Q24" s="10">
+        <f t="shared" si="1"/>
+        <v>3990</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T24" s="11">
         <v>36</v>
       </c>
-      <c r="S24" s="4">
+      <c r="U24" s="4">
         <v>6973</v>
       </c>
-      <c r="T24" s="4">
+      <c r="V24" s="4">
         <v>6814</v>
       </c>
-      <c r="U24" s="4">
+      <c r="W24" s="4">
         <v>6970</v>
       </c>
-      <c r="V24" s="5">
+      <c r="X24" s="4">
         <v>6854</v>
       </c>
+      <c r="Y24" s="10">
+        <f t="shared" si="2"/>
+        <v>6814</v>
+      </c>
     </row>
-    <row r="25" ht="15.75" spans="3:22">
+    <row r="25" ht="15.75" spans="3:25">
       <c r="C25" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D25" s="3">
         <v>25</v>
@@ -2397,49 +2683,61 @@
       <c r="G25" s="4">
         <v>4605.12</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="4">
         <v>4073.53</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" s="6">
+      <c r="I25" s="10">
+        <f t="shared" si="0"/>
+        <v>4073.53</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="11">
         <v>50</v>
       </c>
-      <c r="L25" s="4">
+      <c r="M25" s="4">
         <v>8984.35</v>
       </c>
-      <c r="M25" s="4">
+      <c r="N25" s="4">
         <v>8678.09</v>
       </c>
-      <c r="N25" s="4">
+      <c r="O25" s="4">
         <v>9290.78</v>
       </c>
-      <c r="O25" s="5">
+      <c r="P25" s="4">
         <v>8837.67</v>
       </c>
-      <c r="Q25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R25" s="6">
+      <c r="Q25" s="10">
+        <f t="shared" si="1"/>
+        <v>8678.09</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T25" s="11">
         <v>75</v>
       </c>
-      <c r="S25" s="4">
+      <c r="U25" s="4">
         <v>14043.38</v>
       </c>
-      <c r="T25" s="4">
+      <c r="V25" s="4">
         <v>14184.41</v>
       </c>
-      <c r="U25" s="4">
+      <c r="W25" s="4">
         <v>14123.96</v>
       </c>
-      <c r="V25" s="5">
+      <c r="X25" s="4">
         <v>14480.5</v>
       </c>
+      <c r="Y25" s="10">
+        <f t="shared" si="2"/>
+        <v>14043.38</v>
+      </c>
     </row>
-    <row r="26" ht="15.75" spans="3:22">
+    <row r="26" ht="15.75" spans="3:25">
       <c r="C26" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D26" s="3">
         <v>37</v>
@@ -2453,49 +2751,61 @@
       <c r="G26" s="4">
         <v>5943.72</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <v>5840.12</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="6">
+      <c r="I26" s="10">
+        <f t="shared" si="0"/>
+        <v>5270.34</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="11">
         <v>75</v>
       </c>
-      <c r="L26" s="4">
+      <c r="M26" s="4">
         <v>11744.78</v>
       </c>
-      <c r="M26" s="4">
+      <c r="N26" s="4">
         <v>11179.17</v>
       </c>
-      <c r="N26" s="4">
+      <c r="O26" s="4">
         <v>11820.61</v>
       </c>
-      <c r="O26" s="5">
+      <c r="P26" s="4">
         <v>11718.16</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R26" s="6">
+      <c r="Q26" s="10">
+        <f t="shared" si="1"/>
+        <v>11179.17</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T26" s="11">
         <v>112</v>
       </c>
-      <c r="S26" s="4">
+      <c r="U26" s="4">
         <v>17822.55</v>
       </c>
-      <c r="T26" s="4">
+      <c r="V26" s="4">
         <v>18029.35</v>
       </c>
-      <c r="U26" s="4">
+      <c r="W26" s="4">
         <v>17898.34</v>
       </c>
-      <c r="V26" s="5">
+      <c r="X26" s="4">
         <v>17757.85</v>
       </c>
+      <c r="Y26" s="10">
+        <f t="shared" si="2"/>
+        <v>17757.85</v>
+      </c>
     </row>
-    <row r="27" ht="15.75" spans="3:22">
+    <row r="27" ht="15.75" spans="3:25">
       <c r="C27" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D27" s="3">
         <v>50</v>
@@ -2509,49 +2819,61 @@
       <c r="G27" s="4">
         <v>6723.24</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <v>6530.38</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" s="6">
+      <c r="I27" s="10">
+        <f t="shared" si="0"/>
+        <v>6065.16</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="11">
         <v>100</v>
       </c>
-      <c r="L27" s="4">
+      <c r="M27" s="4">
         <v>13002.62</v>
       </c>
-      <c r="M27" s="4">
+      <c r="N27" s="4">
         <v>13070.25</v>
       </c>
-      <c r="N27" s="4">
+      <c r="O27" s="4">
         <v>13145.12</v>
       </c>
-      <c r="O27" s="5">
+      <c r="P27" s="4">
         <v>12737.68</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R27" s="6">
+      <c r="Q27" s="10">
+        <f t="shared" si="1"/>
+        <v>12737.68</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T27" s="11">
         <v>150</v>
       </c>
-      <c r="S27" s="4">
+      <c r="U27" s="4">
         <v>19869.87</v>
       </c>
-      <c r="T27" s="4">
+      <c r="V27" s="4">
         <v>19996.33</v>
       </c>
-      <c r="U27" s="4">
+      <c r="W27" s="4">
         <v>20344.45</v>
       </c>
-      <c r="V27" s="5">
+      <c r="X27" s="4">
         <v>20392.1</v>
       </c>
+      <c r="Y27" s="10">
+        <f t="shared" si="2"/>
+        <v>19869.87</v>
+      </c>
     </row>
-    <row r="28" ht="15.75" spans="3:22">
+    <row r="28" ht="15.75" spans="3:25">
       <c r="C28" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D28" s="3">
         <v>25</v>
@@ -2565,49 +2887,61 @@
       <c r="G28" s="4">
         <v>4120.85</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="4">
         <v>4429.96</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K28" s="6">
+      <c r="I28" s="10">
+        <f t="shared" si="0"/>
+        <v>3939.58</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="11">
         <v>50</v>
       </c>
-      <c r="L28" s="4">
+      <c r="M28" s="4">
         <v>8992.25</v>
       </c>
-      <c r="M28" s="4">
+      <c r="N28" s="4">
         <v>9227.11</v>
       </c>
-      <c r="N28" s="4">
+      <c r="O28" s="4">
         <v>9892.11</v>
       </c>
-      <c r="O28" s="5">
+      <c r="P28" s="4">
         <v>9471.1</v>
       </c>
-      <c r="Q28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R28" s="6">
+      <c r="Q28" s="10">
+        <f t="shared" si="1"/>
+        <v>8992.25</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T28" s="11">
         <v>75</v>
       </c>
-      <c r="S28" s="4">
+      <c r="U28" s="4">
         <v>14492.68</v>
       </c>
-      <c r="T28" s="4">
+      <c r="V28" s="4">
         <v>14337.91</v>
       </c>
-      <c r="U28" s="4">
+      <c r="W28" s="4">
         <v>14973.82</v>
       </c>
-      <c r="V28" s="5">
+      <c r="X28" s="4">
         <v>14758.15</v>
       </c>
+      <c r="Y28" s="10">
+        <f t="shared" si="2"/>
+        <v>14337.91</v>
+      </c>
     </row>
-    <row r="29" ht="15.75" spans="3:22">
+    <row r="29" ht="15.75" spans="3:25">
       <c r="C29" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D29" s="3">
         <v>37</v>
@@ -2621,49 +2955,61 @@
       <c r="G29" s="4">
         <v>5128.61</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <v>5102.42</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K29" s="6">
+      <c r="I29" s="10">
+        <f t="shared" si="0"/>
+        <v>5003.1</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="11">
         <v>75</v>
       </c>
-      <c r="L29" s="4">
+      <c r="M29" s="4">
         <v>11343.59</v>
       </c>
-      <c r="M29" s="4">
+      <c r="N29" s="4">
         <v>11065.09</v>
       </c>
-      <c r="N29" s="4">
+      <c r="O29" s="4">
         <v>11261.65</v>
       </c>
-      <c r="O29" s="5">
+      <c r="P29" s="4">
         <v>11675.09</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R29" s="6">
+      <c r="Q29" s="10">
+        <f t="shared" si="1"/>
+        <v>11065.09</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T29" s="11">
         <v>112</v>
       </c>
-      <c r="S29" s="4">
+      <c r="U29" s="4">
         <v>16864.39</v>
       </c>
-      <c r="T29" s="4">
+      <c r="V29" s="4">
         <v>16754.93</v>
       </c>
-      <c r="U29" s="4">
+      <c r="W29" s="4">
         <v>16935.49</v>
       </c>
-      <c r="V29" s="5">
+      <c r="X29" s="4">
         <v>17202.36</v>
       </c>
+      <c r="Y29" s="10">
+        <f t="shared" si="2"/>
+        <v>16754.93</v>
+      </c>
     </row>
-    <row r="30" ht="15.75" spans="3:22">
+    <row r="30" ht="15.75" spans="3:25">
       <c r="C30" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D30" s="3">
         <v>50</v>
@@ -2677,49 +3023,61 @@
       <c r="G30" s="4">
         <v>5997.25</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="4">
         <v>6621.84</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="6">
+      <c r="I30" s="10">
+        <f t="shared" si="0"/>
+        <v>5997.25</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" s="11">
         <v>100</v>
       </c>
-      <c r="L30" s="4">
+      <c r="M30" s="4">
         <v>12744.81</v>
       </c>
-      <c r="M30" s="4">
+      <c r="N30" s="4">
         <v>12653.32</v>
       </c>
-      <c r="N30" s="4">
+      <c r="O30" s="4">
         <v>12752.49</v>
       </c>
-      <c r="O30" s="5">
+      <c r="P30" s="4">
         <v>13420.52</v>
       </c>
-      <c r="Q30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R30" s="6">
+      <c r="Q30" s="10">
+        <f t="shared" si="1"/>
+        <v>12653.32</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T30" s="11">
         <v>150</v>
       </c>
-      <c r="S30" s="4">
+      <c r="U30" s="4">
         <v>20054.07</v>
       </c>
-      <c r="T30" s="4">
+      <c r="V30" s="4">
         <v>19843.62</v>
       </c>
-      <c r="U30" s="4">
+      <c r="W30" s="4">
         <v>19571.08</v>
       </c>
-      <c r="V30" s="5">
+      <c r="X30" s="4">
         <v>19690.56</v>
       </c>
+      <c r="Y30" s="10">
+        <f t="shared" si="2"/>
+        <v>19571.08</v>
+      </c>
     </row>
-    <row r="31" ht="15.75" spans="3:22">
+    <row r="31" ht="15.75" spans="3:25">
       <c r="C31" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D31" s="3">
         <v>25</v>
@@ -2733,49 +3091,61 @@
       <c r="G31" s="4">
         <v>4180.94</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="4">
         <v>4043.65</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K31" s="6">
+      <c r="I31" s="10">
+        <f t="shared" si="0"/>
+        <v>4021.19</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="11">
         <v>50</v>
       </c>
-      <c r="L31" s="4">
+      <c r="M31" s="4">
         <v>9016.33</v>
       </c>
-      <c r="M31" s="4">
+      <c r="N31" s="4">
         <v>8954.15</v>
       </c>
-      <c r="N31" s="4">
+      <c r="O31" s="4">
         <v>8698.27</v>
       </c>
-      <c r="O31" s="5">
+      <c r="P31" s="4">
         <v>9343.98</v>
       </c>
-      <c r="Q31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R31" s="6">
+      <c r="Q31" s="10">
+        <f t="shared" si="1"/>
+        <v>8698.27</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T31" s="11">
         <v>75</v>
       </c>
-      <c r="S31" s="4">
+      <c r="U31" s="4">
         <v>13692.78</v>
       </c>
-      <c r="T31" s="4">
+      <c r="V31" s="4">
         <v>13353.45</v>
       </c>
-      <c r="U31" s="4">
+      <c r="W31" s="4">
         <v>14148.87</v>
       </c>
-      <c r="V31" s="5">
+      <c r="X31" s="4">
         <v>13636.48</v>
       </c>
+      <c r="Y31" s="10">
+        <f t="shared" si="2"/>
+        <v>13353.45</v>
+      </c>
     </row>
-    <row r="32" ht="15.75" spans="3:22">
+    <row r="32" ht="15.75" spans="3:25">
       <c r="C32" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D32" s="3">
         <v>25</v>
@@ -2789,49 +3159,61 @@
       <c r="G32" s="4">
         <v>4289.94</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <v>4416.78</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K32" s="6">
+      <c r="I32" s="10">
+        <f t="shared" si="0"/>
+        <v>3905.21</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="11">
         <v>50</v>
       </c>
-      <c r="L32" s="4">
+      <c r="M32" s="4">
         <v>8439.6</v>
       </c>
-      <c r="M32" s="4">
+      <c r="N32" s="4">
         <v>8735.5</v>
       </c>
-      <c r="N32" s="4">
+      <c r="O32" s="4">
         <v>8919.11</v>
       </c>
-      <c r="O32" s="5">
+      <c r="P32" s="4">
         <v>9147.88</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R32" s="6">
+      <c r="Q32" s="10">
+        <f t="shared" si="1"/>
+        <v>8439.6</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T32" s="11">
         <v>75</v>
       </c>
-      <c r="S32" s="4">
+      <c r="U32" s="4">
         <v>14289.5</v>
       </c>
-      <c r="T32" s="4">
+      <c r="V32" s="4">
         <v>13854.01</v>
       </c>
-      <c r="U32" s="4">
+      <c r="W32" s="4">
         <v>14809.93</v>
       </c>
-      <c r="V32" s="5">
+      <c r="X32" s="4">
         <v>14206.08</v>
       </c>
+      <c r="Y32" s="10">
+        <f t="shared" si="2"/>
+        <v>13854.01</v>
+      </c>
     </row>
-    <row r="33" ht="15.75" spans="3:22">
+    <row r="33" ht="15.75" spans="3:25">
       <c r="C33" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D33" s="3">
         <v>25</v>
@@ -2845,49 +3227,61 @@
       <c r="G33" s="4">
         <v>3336.02</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <v>3336.02</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K33" s="6">
+      <c r="I33" s="10">
+        <f t="shared" si="0"/>
+        <v>3336.02</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L33" s="11">
         <v>50</v>
       </c>
-      <c r="L33" s="4">
+      <c r="M33" s="4">
         <v>8757.35</v>
       </c>
-      <c r="M33" s="4">
+      <c r="N33" s="4">
         <v>9306.33</v>
       </c>
-      <c r="N33" s="4">
+      <c r="O33" s="4">
         <v>9059.77</v>
       </c>
-      <c r="O33" s="5">
+      <c r="P33" s="4">
         <v>9298.52</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R33" s="6">
+      <c r="Q33" s="10">
+        <f t="shared" si="1"/>
+        <v>8757.35</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T33" s="11">
         <v>75</v>
       </c>
-      <c r="S33" s="4">
+      <c r="U33" s="4">
         <v>14587.97</v>
       </c>
-      <c r="T33" s="4">
+      <c r="V33" s="4">
         <v>14477.59</v>
       </c>
-      <c r="U33" s="4">
+      <c r="W33" s="4">
         <v>14569.5</v>
       </c>
-      <c r="V33" s="5">
+      <c r="X33" s="4">
         <v>14361.97</v>
       </c>
+      <c r="Y33" s="10">
+        <f t="shared" si="2"/>
+        <v>14361.97</v>
+      </c>
     </row>
-    <row r="34" ht="15.75" spans="3:22">
+    <row r="34" ht="15.75" spans="3:25">
       <c r="C34" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D34" s="3">
         <v>26</v>
@@ -2901,49 +3295,61 @@
       <c r="G34" s="4">
         <v>2208.78</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="4">
         <v>2381.41</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K34" s="6">
+      <c r="I34" s="10">
+        <f t="shared" si="0"/>
+        <v>2002.98</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" s="11">
         <v>52</v>
       </c>
-      <c r="L34" s="4">
+      <c r="M34" s="4">
         <v>4605.86</v>
       </c>
-      <c r="M34" s="4">
+      <c r="N34" s="4">
         <v>4648.13</v>
       </c>
-      <c r="N34" s="4">
+      <c r="O34" s="4">
         <v>4685.06</v>
       </c>
-      <c r="O34" s="5">
+      <c r="P34" s="4">
         <v>4658.88</v>
       </c>
-      <c r="Q34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R34" s="6">
+      <c r="Q34" s="10">
+        <f t="shared" si="1"/>
+        <v>4605.86</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T34" s="11">
         <v>78</v>
       </c>
-      <c r="S34" s="4">
+      <c r="U34" s="4">
         <v>8456.82</v>
       </c>
-      <c r="T34" s="4">
+      <c r="V34" s="4">
         <v>8572.94</v>
       </c>
-      <c r="U34" s="4">
+      <c r="W34" s="4">
         <v>8396.26</v>
       </c>
-      <c r="V34" s="5">
+      <c r="X34" s="4">
         <v>8045.35</v>
       </c>
+      <c r="Y34" s="10">
+        <f t="shared" si="2"/>
+        <v>8045.35</v>
+      </c>
     </row>
-    <row r="35" ht="15.75" spans="3:22">
+    <row r="35" ht="15.75" spans="3:25">
       <c r="C35" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D35" s="3">
         <v>79</v>
@@ -2957,49 +3363,61 @@
       <c r="G35" s="4">
         <v>8939.88</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="4">
         <v>9154.38</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K35" s="6">
+      <c r="I35" s="10">
+        <f t="shared" si="0"/>
+        <v>7492.55</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" s="11">
         <v>159</v>
       </c>
-      <c r="L35" s="4">
+      <c r="M35" s="4">
         <v>16861.76</v>
       </c>
-      <c r="M35" s="4">
+      <c r="N35" s="4">
         <v>17803.59</v>
       </c>
-      <c r="N35" s="4">
+      <c r="O35" s="4">
         <v>16594.58</v>
       </c>
-      <c r="O35" s="5">
+      <c r="P35" s="4">
         <v>16532.67</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R35" s="6">
+      <c r="Q35" s="10">
+        <f t="shared" si="1"/>
+        <v>16532.67</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T35" s="11">
         <v>238</v>
       </c>
-      <c r="S35" s="4">
+      <c r="U35" s="4">
         <v>27341.07</v>
       </c>
-      <c r="T35" s="4">
+      <c r="V35" s="4">
         <v>27099.87</v>
       </c>
-      <c r="U35" s="4">
+      <c r="W35" s="4">
         <v>27788.54</v>
       </c>
-      <c r="V35" s="5">
+      <c r="X35" s="4">
         <v>28495.83</v>
       </c>
+      <c r="Y35" s="10">
+        <f t="shared" si="2"/>
+        <v>27099.87</v>
+      </c>
     </row>
-    <row r="36" ht="15.75" spans="3:22">
+    <row r="36" ht="15.75" spans="3:25">
       <c r="C36" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D36" s="3">
         <v>19</v>
@@ -3013,49 +3431,61 @@
       <c r="G36" s="4">
         <v>18270.88</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="4">
         <v>19041.59</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="I36" s="10">
+        <f t="shared" si="0"/>
+        <v>18270.88</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L36" s="11">
         <v>38</v>
       </c>
-      <c r="K36" s="6">
-        <v>38</v>
-      </c>
-      <c r="L36" s="4">
+      <c r="M36" s="4">
         <v>37105.79</v>
       </c>
-      <c r="M36" s="4">
+      <c r="N36" s="4">
         <v>36936.72</v>
       </c>
-      <c r="N36" s="4">
+      <c r="O36" s="4">
         <v>36658.25</v>
       </c>
-      <c r="O36" s="5">
+      <c r="P36" s="4">
         <v>37235.52</v>
       </c>
-      <c r="Q36" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R36" s="6">
+      <c r="Q36" s="10">
+        <f t="shared" si="1"/>
+        <v>36658.25</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T36" s="11">
         <v>57</v>
       </c>
-      <c r="S36" s="4">
+      <c r="U36" s="4">
         <v>59838.85</v>
       </c>
-      <c r="T36" s="4">
+      <c r="V36" s="4">
         <v>61124.68</v>
       </c>
-      <c r="U36" s="4">
+      <c r="W36" s="4">
         <v>63664.83</v>
       </c>
-      <c r="V36" s="5">
+      <c r="X36" s="4">
         <v>62157.06</v>
       </c>
+      <c r="Y36" s="10">
+        <f t="shared" si="2"/>
+        <v>59838.85</v>
+      </c>
     </row>
-    <row r="37" ht="15.75" spans="3:22">
+    <row r="37" ht="15.75" spans="3:25">
       <c r="C37" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D37" s="3">
         <v>26</v>
@@ -3069,49 +3499,61 @@
       <c r="G37" s="4">
         <v>6988.61</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="4">
         <v>6988.61</v>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K37" s="6">
+      <c r="I37" s="10">
+        <f t="shared" si="0"/>
+        <v>6733.38</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L37" s="11">
         <v>52</v>
       </c>
-      <c r="L37" s="4">
+      <c r="M37" s="4">
         <v>14703.61</v>
       </c>
-      <c r="M37" s="4">
+      <c r="N37" s="4">
         <v>14704.12</v>
       </c>
-      <c r="N37" s="4">
+      <c r="O37" s="4">
         <v>14769.35</v>
       </c>
-      <c r="O37" s="5">
+      <c r="P37" s="4">
         <v>14473.74</v>
       </c>
-      <c r="Q37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R37" s="6">
+      <c r="Q37" s="10">
+        <f t="shared" si="1"/>
+        <v>14473.74</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T37" s="11">
         <v>80</v>
       </c>
-      <c r="S37" s="4">
+      <c r="U37" s="4">
         <v>30488.7</v>
       </c>
-      <c r="T37" s="4">
+      <c r="V37" s="4">
         <v>29587.28</v>
       </c>
-      <c r="U37" s="4">
+      <c r="W37" s="4">
         <v>29524.41</v>
       </c>
-      <c r="V37" s="5">
+      <c r="X37" s="4">
         <v>30116.09</v>
       </c>
+      <c r="Y37" s="10">
+        <f t="shared" si="2"/>
+        <v>29524.41</v>
+      </c>
     </row>
-    <row r="38" ht="15.75" spans="3:22">
+    <row r="38" ht="15.75" spans="3:25">
       <c r="C38" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D38" s="3">
         <v>31</v>
@@ -3125,49 +3567,61 @@
       <c r="G38" s="4">
         <v>9284.41</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="4">
         <v>9378.8</v>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K38" s="6">
+      <c r="I38" s="10">
+        <f t="shared" si="0"/>
+        <v>9284.41</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L38" s="11">
         <v>62</v>
       </c>
-      <c r="L38" s="4">
+      <c r="M38" s="4">
         <v>21566.03</v>
       </c>
-      <c r="M38" s="4">
+      <c r="N38" s="4">
         <v>20818.9</v>
       </c>
-      <c r="N38" s="4">
+      <c r="O38" s="4">
         <v>20911.81</v>
       </c>
-      <c r="O38" s="5">
+      <c r="P38" s="4">
         <v>22712.56</v>
       </c>
-      <c r="Q38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R38" s="6">
+      <c r="Q38" s="10">
+        <f t="shared" si="1"/>
+        <v>20818.9</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T38" s="11">
         <v>93</v>
       </c>
-      <c r="S38" s="4">
+      <c r="U38" s="4">
         <v>35368.11</v>
       </c>
-      <c r="T38" s="4">
+      <c r="V38" s="4">
         <v>36398.06</v>
       </c>
-      <c r="U38" s="4">
+      <c r="W38" s="4">
         <v>36785.95</v>
       </c>
-      <c r="V38" s="5">
+      <c r="X38" s="4">
         <v>38249.99</v>
       </c>
+      <c r="Y38" s="10">
+        <f t="shared" si="2"/>
+        <v>35368.11</v>
+      </c>
     </row>
-    <row r="39" ht="15.75" spans="3:22">
+    <row r="39" ht="15.75" spans="3:25">
       <c r="C39" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D39" s="3">
         <v>34</v>
@@ -3181,49 +3635,61 @@
       <c r="G39" s="4">
         <v>19894.6</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="4">
         <v>20389</v>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K39" s="6">
+      <c r="I39" s="10">
+        <f t="shared" si="0"/>
+        <v>19894.6</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L39" s="11">
         <v>68</v>
       </c>
-      <c r="L39" s="4">
+      <c r="M39" s="4">
         <v>44637.83</v>
       </c>
-      <c r="M39" s="4">
+      <c r="N39" s="4">
         <v>44433.41</v>
       </c>
-      <c r="N39" s="4">
+      <c r="O39" s="4">
         <v>44284.83</v>
       </c>
-      <c r="O39" s="5">
+      <c r="P39" s="4">
         <v>44915.13</v>
       </c>
-      <c r="Q39" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R39" s="6">
+      <c r="Q39" s="10">
+        <f t="shared" si="1"/>
+        <v>44284.83</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T39" s="11">
         <v>102</v>
       </c>
-      <c r="S39" s="4">
+      <c r="U39" s="4">
         <v>67005.71</v>
       </c>
-      <c r="T39" s="4">
+      <c r="V39" s="4">
         <v>66781.21</v>
       </c>
-      <c r="U39" s="4">
+      <c r="W39" s="4">
         <v>66750.16</v>
       </c>
-      <c r="V39" s="5">
+      <c r="X39" s="4">
         <v>67000.81</v>
       </c>
+      <c r="Y39" s="10">
+        <f t="shared" si="2"/>
+        <v>66750.16</v>
+      </c>
     </row>
-    <row r="40" ht="15.75" spans="3:22">
+    <row r="40" ht="15.75" spans="3:25">
       <c r="C40" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D40" s="3">
         <v>36</v>
@@ -3237,49 +3703,61 @@
       <c r="G40" s="4">
         <v>14069.99</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="4">
         <v>14816.48</v>
       </c>
-      <c r="J40" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K40" s="6">
+      <c r="I40" s="10">
+        <f t="shared" si="0"/>
+        <v>10742.86</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L40" s="11">
         <v>72</v>
       </c>
-      <c r="L40" s="4">
+      <c r="M40" s="4">
         <v>26293.47</v>
       </c>
-      <c r="M40" s="4">
+      <c r="N40" s="4">
         <v>27812.24</v>
       </c>
-      <c r="N40" s="4">
+      <c r="O40" s="4">
         <v>27196.57</v>
       </c>
-      <c r="O40" s="5">
+      <c r="P40" s="4">
         <v>27374.48</v>
       </c>
-      <c r="Q40" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R40" s="6">
+      <c r="Q40" s="10">
+        <f t="shared" si="1"/>
+        <v>26293.47</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T40" s="11">
         <v>108</v>
       </c>
-      <c r="S40" s="4">
+      <c r="U40" s="4">
         <v>38203.84</v>
       </c>
-      <c r="T40" s="4">
+      <c r="V40" s="4">
         <v>38889.47</v>
       </c>
-      <c r="U40" s="4">
+      <c r="W40" s="4">
         <v>42179.7</v>
       </c>
-      <c r="V40" s="5">
+      <c r="X40" s="4">
         <v>43050.36</v>
       </c>
+      <c r="Y40" s="10">
+        <f t="shared" si="2"/>
+        <v>38203.84</v>
+      </c>
     </row>
-    <row r="41" ht="15.75" spans="3:22">
+    <row r="41" ht="15.75" spans="3:25">
       <c r="C41" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D41" s="3">
         <v>38</v>
@@ -3293,49 +3771,61 @@
       <c r="G41" s="4">
         <v>17871.28</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="4">
         <v>17619.52</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K41" s="6">
+      <c r="I41" s="10">
+        <f t="shared" si="0"/>
+        <v>14780.62</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L41" s="11">
         <v>76</v>
       </c>
-      <c r="L41" s="4">
+      <c r="M41" s="4">
         <v>31161.21</v>
       </c>
-      <c r="M41" s="4">
+      <c r="N41" s="4">
         <v>30492.64</v>
       </c>
-      <c r="N41" s="4">
+      <c r="O41" s="4">
         <v>30506.9</v>
       </c>
-      <c r="O41" s="5">
+      <c r="P41" s="4">
         <v>31209.32</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R41" s="6">
+      <c r="Q41" s="10">
+        <f t="shared" si="1"/>
+        <v>30492.64</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T41" s="11">
         <v>114</v>
       </c>
-      <c r="S41" s="4">
+      <c r="U41" s="4">
         <v>47013.52</v>
       </c>
-      <c r="T41" s="4">
+      <c r="V41" s="4">
         <v>48319.08</v>
       </c>
-      <c r="U41" s="4">
+      <c r="W41" s="4">
         <v>48489.8</v>
       </c>
-      <c r="V41" s="5">
+      <c r="X41" s="4">
         <v>48364.89</v>
       </c>
+      <c r="Y41" s="10">
+        <f t="shared" si="2"/>
+        <v>47013.52</v>
+      </c>
     </row>
-    <row r="42" ht="15.75" spans="3:22">
+    <row r="42" ht="15.75" spans="3:25">
       <c r="C42" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D42" s="3">
         <v>56</v>
@@ -3349,49 +3839,61 @@
       <c r="G42" s="4">
         <v>16664.97</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="4">
         <v>16546.63</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K42" s="6">
+      <c r="I42" s="10">
+        <f t="shared" si="0"/>
+        <v>15824.06</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L42" s="11">
         <v>113</v>
       </c>
-      <c r="L42" s="4">
+      <c r="M42" s="4">
         <v>26272.2</v>
       </c>
-      <c r="M42" s="4">
+      <c r="N42" s="4">
         <v>34520.56</v>
       </c>
-      <c r="N42" s="4">
+      <c r="O42" s="4">
         <v>31010.75</v>
       </c>
-      <c r="O42" s="5">
+      <c r="P42" s="4">
         <v>30576.73</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R42" s="6">
+      <c r="Q42" s="10">
+        <f t="shared" si="1"/>
+        <v>26272.2</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T42" s="11">
         <v>169</v>
       </c>
-      <c r="S42" s="4">
+      <c r="U42" s="4">
         <v>46490.92</v>
       </c>
-      <c r="T42" s="4">
+      <c r="V42" s="4">
         <v>43792.8</v>
       </c>
-      <c r="U42" s="4">
+      <c r="W42" s="4">
         <v>45695.74</v>
       </c>
-      <c r="V42" s="5">
+      <c r="X42" s="4">
         <v>45481.42</v>
       </c>
+      <c r="Y42" s="10">
+        <f t="shared" si="2"/>
+        <v>43792.8</v>
+      </c>
     </row>
-    <row r="43" ht="15.75" spans="3:22">
+    <row r="43" ht="15.75" spans="3:25">
       <c r="C43" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D43" s="3">
         <v>24</v>
@@ -3405,49 +3907,61 @@
       <c r="G43" s="4">
         <v>248.66</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="4">
         <v>257.43</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K43" s="6">
+      <c r="I43" s="10">
+        <f t="shared" si="0"/>
+        <v>246.96</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L43" s="11">
         <v>49</v>
       </c>
-      <c r="L43" s="4">
+      <c r="M43" s="4">
         <v>549.76</v>
       </c>
-      <c r="M43" s="4">
+      <c r="N43" s="4">
         <v>548.02</v>
       </c>
-      <c r="N43" s="4">
+      <c r="O43" s="4">
         <v>535.33</v>
       </c>
-      <c r="O43" s="5">
+      <c r="P43" s="4">
         <v>557.54</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R43" s="6">
+      <c r="Q43" s="10">
+        <f t="shared" si="1"/>
+        <v>535.33</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T43" s="11">
         <v>74</v>
       </c>
-      <c r="S43" s="4">
+      <c r="U43" s="4">
         <v>857.1</v>
       </c>
-      <c r="T43" s="4">
+      <c r="V43" s="4">
         <v>862.66</v>
       </c>
-      <c r="U43" s="4">
+      <c r="W43" s="4">
         <v>857.92</v>
       </c>
-      <c r="V43" s="5">
+      <c r="X43" s="4">
         <v>872.04</v>
       </c>
+      <c r="Y43" s="10">
+        <f t="shared" si="2"/>
+        <v>857.1</v>
+      </c>
     </row>
-    <row r="44" ht="15.75" spans="3:22">
+    <row r="44" ht="15.75" spans="3:25">
       <c r="C44" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D44" s="3">
         <v>48</v>
@@ -3461,49 +3975,61 @@
       <c r="G44" s="4">
         <v>541.57</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="4">
         <v>550.99</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K44" s="6">
+      <c r="I44" s="10">
+        <f t="shared" si="0"/>
+        <v>541.57</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L44" s="11">
         <v>97</v>
       </c>
-      <c r="L44" s="4">
+      <c r="M44" s="4">
         <v>1154.18</v>
       </c>
-      <c r="M44" s="4">
+      <c r="N44" s="4">
         <v>1165.33</v>
       </c>
-      <c r="N44" s="4">
+      <c r="O44" s="4">
         <v>1140.86</v>
       </c>
-      <c r="O44" s="5">
+      <c r="P44" s="4">
         <v>1158.27</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R44" s="6">
+      <c r="Q44" s="10">
+        <f t="shared" si="1"/>
+        <v>1140.86</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T44" s="11">
         <v>146</v>
       </c>
-      <c r="S44" s="4">
+      <c r="U44" s="4">
         <v>1725.15</v>
       </c>
-      <c r="T44" s="4">
+      <c r="V44" s="4">
         <v>1733.09</v>
       </c>
-      <c r="U44" s="4">
+      <c r="W44" s="4">
         <v>1730.19</v>
       </c>
-      <c r="V44" s="5">
+      <c r="X44" s="4">
         <v>1746.95</v>
       </c>
+      <c r="Y44" s="10">
+        <f t="shared" si="2"/>
+        <v>1725.15</v>
+      </c>
     </row>
-    <row r="45" ht="15.75" spans="3:22">
+    <row r="45" ht="15.75" spans="3:25">
       <c r="C45" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D45" s="3">
         <v>17</v>
@@ -3517,49 +4043,61 @@
       <c r="G45" s="4">
         <v>108.3</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="4">
         <v>111.43</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K45" s="6">
+      <c r="I45" s="10">
+        <f t="shared" si="0"/>
+        <v>108.3</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L45" s="11">
         <v>35</v>
       </c>
-      <c r="L45" s="4">
+      <c r="M45" s="4">
         <v>269.28</v>
       </c>
-      <c r="M45" s="4">
+      <c r="N45" s="4">
         <v>253.82</v>
       </c>
-      <c r="N45" s="4">
+      <c r="O45" s="4">
         <v>265.09</v>
       </c>
-      <c r="O45" s="5">
+      <c r="P45" s="4">
         <v>254.17</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R45" s="6">
+      <c r="Q45" s="10">
+        <f t="shared" si="1"/>
+        <v>253.82</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T45" s="11">
         <v>52</v>
       </c>
-      <c r="S45" s="4">
+      <c r="U45" s="4">
         <v>422.36</v>
       </c>
-      <c r="T45" s="4">
+      <c r="V45" s="4">
         <v>435.08</v>
       </c>
-      <c r="U45" s="4">
+      <c r="W45" s="4">
         <v>429</v>
       </c>
-      <c r="V45" s="5">
+      <c r="X45" s="4">
         <v>432.9</v>
       </c>
+      <c r="Y45" s="10">
+        <f t="shared" si="2"/>
+        <v>422.36</v>
+      </c>
     </row>
-    <row r="46" ht="15.75" spans="3:22">
+    <row r="46" ht="15.75" spans="3:25">
       <c r="C46" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D46" s="3">
         <v>10</v>
@@ -3573,49 +4111,61 @@
       <c r="G46" s="4">
         <v>146</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="4">
         <v>150</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K46" s="6">
+      <c r="I46" s="10">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L46" s="11">
         <v>21</v>
       </c>
-      <c r="L46" s="4">
+      <c r="M46" s="4">
         <v>476</v>
       </c>
-      <c r="M46" s="4">
+      <c r="N46" s="4">
         <v>430</v>
       </c>
-      <c r="N46" s="4">
+      <c r="O46" s="4">
         <v>418</v>
       </c>
-      <c r="O46" s="5">
+      <c r="P46" s="4">
         <v>410</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R46" s="6">
+      <c r="Q46" s="10">
+        <f t="shared" si="1"/>
+        <v>410</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T46" s="11">
         <v>31</v>
       </c>
-      <c r="S46" s="4">
+      <c r="U46" s="4">
         <v>721</v>
       </c>
-      <c r="T46" s="4">
+      <c r="V46" s="4">
         <v>721</v>
       </c>
-      <c r="U46" s="4">
+      <c r="W46" s="4">
         <v>698</v>
       </c>
-      <c r="V46" s="5">
+      <c r="X46" s="4">
         <v>698</v>
       </c>
+      <c r="Y46" s="10">
+        <f t="shared" si="2"/>
+        <v>698</v>
+      </c>
     </row>
-    <row r="47" ht="15.75" spans="3:22">
+    <row r="47" ht="15.75" spans="3:25">
       <c r="C47" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D47" s="3">
         <v>4</v>
@@ -3629,49 +4179,61 @@
       <c r="G47" s="4">
         <v>638.03</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="4">
         <v>638.03</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K47" s="6">
+      <c r="I47" s="10">
+        <f t="shared" si="0"/>
+        <v>638.03</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L47" s="11">
         <v>8</v>
-      </c>
-      <c r="L47" s="4">
-        <v>1981.71</v>
       </c>
       <c r="M47" s="4">
         <v>1981.71</v>
       </c>
       <c r="N47" s="4">
+        <v>1981.71</v>
+      </c>
+      <c r="O47" s="4">
         <v>1397.42</v>
       </c>
-      <c r="O47" s="5">
+      <c r="P47" s="4">
         <v>1397.42</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R47" s="6">
+      <c r="Q47" s="10">
+        <f t="shared" si="1"/>
+        <v>1397.42</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T47" s="11">
         <v>12</v>
       </c>
-      <c r="S47" s="4">
+      <c r="U47" s="4">
         <v>2741.1</v>
       </c>
-      <c r="T47" s="4">
+      <c r="V47" s="4">
         <v>2741.1</v>
       </c>
-      <c r="U47" s="4">
+      <c r="W47" s="4">
         <v>2731</v>
       </c>
-      <c r="V47" s="5">
+      <c r="X47" s="4">
         <v>2731</v>
       </c>
+      <c r="Y47" s="10">
+        <f t="shared" si="2"/>
+        <v>2731</v>
+      </c>
     </row>
-    <row r="48" ht="15.75" spans="3:22">
+    <row r="48" ht="15.75" spans="3:25">
       <c r="C48" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D48" s="3">
         <v>5</v>
@@ -3685,52 +4247,855 @@
       <c r="G48" s="4">
         <v>456.58</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="4">
         <v>456.58</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K48" s="6">
+      <c r="I48" s="10">
+        <f t="shared" si="0"/>
+        <v>456.58</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L48" s="11">
         <v>11</v>
       </c>
-      <c r="L48" s="4">
+      <c r="M48" s="4">
         <v>2062.92</v>
       </c>
-      <c r="M48" s="4">
+      <c r="N48" s="4">
         <v>1684.93</v>
       </c>
-      <c r="N48" s="4">
+      <c r="O48" s="4">
         <v>1591.34</v>
       </c>
-      <c r="O48" s="5">
+      <c r="P48" s="4">
         <v>1647.33</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R48" s="6">
+      <c r="Q48" s="10">
+        <f t="shared" si="1"/>
+        <v>1591.34</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T48" s="11">
         <v>16</v>
-      </c>
-      <c r="S48" s="4">
-        <v>2540.07</v>
-      </c>
-      <c r="T48" s="4">
-        <v>2540.07</v>
       </c>
       <c r="U48" s="4">
         <v>2540.07</v>
       </c>
-      <c r="V48" s="5">
+      <c r="V48" s="4">
         <v>2540.07</v>
+      </c>
+      <c r="W48" s="4">
+        <v>2540.07</v>
+      </c>
+      <c r="X48" s="4">
+        <v>2540.07</v>
+      </c>
+      <c r="Y48" s="10">
+        <f t="shared" si="2"/>
+        <v>2540.07</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24">
+      <c r="C49" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="6">
+        <v>23</v>
+      </c>
+      <c r="F49" s="6">
+        <v>21</v>
+      </c>
+      <c r="G49" s="6">
+        <v>21</v>
+      </c>
+      <c r="H49" s="6">
+        <v>11</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L49" s="5"/>
+      <c r="M49" s="6">
+        <v>13</v>
+      </c>
+      <c r="N49" s="6">
+        <v>13</v>
+      </c>
+      <c r="O49" s="6">
+        <v>15</v>
+      </c>
+      <c r="P49" s="6">
+        <v>16</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T49" s="5"/>
+      <c r="U49" s="6">
+        <v>15</v>
+      </c>
+      <c r="V49" s="6">
+        <v>17</v>
+      </c>
+      <c r="W49" s="6">
+        <v>13</v>
+      </c>
+      <c r="X49" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24">
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+    </row>
+    <row r="53" spans="3:8">
+      <c r="C53" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="3:6">
+      <c r="C54" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6">
+      <c r="C55" s="6">
+        <f>SUM(E49,M49,U49)</f>
+        <v>51</v>
+      </c>
+      <c r="D55" s="6">
+        <f>SUM(F49,N49,V49)</f>
+        <v>51</v>
+      </c>
+      <c r="E55" s="6">
+        <f>SUM(G49,O49,W49)</f>
+        <v>49</v>
+      </c>
+      <c r="F55" s="6">
+        <f>SUM(H49,P49,X49)</f>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="22">
     <mergeCell ref="E3:H3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="V49:V50"/>
+    <mergeCell ref="W49:W50"/>
+    <mergeCell ref="X49:X50"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="K49:L50"/>
+    <mergeCell ref="S49:T50"/>
   </mergeCells>
+  <conditionalFormatting sqref="E5:H5">
+    <cfRule type="cellIs" dxfId="0" priority="132" operator="equal">
+      <formula>$I$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:P5">
+    <cfRule type="cellIs" dxfId="0" priority="88" operator="equal">
+      <formula>$Q$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5:X5">
+    <cfRule type="cellIs" dxfId="0" priority="44" operator="equal">
+      <formula>$Y$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:H6">
+    <cfRule type="cellIs" dxfId="0" priority="131" operator="equal">
+      <formula>$I$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:P6">
+    <cfRule type="cellIs" dxfId="0" priority="87" operator="equal">
+      <formula>$Q$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U6:X6">
+    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
+      <formula>$Y$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:H7">
+    <cfRule type="cellIs" dxfId="0" priority="130" operator="equal">
+      <formula>$I$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7:P7">
+    <cfRule type="cellIs" dxfId="0" priority="86" operator="equal">
+      <formula>$Q$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U7:X7">
+    <cfRule type="cellIs" dxfId="0" priority="42" operator="equal">
+      <formula>$Y$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:H8">
+    <cfRule type="cellIs" dxfId="0" priority="129" operator="equal">
+      <formula>$I$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8:P8">
+    <cfRule type="cellIs" dxfId="0" priority="85" operator="equal">
+      <formula>$Q$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U8:X8">
+    <cfRule type="cellIs" dxfId="0" priority="41" operator="equal">
+      <formula>$Y$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:H9">
+    <cfRule type="cellIs" dxfId="0" priority="128" operator="equal">
+      <formula>$I$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9:P9">
+    <cfRule type="cellIs" dxfId="0" priority="84" operator="equal">
+      <formula>$Q$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9:X9">
+    <cfRule type="cellIs" dxfId="0" priority="40" operator="equal">
+      <formula>$Y$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:H10">
+    <cfRule type="cellIs" dxfId="0" priority="127" operator="equal">
+      <formula>$I$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10:P10">
+    <cfRule type="cellIs" dxfId="0" priority="83" operator="equal">
+      <formula>$Q$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U10:X10">
+    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
+      <formula>$Y$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:H11">
+    <cfRule type="cellIs" dxfId="0" priority="126" operator="equal">
+      <formula>$I$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11:P11">
+    <cfRule type="cellIs" dxfId="0" priority="82" operator="equal">
+      <formula>$Q$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U11:X11">
+    <cfRule type="cellIs" dxfId="0" priority="38" operator="equal">
+      <formula>$Y$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:H12">
+    <cfRule type="cellIs" dxfId="0" priority="125" operator="equal">
+      <formula>$I$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12:P12">
+    <cfRule type="cellIs" dxfId="0" priority="81" operator="equal">
+      <formula>$Q$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U12:X12">
+    <cfRule type="cellIs" dxfId="0" priority="37" operator="equal">
+      <formula>$Y$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:H13">
+    <cfRule type="cellIs" dxfId="0" priority="124" operator="equal">
+      <formula>$I$13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13:P13">
+    <cfRule type="cellIs" dxfId="0" priority="80" operator="equal">
+      <formula>$Q$13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U13:X13">
+    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
+      <formula>$Y$13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:H14">
+    <cfRule type="cellIs" dxfId="0" priority="123" operator="equal">
+      <formula>$I$14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:P14">
+    <cfRule type="cellIs" dxfId="0" priority="79" operator="equal">
+      <formula>$Q$14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U14:X14">
+    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
+      <formula>$Y$14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:H15">
+    <cfRule type="cellIs" dxfId="0" priority="122" operator="equal">
+      <formula>$I$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15:P15">
+    <cfRule type="cellIs" dxfId="0" priority="78" operator="equal">
+      <formula>$Q$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U15:X15">
+    <cfRule type="cellIs" dxfId="0" priority="34" operator="equal">
+      <formula>$Y$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:H16">
+    <cfRule type="cellIs" dxfId="0" priority="121" operator="equal">
+      <formula>$I$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16:P16">
+    <cfRule type="cellIs" dxfId="0" priority="77" operator="equal">
+      <formula>$Q$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U16:X16">
+    <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
+      <formula>$Y$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:H17">
+    <cfRule type="cellIs" dxfId="0" priority="120" operator="equal">
+      <formula>$I$17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17:P17">
+    <cfRule type="cellIs" dxfId="0" priority="76" operator="equal">
+      <formula>$Q$17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U17:X17">
+    <cfRule type="cellIs" dxfId="0" priority="32" operator="equal">
+      <formula>$Y$17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:H18">
+    <cfRule type="cellIs" dxfId="0" priority="119" operator="equal">
+      <formula>$I$18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:P18">
+    <cfRule type="cellIs" dxfId="0" priority="75" operator="equal">
+      <formula>$Q$18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U18:X18">
+    <cfRule type="cellIs" dxfId="0" priority="31" operator="equal">
+      <formula>$Y$18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:H19">
+    <cfRule type="cellIs" dxfId="0" priority="118" operator="equal">
+      <formula>$I$19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19:P19">
+    <cfRule type="cellIs" dxfId="0" priority="74" operator="equal">
+      <formula>$Q$19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U19:X19">
+    <cfRule type="cellIs" dxfId="0" priority="30" operator="equal">
+      <formula>$Y$19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:H20">
+    <cfRule type="cellIs" dxfId="0" priority="117" operator="equal">
+      <formula>$I$20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20:P20">
+    <cfRule type="cellIs" dxfId="0" priority="73" operator="equal">
+      <formula>$Q$20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U20:X20">
+    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+      <formula>$Y$20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:H21">
+    <cfRule type="cellIs" dxfId="0" priority="116" operator="equal">
+      <formula>$I$21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21:P21">
+    <cfRule type="cellIs" dxfId="0" priority="72" operator="equal">
+      <formula>$Q$21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U21:X21">
+    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
+      <formula>$Y$21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:H22">
+    <cfRule type="cellIs" dxfId="0" priority="115" operator="equal">
+      <formula>$I$22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M22:P22">
+    <cfRule type="cellIs" dxfId="0" priority="71" operator="equal">
+      <formula>$Q$22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U22:X22">
+    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+      <formula>$Y$22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:H23">
+    <cfRule type="cellIs" dxfId="0" priority="114" operator="equal">
+      <formula>$I$23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M23:P23">
+    <cfRule type="cellIs" dxfId="0" priority="70" operator="equal">
+      <formula>$Q$23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U23:X23">
+    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
+      <formula>$Y$23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:H24">
+    <cfRule type="cellIs" dxfId="0" priority="113" operator="equal">
+      <formula>$I$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:P24">
+    <cfRule type="cellIs" dxfId="0" priority="69" operator="equal">
+      <formula>$Q$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U24:X24">
+    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
+      <formula>$Y$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:H25">
+    <cfRule type="cellIs" dxfId="0" priority="112" operator="equal">
+      <formula>$I$25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M25:P25">
+    <cfRule type="cellIs" dxfId="0" priority="68" operator="equal">
+      <formula>$Q$25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U25:X25">
+    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
+      <formula>$Y$25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:H26">
+    <cfRule type="cellIs" dxfId="0" priority="111" operator="equal">
+      <formula>$I$26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26:P26">
+    <cfRule type="cellIs" dxfId="0" priority="67" operator="equal">
+      <formula>$Q$26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U26:X26">
+    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
+      <formula>$Y$26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:H27">
+    <cfRule type="cellIs" dxfId="0" priority="110" operator="equal">
+      <formula>$I$27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27:P27">
+    <cfRule type="cellIs" dxfId="0" priority="66" operator="equal">
+      <formula>$Q$27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U27:X27">
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
+      <formula>$Y$27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:H28">
+    <cfRule type="cellIs" dxfId="0" priority="109" operator="equal">
+      <formula>$I$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M28:P28">
+    <cfRule type="cellIs" dxfId="0" priority="65" operator="equal">
+      <formula>$Q$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U28:X28">
+    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
+      <formula>$Y$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:H29">
+    <cfRule type="cellIs" dxfId="0" priority="108" operator="equal">
+      <formula>$I$29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29:P29">
+    <cfRule type="cellIs" dxfId="0" priority="64" operator="equal">
+      <formula>$Q$29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U29:X29">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
+      <formula>$Y$29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:H30">
+    <cfRule type="cellIs" dxfId="0" priority="107" operator="equal">
+      <formula>$I$30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:P30">
+    <cfRule type="cellIs" dxfId="0" priority="63" operator="equal">
+      <formula>$Q$30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U30:X30">
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
+      <formula>$Y$30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:H31">
+    <cfRule type="cellIs" dxfId="0" priority="106" operator="equal">
+      <formula>$I$31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M31:P31">
+    <cfRule type="cellIs" dxfId="0" priority="62" operator="equal">
+      <formula>$Q$31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U31:X31">
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
+      <formula>$Y$31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:H32">
+    <cfRule type="cellIs" dxfId="0" priority="105" operator="equal">
+      <formula>$I$32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M32:P32">
+    <cfRule type="cellIs" dxfId="0" priority="61" operator="equal">
+      <formula>$Q$32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U32:X32">
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
+      <formula>$Y$32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:H33">
+    <cfRule type="cellIs" dxfId="0" priority="104" operator="equal">
+      <formula>$I$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33:P33">
+    <cfRule type="cellIs" dxfId="0" priority="60" operator="equal">
+      <formula>$Q$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U33:X33">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+      <formula>$Y$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:H34">
+    <cfRule type="cellIs" dxfId="0" priority="103" operator="equal">
+      <formula>$I$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34:P34">
+    <cfRule type="cellIs" dxfId="0" priority="59" operator="equal">
+      <formula>$Q$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U34:X34">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+      <formula>$Y$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:H35">
+    <cfRule type="cellIs" dxfId="0" priority="102" operator="equal">
+      <formula>$I$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35:P35">
+    <cfRule type="cellIs" dxfId="0" priority="58" operator="equal">
+      <formula>$Q$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U35:X35">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+      <formula>$Y$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:H36">
+    <cfRule type="cellIs" dxfId="0" priority="101" operator="equal">
+      <formula>$I$36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M36:P36">
+    <cfRule type="cellIs" dxfId="0" priority="57" operator="equal">
+      <formula>$Q$36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U36:X36">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+      <formula>$Y$36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37:H37">
+    <cfRule type="cellIs" dxfId="0" priority="100" operator="equal">
+      <formula>$I$37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M37:P37">
+    <cfRule type="cellIs" dxfId="0" priority="56" operator="equal">
+      <formula>$Q$37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U37:X37">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+      <formula>$Y$37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:H38">
+    <cfRule type="cellIs" dxfId="0" priority="99" operator="equal">
+      <formula>$I$38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M38:P38">
+    <cfRule type="cellIs" dxfId="0" priority="55" operator="equal">
+      <formula>$Q$38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U38:X38">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+      <formula>$Y$38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:H39">
+    <cfRule type="cellIs" dxfId="0" priority="98" operator="equal">
+      <formula>$I$39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M39:P39">
+    <cfRule type="cellIs" dxfId="0" priority="54" operator="equal">
+      <formula>$Q$39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U39:X39">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+      <formula>$Y$39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40:H40">
+    <cfRule type="cellIs" dxfId="0" priority="97" operator="equal">
+      <formula>$I$40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M40:P40">
+    <cfRule type="cellIs" dxfId="0" priority="53" operator="equal">
+      <formula>$Q$40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U40:X40">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+      <formula>$Y$40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41:H41">
+    <cfRule type="cellIs" dxfId="0" priority="96" operator="equal">
+      <formula>$I$41</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M41:P41">
+    <cfRule type="cellIs" dxfId="0" priority="52" operator="equal">
+      <formula>$Q$41</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U41:X41">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+      <formula>$Y$41</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:H42">
+    <cfRule type="cellIs" dxfId="0" priority="95" operator="equal">
+      <formula>$I$42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M42:P42">
+    <cfRule type="cellIs" dxfId="0" priority="51" operator="equal">
+      <formula>$Q$42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U42:X42">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>$Y$42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:H43">
+    <cfRule type="cellIs" dxfId="0" priority="94" operator="equal">
+      <formula>$I$43</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M43:P43">
+    <cfRule type="cellIs" dxfId="0" priority="50" operator="equal">
+      <formula>$Q$43</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U43:X43">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>$Y$43</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44:H44">
+    <cfRule type="cellIs" dxfId="0" priority="93" operator="equal">
+      <formula>$I$44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M44:P44">
+    <cfRule type="cellIs" dxfId="0" priority="49" operator="equal">
+      <formula>$Q$44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U44:X44">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>$Y$44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:H45">
+    <cfRule type="cellIs" dxfId="0" priority="92" operator="equal">
+      <formula>$I$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M45:P45">
+    <cfRule type="cellIs" dxfId="0" priority="48" operator="equal">
+      <formula>$Q$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U45:X45">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>$Y$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:H46">
+    <cfRule type="cellIs" dxfId="0" priority="91" operator="equal">
+      <formula>$I$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M46:P46">
+    <cfRule type="cellIs" dxfId="0" priority="47" operator="equal">
+      <formula>$Q$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U46:X46">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>$Y$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47:H47">
+    <cfRule type="cellIs" dxfId="0" priority="90" operator="equal">
+      <formula>$I$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M47:P47">
+    <cfRule type="cellIs" dxfId="0" priority="46" operator="equal">
+      <formula>$Q$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U47:X47">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>$Y$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48:H48">
+    <cfRule type="cellIs" dxfId="0" priority="89" operator="equal">
+      <formula>"456.58"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M48:P48">
+    <cfRule type="cellIs" dxfId="0" priority="45" operator="equal">
+      <formula>$Q$48</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U48:X48">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$Y$48</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Arquivos/Comparações/Comparações dos valores de alfa para o graspRVND.xlsx
+++ b/Arquivos/Comparações/Comparações dos valores de alfa para o graspRVND.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28110" windowHeight="13035"/>
+    <workbookView windowWidth="13725" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -186,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
@@ -208,68 +208,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,6 +224,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -292,15 +276,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,16 +314,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,6 +336,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -361,7 +361,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,43 +415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,13 +439,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,97 +541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,8 +573,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,20 +596,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,16 +634,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,17 +657,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,152 +672,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -841,9 +841,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1187,8 +1184,8 @@
   <sheetPr/>
   <dimension ref="C3:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="Q20" workbookViewId="0">
+      <selection activeCell="Y40" sqref="Y40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1267,7 +1264,7 @@
       <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="8"/>
       <c r="K4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1286,7 +1283,7 @@
       <c r="P4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="9"/>
+      <c r="Q4" s="8"/>
       <c r="S4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1305,7 +1302,7 @@
       <c r="X4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Y4" s="9"/>
+      <c r="Y4" s="8"/>
     </row>
     <row r="5" ht="15.75" spans="3:25">
       <c r="C5" s="3" t="s">
@@ -1326,14 +1323,14 @@
       <c r="H5" s="4">
         <v>734.28</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <f>SMALL(E5:H5,1)</f>
         <v>649.82</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <v>140</v>
       </c>
       <c r="M5" s="4">
@@ -1348,14 +1345,14 @@
       <c r="P5" s="4">
         <v>1331.65</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="9">
         <f>SMALL(M5:P5,1)</f>
         <v>1289.94</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="10">
         <v>210</v>
       </c>
       <c r="U5" s="4">
@@ -1370,7 +1367,7 @@
       <c r="X5" s="4">
         <v>1916.99</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Y5" s="9">
         <f>SMALL(U5:X5,1)</f>
         <v>1916.99</v>
       </c>
@@ -1394,14 +1391,14 @@
       <c r="H6" s="4">
         <v>268</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <f t="shared" ref="I6:I48" si="0">SMALL(E6:H6,1)</f>
         <v>246</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>14</v>
       </c>
       <c r="M6" s="4">
@@ -1416,14 +1413,14 @@
       <c r="P6" s="4">
         <v>546</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="9">
         <f t="shared" ref="Q6:Q48" si="1">SMALL(M6:P6,1)</f>
         <v>546</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="10">
         <v>21</v>
       </c>
       <c r="U6" s="4">
@@ -1438,7 +1435,7 @@
       <c r="X6" s="4">
         <v>939</v>
       </c>
-      <c r="Y6" s="10">
+      <c r="Y6" s="9">
         <f t="shared" ref="Y6:Y48" si="2">SMALL(U6:X6,1)</f>
         <v>918</v>
       </c>
@@ -1462,14 +1459,14 @@
       <c r="H7" s="4">
         <v>282</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <f t="shared" si="0"/>
         <v>282</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <v>14</v>
       </c>
       <c r="M7" s="4">
@@ -1484,14 +1481,14 @@
       <c r="P7" s="4">
         <v>651</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="9">
         <f t="shared" si="1"/>
         <v>640</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="10">
         <v>21</v>
       </c>
       <c r="U7" s="4">
@@ -1506,7 +1503,7 @@
       <c r="X7" s="4">
         <v>1090</v>
       </c>
-      <c r="Y7" s="10">
+      <c r="Y7" s="9">
         <f t="shared" si="2"/>
         <v>1086</v>
       </c>
@@ -1530,14 +1527,14 @@
       <c r="H8" s="4">
         <v>480.48</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <f t="shared" si="0"/>
         <v>480.48</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <v>26</v>
       </c>
       <c r="M8" s="4">
@@ -1552,14 +1549,14 @@
       <c r="P8" s="4">
         <v>1733.82</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="9">
         <f t="shared" si="1"/>
         <v>1733.82</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="10">
         <v>39</v>
       </c>
       <c r="U8" s="4">
@@ -1574,7 +1571,7 @@
       <c r="X8" s="4">
         <v>3910.64</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="Y8" s="9">
         <f t="shared" si="2"/>
         <v>3859.81</v>
       </c>
@@ -1598,14 +1595,14 @@
       <c r="H9" s="4">
         <v>9776.1</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <f t="shared" si="0"/>
         <v>9682.94</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <v>63</v>
       </c>
       <c r="M9" s="4">
@@ -1620,14 +1617,14 @@
       <c r="P9" s="4">
         <v>26472</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="9">
         <f t="shared" si="1"/>
         <v>25378.24</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="10">
         <v>95</v>
       </c>
       <c r="U9" s="4">
@@ -1642,7 +1639,7 @@
       <c r="X9" s="4">
         <v>50047.08</v>
       </c>
-      <c r="Y9" s="10">
+      <c r="Y9" s="9">
         <f t="shared" si="2"/>
         <v>49999.6</v>
       </c>
@@ -1666,14 +1663,14 @@
       <c r="H10" s="4">
         <v>224.88</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <f t="shared" si="0"/>
         <v>224.88</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="10">
         <v>7</v>
       </c>
       <c r="M10" s="4">
@@ -1688,14 +1685,14 @@
       <c r="P10" s="4">
         <v>966.37</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="9">
         <f t="shared" si="1"/>
         <v>966.37</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="10">
         <v>10</v>
       </c>
       <c r="U10" s="4">
@@ -1710,7 +1707,7 @@
       <c r="X10" s="4">
         <v>1528.5</v>
       </c>
-      <c r="Y10" s="10">
+      <c r="Y10" s="9">
         <f t="shared" si="2"/>
         <v>1528.5</v>
       </c>
@@ -1734,14 +1731,14 @@
       <c r="H11" s="4">
         <v>1038.42</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <f t="shared" si="0"/>
         <v>1029.79</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="10">
         <v>65</v>
       </c>
       <c r="M11" s="4">
@@ -1756,14 +1753,14 @@
       <c r="P11" s="4">
         <v>2505.41</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="9">
         <f t="shared" si="1"/>
         <v>2390.07</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="10">
         <v>97</v>
       </c>
       <c r="U11" s="4">
@@ -1778,7 +1775,7 @@
       <c r="X11" s="4">
         <v>3994.5</v>
       </c>
-      <c r="Y11" s="10">
+      <c r="Y11" s="9">
         <f t="shared" si="2"/>
         <v>3828.1</v>
       </c>
@@ -1802,14 +1799,14 @@
       <c r="H12" s="4">
         <v>1337.23</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <f t="shared" si="0"/>
         <v>1297.97</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <v>75</v>
       </c>
       <c r="M12" s="4">
@@ -1824,14 +1821,14 @@
       <c r="P12" s="4">
         <v>2894.91</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="9">
         <f t="shared" si="1"/>
         <v>2803.38</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="10">
         <v>112</v>
       </c>
       <c r="U12" s="4">
@@ -1846,7 +1843,7 @@
       <c r="X12" s="4">
         <v>4547.13</v>
       </c>
-      <c r="Y12" s="10">
+      <c r="Y12" s="9">
         <f t="shared" si="2"/>
         <v>4484.25</v>
       </c>
@@ -1870,14 +1867,14 @@
       <c r="H13" s="4">
         <v>106</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="10">
         <v>21</v>
       </c>
       <c r="M13" s="4">
@@ -1892,14 +1889,14 @@
       <c r="P13" s="4">
         <v>220</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="Q13" s="9">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="10">
         <v>31</v>
       </c>
       <c r="U13" s="4">
@@ -1914,7 +1911,7 @@
       <c r="X13" s="4">
         <v>391</v>
       </c>
-      <c r="Y13" s="10">
+      <c r="Y13" s="9">
         <f t="shared" si="2"/>
         <v>388</v>
       </c>
@@ -1938,14 +1935,14 @@
       <c r="H14" s="4">
         <v>72.9</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <f t="shared" si="0"/>
         <v>71.46</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="10">
         <v>25</v>
       </c>
       <c r="M14" s="4">
@@ -1960,14 +1957,14 @@
       <c r="P14" s="4">
         <v>172.12</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="9">
         <f t="shared" si="1"/>
         <v>167.76</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="10">
         <v>38</v>
       </c>
       <c r="U14" s="4">
@@ -1982,7 +1979,7 @@
       <c r="X14" s="4">
         <v>285.69</v>
       </c>
-      <c r="Y14" s="10">
+      <c r="Y14" s="9">
         <f t="shared" si="2"/>
         <v>281.57</v>
       </c>
@@ -2006,14 +2003,14 @@
       <c r="H15" s="4">
         <v>97.1</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <f t="shared" si="0"/>
         <v>95.9</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="10">
         <v>38</v>
       </c>
       <c r="M15" s="4">
@@ -2028,14 +2025,14 @@
       <c r="P15" s="4">
         <v>217.06</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="9">
         <f t="shared" si="1"/>
         <v>215.67</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T15" s="10">
         <v>57</v>
       </c>
       <c r="U15" s="4">
@@ -2050,7 +2047,7 @@
       <c r="X15" s="4">
         <v>343.77</v>
       </c>
-      <c r="Y15" s="10">
+      <c r="Y15" s="9">
         <f t="shared" si="2"/>
         <v>335.91</v>
       </c>
@@ -2074,14 +2071,14 @@
       <c r="H16" s="4">
         <v>96.13</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="9">
         <f t="shared" si="0"/>
         <v>95.24</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="10">
         <v>50</v>
       </c>
       <c r="M16" s="4">
@@ -2096,14 +2093,14 @@
       <c r="P16" s="4">
         <v>232.13</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="Q16" s="9">
         <f t="shared" si="1"/>
         <v>232.13</v>
       </c>
       <c r="S16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="10">
         <v>75</v>
       </c>
       <c r="U16" s="4">
@@ -2118,7 +2115,7 @@
       <c r="X16" s="4">
         <v>395.33</v>
       </c>
-      <c r="Y16" s="10">
+      <c r="Y16" s="9">
         <f t="shared" si="2"/>
         <v>395.33</v>
       </c>
@@ -2142,14 +2139,14 @@
       <c r="H17" s="4">
         <v>145</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="9">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="10">
         <v>13</v>
       </c>
       <c r="M17" s="4">
@@ -2164,14 +2161,14 @@
       <c r="P17" s="4">
         <v>308</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="9">
         <f t="shared" si="1"/>
         <v>308</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T17" s="11">
+      <c r="T17" s="10">
         <v>19</v>
       </c>
       <c r="U17" s="4">
@@ -2186,7 +2183,7 @@
       <c r="X17" s="4">
         <v>492</v>
       </c>
-      <c r="Y17" s="10">
+      <c r="Y17" s="9">
         <f t="shared" si="2"/>
         <v>492</v>
       </c>
@@ -2210,14 +2207,14 @@
       <c r="H18" s="4">
         <v>552.58</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="9">
         <f t="shared" si="0"/>
         <v>493.84</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="10">
         <v>131</v>
       </c>
       <c r="M18" s="4">
@@ -2232,14 +2229,14 @@
       <c r="P18" s="4">
         <v>1080.37</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="Q18" s="9">
         <f t="shared" si="1"/>
         <v>1027.2</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="T18" s="11">
+      <c r="T18" s="10">
         <v>196</v>
       </c>
       <c r="U18" s="4">
@@ -2254,7 +2251,7 @@
       <c r="X18" s="4">
         <v>1655.46</v>
       </c>
-      <c r="Y18" s="10">
+      <c r="Y18" s="9">
         <f t="shared" si="2"/>
         <v>1632.51</v>
       </c>
@@ -2278,14 +2275,14 @@
       <c r="H19" s="4">
         <v>143</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <f t="shared" si="0"/>
         <v>143</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="10">
         <v>8</v>
       </c>
       <c r="M19" s="4">
@@ -2300,14 +2297,14 @@
       <c r="P19" s="4">
         <v>359</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="Q19" s="9">
         <f t="shared" si="1"/>
         <v>359</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T19" s="11">
+      <c r="T19" s="10">
         <v>12</v>
       </c>
       <c r="U19" s="4">
@@ -2322,7 +2319,7 @@
       <c r="X19" s="4">
         <v>640</v>
       </c>
-      <c r="Y19" s="10">
+      <c r="Y19" s="9">
         <f t="shared" si="2"/>
         <v>640</v>
       </c>
@@ -2346,14 +2343,14 @@
       <c r="H20" s="4">
         <v>181</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="9">
         <f t="shared" si="0"/>
         <v>181</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="10">
         <v>10</v>
       </c>
       <c r="M20" s="4">
@@ -2368,14 +2365,14 @@
       <c r="P20" s="4">
         <v>683</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="Q20" s="9">
         <f t="shared" si="1"/>
         <v>683</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T20" s="10">
         <v>15</v>
       </c>
       <c r="U20" s="4">
@@ -2390,7 +2387,7 @@
       <c r="X20" s="4">
         <v>1276</v>
       </c>
-      <c r="Y20" s="10">
+      <c r="Y20" s="9">
         <f t="shared" si="2"/>
         <v>1276</v>
       </c>
@@ -2414,14 +2411,14 @@
       <c r="H21" s="4">
         <v>162</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="10">
         <v>12</v>
       </c>
       <c r="M21" s="4">
@@ -2436,14 +2433,14 @@
       <c r="P21" s="4">
         <v>396</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="Q21" s="9">
         <f t="shared" si="1"/>
         <v>396</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T21" s="11">
+      <c r="T21" s="10">
         <v>18</v>
       </c>
       <c r="U21" s="4">
@@ -2458,7 +2455,7 @@
       <c r="X21" s="4">
         <v>749</v>
       </c>
-      <c r="Y21" s="10">
+      <c r="Y21" s="9">
         <f t="shared" si="2"/>
         <v>748</v>
       </c>
@@ -2482,14 +2479,14 @@
       <c r="H22" s="4">
         <v>558</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <f t="shared" si="0"/>
         <v>558</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="10">
         <v>24</v>
       </c>
       <c r="M22" s="4">
@@ -2504,14 +2501,14 @@
       <c r="P22" s="4">
         <v>1666</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="Q22" s="9">
         <f t="shared" si="1"/>
         <v>1666</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T22" s="11">
+      <c r="T22" s="10">
         <v>36</v>
       </c>
       <c r="U22" s="4">
@@ -2526,7 +2523,7 @@
       <c r="X22" s="4">
         <v>2926</v>
       </c>
-      <c r="Y22" s="10">
+      <c r="Y22" s="9">
         <f t="shared" si="2"/>
         <v>2926</v>
       </c>
@@ -2550,14 +2547,14 @@
       <c r="H23" s="4">
         <v>9855.29</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="9">
         <f t="shared" si="0"/>
         <v>9270.86</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="10">
         <v>48</v>
       </c>
       <c r="M23" s="4">
@@ -2572,14 +2569,14 @@
       <c r="P23" s="4">
         <v>21724.12</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="9">
         <f t="shared" si="1"/>
         <v>21333.83</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T23" s="11">
+      <c r="T23" s="10">
         <v>72</v>
       </c>
       <c r="U23" s="4">
@@ -2594,7 +2591,7 @@
       <c r="X23" s="4">
         <v>32878.88</v>
       </c>
-      <c r="Y23" s="10">
+      <c r="Y23" s="9">
         <f t="shared" si="2"/>
         <v>32463.17</v>
       </c>
@@ -2618,14 +2615,14 @@
       <c r="H24" s="4">
         <v>2122</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="9">
         <f t="shared" si="0"/>
         <v>1954</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="10">
         <v>24</v>
       </c>
       <c r="M24" s="4">
@@ -2640,14 +2637,14 @@
       <c r="P24" s="4">
         <v>3990</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="Q24" s="9">
         <f t="shared" si="1"/>
         <v>3990</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T24" s="11">
+      <c r="T24" s="10">
         <v>36</v>
       </c>
       <c r="U24" s="4">
@@ -2662,7 +2659,7 @@
       <c r="X24" s="4">
         <v>6854</v>
       </c>
-      <c r="Y24" s="10">
+      <c r="Y24" s="9">
         <f t="shared" si="2"/>
         <v>6814</v>
       </c>
@@ -2686,14 +2683,14 @@
       <c r="H25" s="4">
         <v>4073.53</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="9">
         <f t="shared" si="0"/>
         <v>4073.53</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="10">
         <v>50</v>
       </c>
       <c r="M25" s="4">
@@ -2708,14 +2705,14 @@
       <c r="P25" s="4">
         <v>8837.67</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q25" s="9">
         <f t="shared" si="1"/>
         <v>8678.09</v>
       </c>
       <c r="S25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="T25" s="11">
+      <c r="T25" s="10">
         <v>75</v>
       </c>
       <c r="U25" s="4">
@@ -2730,7 +2727,7 @@
       <c r="X25" s="4">
         <v>14480.5</v>
       </c>
-      <c r="Y25" s="10">
+      <c r="Y25" s="9">
         <f t="shared" si="2"/>
         <v>14043.38</v>
       </c>
@@ -2754,14 +2751,14 @@
       <c r="H26" s="4">
         <v>5840.12</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <f t="shared" si="0"/>
         <v>5270.34</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="10">
         <v>75</v>
       </c>
       <c r="M26" s="4">
@@ -2776,14 +2773,14 @@
       <c r="P26" s="4">
         <v>11718.16</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="Q26" s="9">
         <f t="shared" si="1"/>
         <v>11179.17</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="T26" s="11">
+      <c r="T26" s="10">
         <v>112</v>
       </c>
       <c r="U26" s="4">
@@ -2798,7 +2795,7 @@
       <c r="X26" s="4">
         <v>17757.85</v>
       </c>
-      <c r="Y26" s="10">
+      <c r="Y26" s="9">
         <f t="shared" si="2"/>
         <v>17757.85</v>
       </c>
@@ -2822,14 +2819,14 @@
       <c r="H27" s="4">
         <v>6530.38</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="9">
         <f t="shared" si="0"/>
         <v>6065.16</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="10">
         <v>100</v>
       </c>
       <c r="M27" s="4">
@@ -2844,14 +2841,14 @@
       <c r="P27" s="4">
         <v>12737.68</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="Q27" s="9">
         <f t="shared" si="1"/>
         <v>12737.68</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T27" s="11">
+      <c r="T27" s="10">
         <v>150</v>
       </c>
       <c r="U27" s="4">
@@ -2866,7 +2863,7 @@
       <c r="X27" s="4">
         <v>20392.1</v>
       </c>
-      <c r="Y27" s="10">
+      <c r="Y27" s="9">
         <f t="shared" si="2"/>
         <v>19869.87</v>
       </c>
@@ -2890,14 +2887,14 @@
       <c r="H28" s="4">
         <v>4429.96</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
         <f t="shared" si="0"/>
         <v>3939.58</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="10">
         <v>50</v>
       </c>
       <c r="M28" s="4">
@@ -2912,14 +2909,14 @@
       <c r="P28" s="4">
         <v>9471.1</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="Q28" s="9">
         <f t="shared" si="1"/>
         <v>8992.25</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T28" s="11">
+      <c r="T28" s="10">
         <v>75</v>
       </c>
       <c r="U28" s="4">
@@ -2934,7 +2931,7 @@
       <c r="X28" s="4">
         <v>14758.15</v>
       </c>
-      <c r="Y28" s="10">
+      <c r="Y28" s="9">
         <f t="shared" si="2"/>
         <v>14337.91</v>
       </c>
@@ -2958,14 +2955,14 @@
       <c r="H29" s="4">
         <v>5102.42</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
         <f t="shared" si="0"/>
         <v>5003.1</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L29" s="10">
         <v>75</v>
       </c>
       <c r="M29" s="4">
@@ -2980,14 +2977,14 @@
       <c r="P29" s="4">
         <v>11675.09</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="Q29" s="9">
         <f t="shared" si="1"/>
         <v>11065.09</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T29" s="11">
+      <c r="T29" s="10">
         <v>112</v>
       </c>
       <c r="U29" s="4">
@@ -3002,7 +2999,7 @@
       <c r="X29" s="4">
         <v>17202.36</v>
       </c>
-      <c r="Y29" s="10">
+      <c r="Y29" s="9">
         <f t="shared" si="2"/>
         <v>16754.93</v>
       </c>
@@ -3026,14 +3023,14 @@
       <c r="H30" s="4">
         <v>6621.84</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
         <f t="shared" si="0"/>
         <v>5997.25</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L30" s="10">
         <v>100</v>
       </c>
       <c r="M30" s="4">
@@ -3048,14 +3045,14 @@
       <c r="P30" s="4">
         <v>13420.52</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q30" s="9">
         <f t="shared" si="1"/>
         <v>12653.32</v>
       </c>
       <c r="S30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T30" s="11">
+      <c r="T30" s="10">
         <v>150</v>
       </c>
       <c r="U30" s="4">
@@ -3070,7 +3067,7 @@
       <c r="X30" s="4">
         <v>19690.56</v>
       </c>
-      <c r="Y30" s="10">
+      <c r="Y30" s="9">
         <f t="shared" si="2"/>
         <v>19571.08</v>
       </c>
@@ -3094,14 +3091,14 @@
       <c r="H31" s="4">
         <v>4043.65</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
         <f t="shared" si="0"/>
         <v>4021.19</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="10">
         <v>50</v>
       </c>
       <c r="M31" s="4">
@@ -3116,14 +3113,14 @@
       <c r="P31" s="4">
         <v>9343.98</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="Q31" s="9">
         <f t="shared" si="1"/>
         <v>8698.27</v>
       </c>
       <c r="S31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T31" s="11">
+      <c r="T31" s="10">
         <v>75</v>
       </c>
       <c r="U31" s="4">
@@ -3138,7 +3135,7 @@
       <c r="X31" s="4">
         <v>13636.48</v>
       </c>
-      <c r="Y31" s="10">
+      <c r="Y31" s="9">
         <f t="shared" si="2"/>
         <v>13353.45</v>
       </c>
@@ -3162,14 +3159,14 @@
       <c r="H32" s="4">
         <v>4416.78</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="9">
         <f t="shared" si="0"/>
         <v>3905.21</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L32" s="10">
         <v>50</v>
       </c>
       <c r="M32" s="4">
@@ -3184,14 +3181,14 @@
       <c r="P32" s="4">
         <v>9147.88</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="Q32" s="9">
         <f t="shared" si="1"/>
         <v>8439.6</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="T32" s="11">
+      <c r="T32" s="10">
         <v>75</v>
       </c>
       <c r="U32" s="4">
@@ -3206,7 +3203,7 @@
       <c r="X32" s="4">
         <v>14206.08</v>
       </c>
-      <c r="Y32" s="10">
+      <c r="Y32" s="9">
         <f t="shared" si="2"/>
         <v>13854.01</v>
       </c>
@@ -3230,14 +3227,14 @@
       <c r="H33" s="4">
         <v>3336.02</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="9">
         <f t="shared" si="0"/>
         <v>3336.02</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L33" s="10">
         <v>50</v>
       </c>
       <c r="M33" s="4">
@@ -3252,14 +3249,14 @@
       <c r="P33" s="4">
         <v>9298.52</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="Q33" s="9">
         <f t="shared" si="1"/>
         <v>8757.35</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T33" s="11">
+      <c r="T33" s="10">
         <v>75</v>
       </c>
       <c r="U33" s="4">
@@ -3274,7 +3271,7 @@
       <c r="X33" s="4">
         <v>14361.97</v>
       </c>
-      <c r="Y33" s="10">
+      <c r="Y33" s="9">
         <f t="shared" si="2"/>
         <v>14361.97</v>
       </c>
@@ -3298,14 +3295,14 @@
       <c r="H34" s="4">
         <v>2381.41</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="9">
         <f t="shared" si="0"/>
         <v>2002.98</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L34" s="10">
         <v>52</v>
       </c>
       <c r="M34" s="4">
@@ -3320,14 +3317,14 @@
       <c r="P34" s="4">
         <v>4658.88</v>
       </c>
-      <c r="Q34" s="10">
+      <c r="Q34" s="9">
         <f t="shared" si="1"/>
         <v>4605.86</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="T34" s="11">
+      <c r="T34" s="10">
         <v>78</v>
       </c>
       <c r="U34" s="4">
@@ -3342,7 +3339,7 @@
       <c r="X34" s="4">
         <v>8045.35</v>
       </c>
-      <c r="Y34" s="10">
+      <c r="Y34" s="9">
         <f t="shared" si="2"/>
         <v>8045.35</v>
       </c>
@@ -3366,14 +3363,14 @@
       <c r="H35" s="4">
         <v>9154.38</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="9">
         <f t="shared" si="0"/>
         <v>7492.55</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L35" s="10">
         <v>159</v>
       </c>
       <c r="M35" s="4">
@@ -3388,14 +3385,14 @@
       <c r="P35" s="4">
         <v>16532.67</v>
       </c>
-      <c r="Q35" s="10">
+      <c r="Q35" s="9">
         <f t="shared" si="1"/>
         <v>16532.67</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T35" s="11">
+      <c r="T35" s="10">
         <v>238</v>
       </c>
       <c r="U35" s="4">
@@ -3410,7 +3407,7 @@
       <c r="X35" s="4">
         <v>28495.83</v>
       </c>
-      <c r="Y35" s="10">
+      <c r="Y35" s="9">
         <f t="shared" si="2"/>
         <v>27099.87</v>
       </c>
@@ -3434,14 +3431,14 @@
       <c r="H36" s="4">
         <v>19041.59</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="9">
         <f t="shared" si="0"/>
         <v>18270.88</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L36" s="10">
         <v>38</v>
       </c>
       <c r="M36" s="4">
@@ -3456,14 +3453,14 @@
       <c r="P36" s="4">
         <v>37235.52</v>
       </c>
-      <c r="Q36" s="10">
+      <c r="Q36" s="9">
         <f t="shared" si="1"/>
         <v>36658.25</v>
       </c>
       <c r="S36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="T36" s="11">
+      <c r="T36" s="10">
         <v>57</v>
       </c>
       <c r="U36" s="4">
@@ -3478,7 +3475,7 @@
       <c r="X36" s="4">
         <v>62157.06</v>
       </c>
-      <c r="Y36" s="10">
+      <c r="Y36" s="9">
         <f t="shared" si="2"/>
         <v>59838.85</v>
       </c>
@@ -3502,14 +3499,14 @@
       <c r="H37" s="4">
         <v>6988.61</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="9">
         <f t="shared" si="0"/>
         <v>6733.38</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L37" s="10">
         <v>52</v>
       </c>
       <c r="M37" s="4">
@@ -3524,14 +3521,14 @@
       <c r="P37" s="4">
         <v>14473.74</v>
       </c>
-      <c r="Q37" s="10">
+      <c r="Q37" s="9">
         <f t="shared" si="1"/>
         <v>14473.74</v>
       </c>
       <c r="S37" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="T37" s="11">
+      <c r="T37" s="10">
         <v>80</v>
       </c>
       <c r="U37" s="4">
@@ -3546,7 +3543,7 @@
       <c r="X37" s="4">
         <v>30116.09</v>
       </c>
-      <c r="Y37" s="10">
+      <c r="Y37" s="9">
         <f t="shared" si="2"/>
         <v>29524.41</v>
       </c>
@@ -3570,14 +3567,14 @@
       <c r="H38" s="4">
         <v>9378.8</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="9">
         <f t="shared" si="0"/>
         <v>9284.41</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38" s="10">
         <v>62</v>
       </c>
       <c r="M38" s="4">
@@ -3592,14 +3589,14 @@
       <c r="P38" s="4">
         <v>22712.56</v>
       </c>
-      <c r="Q38" s="10">
+      <c r="Q38" s="9">
         <f t="shared" si="1"/>
         <v>20818.9</v>
       </c>
       <c r="S38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T38" s="11">
+      <c r="T38" s="10">
         <v>93</v>
       </c>
       <c r="U38" s="4">
@@ -3614,7 +3611,7 @@
       <c r="X38" s="4">
         <v>38249.99</v>
       </c>
-      <c r="Y38" s="10">
+      <c r="Y38" s="9">
         <f t="shared" si="2"/>
         <v>35368.11</v>
       </c>
@@ -3638,14 +3635,14 @@
       <c r="H39" s="4">
         <v>20389</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="9">
         <f t="shared" si="0"/>
         <v>19894.6</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L39" s="10">
         <v>68</v>
       </c>
       <c r="M39" s="4">
@@ -3660,14 +3657,14 @@
       <c r="P39" s="4">
         <v>44915.13</v>
       </c>
-      <c r="Q39" s="10">
+      <c r="Q39" s="9">
         <f t="shared" si="1"/>
         <v>44284.83</v>
       </c>
       <c r="S39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="T39" s="11">
+      <c r="T39" s="10">
         <v>102</v>
       </c>
       <c r="U39" s="4">
@@ -3682,7 +3679,7 @@
       <c r="X39" s="4">
         <v>67000.81</v>
       </c>
-      <c r="Y39" s="10">
+      <c r="Y39" s="9">
         <f t="shared" si="2"/>
         <v>66750.16</v>
       </c>
@@ -3706,14 +3703,14 @@
       <c r="H40" s="4">
         <v>14816.48</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="9">
         <f t="shared" si="0"/>
         <v>10742.86</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L40" s="10">
         <v>72</v>
       </c>
       <c r="M40" s="4">
@@ -3728,14 +3725,14 @@
       <c r="P40" s="4">
         <v>27374.48</v>
       </c>
-      <c r="Q40" s="10">
+      <c r="Q40" s="9">
         <f t="shared" si="1"/>
         <v>26293.47</v>
       </c>
       <c r="S40" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="T40" s="11">
+      <c r="T40" s="10">
         <v>108</v>
       </c>
       <c r="U40" s="4">
@@ -3750,7 +3747,7 @@
       <c r="X40" s="4">
         <v>43050.36</v>
       </c>
-      <c r="Y40" s="10">
+      <c r="Y40" s="9">
         <f t="shared" si="2"/>
         <v>38203.84</v>
       </c>
@@ -3774,14 +3771,14 @@
       <c r="H41" s="4">
         <v>17619.52</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="9">
         <f t="shared" si="0"/>
         <v>14780.62</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L41" s="10">
         <v>76</v>
       </c>
       <c r="M41" s="4">
@@ -3796,14 +3793,14 @@
       <c r="P41" s="4">
         <v>31209.32</v>
       </c>
-      <c r="Q41" s="10">
+      <c r="Q41" s="9">
         <f t="shared" si="1"/>
         <v>30492.64</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T41" s="11">
+      <c r="T41" s="10">
         <v>114</v>
       </c>
       <c r="U41" s="4">
@@ -3818,7 +3815,7 @@
       <c r="X41" s="4">
         <v>48364.89</v>
       </c>
-      <c r="Y41" s="10">
+      <c r="Y41" s="9">
         <f t="shared" si="2"/>
         <v>47013.52</v>
       </c>
@@ -3842,14 +3839,14 @@
       <c r="H42" s="4">
         <v>16546.63</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="9">
         <f t="shared" si="0"/>
         <v>15824.06</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L42" s="10">
         <v>113</v>
       </c>
       <c r="M42" s="4">
@@ -3864,14 +3861,14 @@
       <c r="P42" s="4">
         <v>30576.73</v>
       </c>
-      <c r="Q42" s="10">
+      <c r="Q42" s="9">
         <f t="shared" si="1"/>
         <v>26272.2</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T42" s="11">
+      <c r="T42" s="10">
         <v>169</v>
       </c>
       <c r="U42" s="4">
@@ -3886,7 +3883,7 @@
       <c r="X42" s="4">
         <v>45481.42</v>
       </c>
-      <c r="Y42" s="10">
+      <c r="Y42" s="9">
         <f t="shared" si="2"/>
         <v>43792.8</v>
       </c>
@@ -3910,14 +3907,14 @@
       <c r="H43" s="4">
         <v>257.43</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="9">
         <f t="shared" si="0"/>
         <v>246.96</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L43" s="10">
         <v>49</v>
       </c>
       <c r="M43" s="4">
@@ -3932,14 +3929,14 @@
       <c r="P43" s="4">
         <v>557.54</v>
       </c>
-      <c r="Q43" s="10">
+      <c r="Q43" s="9">
         <f t="shared" si="1"/>
         <v>535.33</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T43" s="11">
+      <c r="T43" s="10">
         <v>74</v>
       </c>
       <c r="U43" s="4">
@@ -3954,7 +3951,7 @@
       <c r="X43" s="4">
         <v>872.04</v>
       </c>
-      <c r="Y43" s="10">
+      <c r="Y43" s="9">
         <f t="shared" si="2"/>
         <v>857.1</v>
       </c>
@@ -3978,14 +3975,14 @@
       <c r="H44" s="4">
         <v>550.99</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="9">
         <f t="shared" si="0"/>
         <v>541.57</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L44" s="10">
         <v>97</v>
       </c>
       <c r="M44" s="4">
@@ -4000,14 +3997,14 @@
       <c r="P44" s="4">
         <v>1158.27</v>
       </c>
-      <c r="Q44" s="10">
+      <c r="Q44" s="9">
         <f t="shared" si="1"/>
         <v>1140.86</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="T44" s="11">
+      <c r="T44" s="10">
         <v>146</v>
       </c>
       <c r="U44" s="4">
@@ -4022,7 +4019,7 @@
       <c r="X44" s="4">
         <v>1746.95</v>
       </c>
-      <c r="Y44" s="10">
+      <c r="Y44" s="9">
         <f t="shared" si="2"/>
         <v>1725.15</v>
       </c>
@@ -4046,14 +4043,14 @@
       <c r="H45" s="4">
         <v>111.43</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="9">
         <f t="shared" si="0"/>
         <v>108.3</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L45" s="10">
         <v>35</v>
       </c>
       <c r="M45" s="4">
@@ -4068,14 +4065,14 @@
       <c r="P45" s="4">
         <v>254.17</v>
       </c>
-      <c r="Q45" s="10">
+      <c r="Q45" s="9">
         <f t="shared" si="1"/>
         <v>253.82</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="T45" s="11">
+      <c r="T45" s="10">
         <v>52</v>
       </c>
       <c r="U45" s="4">
@@ -4090,7 +4087,7 @@
       <c r="X45" s="4">
         <v>432.9</v>
       </c>
-      <c r="Y45" s="10">
+      <c r="Y45" s="9">
         <f t="shared" si="2"/>
         <v>422.36</v>
       </c>
@@ -4114,14 +4111,14 @@
       <c r="H46" s="4">
         <v>150</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="9">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L46" s="10">
         <v>21</v>
       </c>
       <c r="M46" s="4">
@@ -4136,14 +4133,14 @@
       <c r="P46" s="4">
         <v>410</v>
       </c>
-      <c r="Q46" s="10">
+      <c r="Q46" s="9">
         <f t="shared" si="1"/>
         <v>410</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T46" s="11">
+      <c r="T46" s="10">
         <v>31</v>
       </c>
       <c r="U46" s="4">
@@ -4158,7 +4155,7 @@
       <c r="X46" s="4">
         <v>698</v>
       </c>
-      <c r="Y46" s="10">
+      <c r="Y46" s="9">
         <f t="shared" si="2"/>
         <v>698</v>
       </c>
@@ -4182,14 +4179,14 @@
       <c r="H47" s="4">
         <v>638.03</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="9">
         <f t="shared" si="0"/>
         <v>638.03</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L47" s="11">
+      <c r="L47" s="10">
         <v>8</v>
       </c>
       <c r="M47" s="4">
@@ -4204,14 +4201,14 @@
       <c r="P47" s="4">
         <v>1397.42</v>
       </c>
-      <c r="Q47" s="10">
+      <c r="Q47" s="9">
         <f t="shared" si="1"/>
         <v>1397.42</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="T47" s="11">
+      <c r="T47" s="10">
         <v>12</v>
       </c>
       <c r="U47" s="4">
@@ -4226,7 +4223,7 @@
       <c r="X47" s="4">
         <v>2731</v>
       </c>
-      <c r="Y47" s="10">
+      <c r="Y47" s="9">
         <f t="shared" si="2"/>
         <v>2731</v>
       </c>
@@ -4250,14 +4247,14 @@
       <c r="H48" s="4">
         <v>456.58</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I48" s="9">
         <f t="shared" si="0"/>
         <v>456.58</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L48" s="11">
+      <c r="L48" s="10">
         <v>11</v>
       </c>
       <c r="M48" s="4">
@@ -4272,14 +4269,14 @@
       <c r="P48" s="4">
         <v>1647.33</v>
       </c>
-      <c r="Q48" s="10">
+      <c r="Q48" s="9">
         <f t="shared" si="1"/>
         <v>1591.34</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T48" s="11">
+      <c r="T48" s="10">
         <v>16</v>
       </c>
       <c r="U48" s="4">
@@ -4294,7 +4291,7 @@
       <c r="X48" s="4">
         <v>2540.07</v>
       </c>
-      <c r="Y48" s="10">
+      <c r="Y48" s="9">
         <f t="shared" si="2"/>
         <v>2540.07</v>
       </c>
